--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
-  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proj\UiPath\SCT9_Diamond_Project2\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" firstSheet="0" activeTab="0"/>
+    <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <x:sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="0"/>
+  <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <x:si>
     <x:t>No.</x:t>
   </x:si>
@@ -31,12 +25,24 @@
     <x:t>Skills</x:t>
   </x:si>
   <x:si>
+    <x:t>URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Job Ref</x:t>
+  </x:si>
+  <x:si>
     <x:t>Company</x:t>
   </x:si>
   <x:si>
     <x:t>Position</x:t>
   </x:si>
   <x:si>
+    <x:t>Score (%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gap</x:t>
+  </x:si>
+  <x:si>
     <x:t>Emp Type</x:t>
   </x:si>
   <x:si>
@@ -46,22 +52,13 @@
     <x:t>Industry</x:t>
   </x:si>
   <x:si>
-    <x:t>Score (%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Job Ref</x:t>
-  </x:si>
-  <x:si>
     <x:t>Address</x:t>
   </x:si>
   <x:si>
     <x:t>Years</x:t>
   </x:si>
   <x:si>
-    <x:t>Gap</x:t>
+    <x:t>132.pdf</x:t>
   </x:si>
   <x:si>
     <x:t>2.pdf</x:t>
@@ -70,7 +67,25 @@
     <x:t>AutoCAD,Excel,Excellent,MS Office</x:t>
   </x:si>
   <x:si>
+    <x:t>26.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Administration,CRM,Customer Satisfaction,Excel,Excellent</x:t>
+  </x:si>
+  <x:si>
     <x:t>3.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Communication</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Excel,Excellent,PowerPoint</x:t>
   </x:si>
   <x:si>
     <x:t>Achyuth Resume_8.docx</x:t>
@@ -100,12 +115,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
+<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1" x14ac:knownFonts="1">
+  <x:fonts count="1">
     <x:font>
+      <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
@@ -121,23 +137,30 @@
     </x:fill>
   </x:fills>
   <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+  <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+  <x:cellXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -146,19 +169,10 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -441,133 +455,168 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A6:C11"/>
+  <x:dimension ref="A1:N11"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="I8" sqref="I8 I8:I8 A1:XFD1048576"/>
-    </x:sheetView>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:14">
-      <x:c r="A1" s="2" t="s">
+      <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="2" t="s">
+      <x:c r="B1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="2" t="s">
+      <x:c r="C1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="2" t="s">
+      <x:c r="D1" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="2" t="s">
+      <x:c r="E1" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="2" t="s">
+      <x:c r="F1" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="2" t="s">
+      <x:c r="G1" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="2" t="s">
+      <x:c r="H1" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I1" s="2" t="s">
+      <x:c r="I1" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J1" s="2" t="s">
+      <x:c r="J1" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K1" s="2" t="s">
+      <x:c r="K1" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L1" s="2" t="s">
+      <x:c r="L1" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="M1" s="2" t="s">
+      <x:c r="M1" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="N1" s="2" t="s">
+      <x:c r="N1" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:14">
-      <x:c r="A2" s="2" t="n">
+      <x:c r="A2" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="2" t="s">
+      <x:c r="B2" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C2" s="2" t="s">
+    </x:row>
+    <x:row r="3" spans="1:14">
+      <x:c r="A3" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:14">
-      <x:c r="A3" s="2" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
     </x:row>
     <x:row r="4" spans="1:14">
-      <x:c r="A4" s="2" t="n">
+      <x:c r="A4" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B4" s="2" t="s">
+      <x:c r="B4" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C4" s="2" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:14">
-      <x:c r="A5" s="2" t="n">
+      <x:c r="A5" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B5" s="2" t="s">
+      <x:c r="B5" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
+      <x:c r="C5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:14">
+      <x:c r="A6" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <x:c r="A6" s="2" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B6" s="2" t="s">
+      <x:c r="C6" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C6" s="2" t="s">
+    </x:row>
+    <x:row r="7" spans="1:14">
+      <x:c r="A7" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <x:c r="A7" s="2" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B7" s="2" t="s">
+      <x:c r="C7" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C7" s="2" t="s">
+    </x:row>
+    <x:row r="8" spans="1:14">
+      <x:c r="A8" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:14" x14ac:dyDescent="0.3"/>
-    <x:row r="9" spans="1:14" x14ac:dyDescent="0.3"/>
-    <x:row r="10" spans="1:14" x14ac:dyDescent="0.3"/>
-    <x:row r="11" spans="1:14" x14ac:dyDescent="0.3"/>
+      <x:c r="C8" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:14">
+      <x:c r="A9" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:14">
+      <x:c r="A10" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:14">
+      <x:c r="A11" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <x:workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e6431dddeb4959f/Documents/UiPath/Diamond/sct9-diamond-proj2/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_E57262F292897F530488EE9AD98451B56B6CA43C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75EDF243-A696-4630-9058-BE035CD3F012}"/>
   <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="125725"/>
+  <x:calcPr calcId="0"/>
 </x:workbook>
 </file>
 
@@ -115,13 +122,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="1" x14ac:knownFonts="1">
     <x:font>
-      <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
@@ -137,30 +143,22 @@
     </x:fill>
   </x:fills>
   <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -169,10 +167,19 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </x:ext>
+  </x:extLst>
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -455,168 +462,176 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="A1:N11"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
+    <x:sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <x:selection activeCell="P16" sqref="P16 P16:P16"/>
+    </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <x:cols>
+    <x:col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="36.632812" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="53.90625" style="1" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:14">
-      <x:c r="A1" s="0" t="s">
+    <x:row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+      <x:c r="B1" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
+      <x:c r="C1" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
+      <x:c r="D1" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="0" t="s">
+      <x:c r="E1" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="0" t="s">
+      <x:c r="F1" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="0" t="s">
+      <x:c r="G1" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="0" t="s">
+      <x:c r="H1" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I1" s="0" t="s">
+      <x:c r="I1" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J1" s="0" t="s">
+      <x:c r="J1" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K1" s="0" t="s">
+      <x:c r="K1" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L1" s="0" t="s">
+      <x:c r="L1" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="M1" s="0" t="s">
+      <x:c r="M1" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="N1" s="0" t="s">
+      <x:c r="N1" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:14">
-      <x:c r="A2" s="0" t="n">
+    <x:row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A2" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
+      <x:c r="B2" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:14">
-      <x:c r="A3" s="0" t="n">
+    <x:row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A3" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="B3" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="C3" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:14">
-      <x:c r="A4" s="0" t="n">
+    <x:row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A4" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="B4" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="C4" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:14">
-      <x:c r="A5" s="0" t="n">
+    <x:row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A5" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="B5" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="C5" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:14">
-      <x:c r="A6" s="0" t="n">
+    <x:row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A6" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="B6" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="C6" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:14">
-      <x:c r="A7" s="0" t="n">
+    <x:row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A7" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="B7" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="C7" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:14">
-      <x:c r="A8" s="0" t="n">
+    <x:row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A8" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="B8" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="C8" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:14">
-      <x:c r="A9" s="0" t="n">
+    <x:row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A9" s="1" t="n">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
+      <x:c r="B9" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
+      <x:c r="C9" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:14">
-      <x:c r="A10" s="0" t="n">
+    <x:row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A10" s="1" t="n">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="B10" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="C10" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:14">
-      <x:c r="A11" s="0" t="n">
+    <x:row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A11" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
+      <x:c r="B11" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="C11" s="1" t="s">
         <x:v>31</x:v>
       </x:c>
     </x:row>
+    <x:row r="16" spans="1:16"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <x:si>
     <x:t>No.</x:t>
   </x:si>
@@ -32,6 +32,9 @@
     <x:t>Skills</x:t>
   </x:si>
   <x:si>
+    <x:t>Category</x:t>
+  </x:si>
+  <x:si>
     <x:t>URL</x:t>
   </x:si>
   <x:si>
@@ -68,55 +71,61 @@
     <x:t>132.pdf</x:t>
   </x:si>
   <x:si>
+    <x:t>English,SEM,TI,Travel</x:t>
+  </x:si>
+  <x:si>
     <x:t>2.pdf</x:t>
   </x:si>
   <x:si>
-    <x:t>AutoCAD,Excel,Excellent,MS Office</x:t>
+    <x:t>AutoCAD,C++,English,Excel,Excellent,MS Office,SEM,TI</x:t>
   </x:si>
   <x:si>
     <x:t>26.pdf</x:t>
   </x:si>
   <x:si>
-    <x:t>Administration,CRM,Customer Satisfaction,Excel,Excellent</x:t>
+    <x:t>Power Point,Administration,CRM,Customer Satisfaction,English,Excel,Excellent,Marketing,Sales,SAP</x:t>
   </x:si>
   <x:si>
     <x:t>3.pdf</x:t>
   </x:si>
   <x:si>
+    <x:t>English,TI</x:t>
+  </x:si>
+  <x:si>
     <x:t>56.pdf</x:t>
   </x:si>
   <x:si>
-    <x:t>Communication</x:t>
+    <x:t>Communication,IP,TI</x:t>
   </x:si>
   <x:si>
     <x:t>92.pdf</x:t>
   </x:si>
   <x:si>
-    <x:t>Excel,Excellent,PowerPoint</x:t>
+    <x:t>PowerPoint,English,Excel,Excellent,TI</x:t>
   </x:si>
   <x:si>
     <x:t>Achyuth Resume_8.docx</x:t>
   </x:si>
   <x:si>
-    <x:t>Agile,Docker,Excel,Excellent,Java,JavaScript,Software Development,SQL,Web Service,Windows</x:t>
+    <x:t>Windows,Agile,Architect,Authorization,Automation,AV,C++,Capital,Customer Service,Databases,Docker,EC2,Excel,Excellent,FX,Healthcare,Java,JavaScript,JIRA,JSON,Linux,Loans,Logging,Mac,Oracle,PL/SQL,Property,Python,SDLC,Servers,Software Development,SQL,Stress,TI,Web Service,XML</x:t>
   </x:si>
   <x:si>
     <x:t>Adelina_Erimia_PMP1.docx</x:t>
   </x:si>
   <x:si>
-    <x:t>Agile,Communication,Construction,Excel,Excellent,ITIL,Leadership,PMP,PowerPoint,project management,Recruiting</x:t>
+    <x:t>PowerPoint,Problem Management,UAT,Agile,Change,Communication,Construction,Consulting,Excel,Excellent,ITIL,Leadership,MS Project,Outlook,PMP,project management,Real Estate,Recruiting,Scrum,SharePoint,TI</x:t>
   </x:si>
   <x:si>
     <x:t>Anil Krishna Mogalaturthi.docx</x:t>
   </x:si>
   <x:si>
-    <x:t>Administration,Agile,Communication,compliance,Docker,Excel,Excellent,Java,JavaScript,Operating Systems,SQL,Troubleshooting,Web Service,Windows</x:t>
+    <x:t>Windows,Administration,Agile,Architect,Automation,AV,Azure,B2B,C++,Communication,compliance,Databases,Docker,EC2,Excel,Excellent,IP,Java,JavaScript,JIRA,JSON,Linux,Logging,Networking,Operating Systems,Oracle,Pipelines,PL/SQL,Scripting,Scrum,SDLC,Selenium,Servers,SQL,System Integration,TI,Troubleshooting,Web Service,XML</x:t>
   </x:si>
   <x:si>
     <x:t>B Shaker-Sr BSA-Scrum Master .docx</x:t>
   </x:si>
   <x:si>
-    <x:t>Agile,compliance,CRM,Excel,Java,JavaScript,MS Office,Operating Systems,SQL,Web Service,Windows</x:t>
+    <x:t>User Acceptance Testing,UAT,Windows,Windows 7,.Net,Accounting,Agile,Assurance,Banking,Business Analyst,Business Requirements,compliance,CRM,Data Migration,Databases,ETL,Excel,Investment Banking,IP,Java,JavaScript,JIRA,Mac,MS Office,MS Project,Operating Systems,Oracle,SAP,Scrum,SDLC,SharePoint,SQL,Tableau,Test Cases,Test Planning,Web Service,XML</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -523,13 +532,19 @@
       <x:c r="N1" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
+      <x:c r="O1" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
     </x:row>
     <x:row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <x:c r="A2" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -537,10 +552,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:16" x14ac:dyDescent="0.35">
@@ -548,10 +563,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -559,10 +574,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:16" x14ac:dyDescent="0.35">
@@ -570,10 +585,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -581,10 +596,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:16" x14ac:dyDescent="0.35">
@@ -592,10 +607,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:16" x14ac:dyDescent="0.35">
@@ -603,10 +618,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:16" x14ac:dyDescent="0.35">
@@ -614,10 +629,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:16" x14ac:dyDescent="0.35">
@@ -625,10 +640,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:16"/>

--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
-  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proj\UiPath\SCT9_Diamond_Project2\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tay Hock Gek\Documents\UiPath\sct9-diamond-proj2\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55ED8AC-C793-41CC-BF70-43D3CA901D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <x:si>
     <x:t>No.</x:t>
   </x:si>
@@ -74,6 +75,36 @@
   </x:si>
   <x:si>
     <x:t>mycareersfuture.gov.sg/job/customer-service/travel-consultant-skyline-travel-consulting-06ed00198f939ca078901e43afa97d7b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCF-2022-0116373</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E-STAR PRECISION (S) PTE LTD</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">QC inspector </x:t>
+  </x:si>
+  <x:si>
+    <x:t>0% skills matched</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Permanent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Non-executive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Engineering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2035 BUKIT BATOK STREET 23 659540</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 year exp</x:t>
   </x:si>
   <x:si>
     <x:t>2.pdf</x:t>
@@ -88,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
@@ -123,7 +154,8 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -429,94 +461,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="A1:O3"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="F12" sqref="F12 F12:F12"/>
+      <x:selection activeCell="O1" sqref="O1 O1:O1"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <x:cols>
+    <x:col min="1" max="12" width="9.140625" style="2" customWidth="1"/>
+    <x:col min="13" max="13" width="11.269531" style="2" bestFit="1" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <x:c r="A1" s="1" t="s">
+    <x:row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="1" t="s">
+      <x:c r="B1" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="1" t="s">
+      <x:c r="C1" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="1" t="s">
+      <x:c r="D1" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="1" t="s">
+      <x:c r="E1" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="1" t="s">
+      <x:c r="F1" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="1" t="s">
+      <x:c r="G1" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="1" t="s">
+      <x:c r="H1" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I1" s="1" t="s">
+      <x:c r="I1" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J1" s="1" t="s">
+      <x:c r="J1" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K1" s="1" t="s">
+      <x:c r="K1" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L1" s="1" t="s">
+      <x:c r="L1" s="2" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="M1" s="1" t="s">
+      <x:c r="M1" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="N1" s="1" t="s">
+      <x:c r="N1" s="2" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="O1" s="1" t="s">
+      <x:c r="O1" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <x:c r="A2" s="1" t="n">
+    <x:row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <x:c r="A2" s="2" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="1" t="s">
+      <x:c r="B2" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C2" s="1" t="s">
+      <x:c r="C2" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="E2" s="1" t="s">
+      <x:c r="E2" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
+      <x:c r="F2" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G2" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H2" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I2" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J2" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K2" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L2" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M2" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="N2" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="O2" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
     </x:row>
-    <x:row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <x:c r="A3" s="1" t="n">
+    <x:row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <x:c r="A3" s="2" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="s">
-        <x:v>20</x:v>
+      <x:c r="B3" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:15"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proj\UiPath\SCT9_Diamond_Project2\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tay Hock Gek\Documents\UiPath\sct9-diamond-proj2\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EAC5C1-E133-46F8-AD4D-0CD7CCB46CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -54,58 +55,58 @@
     <t>Emp Type</t>
   </si>
   <si>
-    <t>Seniority</t>
-  </si>
-  <si>
-    <t>Industry</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
-    <t>Years</t>
-  </si>
-  <si>
     <t>1388.pdf</t>
   </si>
   <si>
     <t>Microsoft Office,PowerPoint,Windows,Windows Operating Systems,Accounting,Construction,Electrical,English,ERP,Excel,ISO,Laboratory,Operating Systems,Pipelines,Wiring</t>
   </si>
   <si>
-    <t>mycareersfuture.gov.sg/job/information-technology/vm-windows-system-engineer-talento-meld-8b60b4dc412b3473a8ed78118f79cc30</t>
-  </si>
-  <si>
     <t>64.docx</t>
   </si>
   <si>
     <t>English,Excel,ICT,ISO,Marketing,Teaching</t>
   </si>
   <si>
-    <t>mycareersfuture.gov.sg/job/education-training/teachers-physics-vaster-learning-000484fd9bfaf546209b59d94c29c81a</t>
-  </si>
-  <si>
     <t>Adelina_Erimia_PMP1.docx</t>
   </si>
   <si>
     <t>PowerPoint,Problem Management,UAT,Agile,Change,Communication,Construction,Consulting,Excel,ITIL,Leadership,MS Project,Outlook,PMP,project management,Real Estate,Recruiting,Scrum,SharePoint</t>
   </si>
   <si>
-    <t>mycareersfuture.gov.sg/job/information-technology/senior-project-manager-trinity-consulting-services-83635a811c581b8096734efbfd903cb6</t>
-  </si>
-  <si>
     <t>SUNITHA Project Manager (1).docx</t>
   </si>
   <si>
     <t>Risk Management,User Acceptance Testing,UAT,Windows,.Net,Active Directory,Agile,Architect,B2B,Business Analyst,Business Intelligence,Change,Data Analysis,Data Migration,Data Modeling,ECC,ERP,ETL,Excel,Healthcare,Java,JavaScript,JIRA,Linux,MS Office,MS Project,Operating Systems,Oracle,Outlook,Payroll,PL/SQL,Power BI,project management,Project Planning,Sales,SAP,SAP BI,SAP HANA,Scheduling,Scrum,SDLC,Servers,SharePoint,SQL,Strategy,Tableau,Technical Design,Test Cases,Time Management,Travel,User Stories,Web Service,XML</t>
   </si>
   <si>
-    <t>mycareersfuture.gov.sg/job/information-technology/go12267493-business-analyst-robert-half-international-00bbaab076d88a28a130d913f11f5d4a</t>
+    <t>Job Level</t>
+  </si>
+  <si>
+    <t>Job Function</t>
+  </si>
+  <si>
+    <t>Year Exp</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/vm-windows-system-engineer-talento-meld-8b60b4dc412b3473a8ed78118f79cc30</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/education-training/teachers-physics-vaster-learning-000484fd9bfaf546209b59d94c29c81a</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/senior-project-manager-trinity-consulting-services-83635a811c581b8096734efbfd903cb6</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/go12267493-business-analyst-robert-half-international-00bbaab076d88a28a130d913f11f5d4a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,9 +135,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,19 +440,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="8.90625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,71 +487,71 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -1,159 +1,265 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tay Hock Gek\Documents\UiPath\sct9-diamond-proj2\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EAC5C1-E133-46F8-AD4D-0CD7CCB46CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+  <x:bookViews>
+    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="0"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Filename</t>
-  </si>
-  <si>
-    <t>Skills</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Job Ref</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Score (%)</t>
-  </si>
-  <si>
-    <t>Gap</t>
-  </si>
-  <si>
-    <t>Emp Type</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>1388.pdf</t>
-  </si>
-  <si>
-    <t>Microsoft Office,PowerPoint,Windows,Windows Operating Systems,Accounting,Construction,Electrical,English,ERP,Excel,ISO,Laboratory,Operating Systems,Pipelines,Wiring</t>
-  </si>
-  <si>
-    <t>64.docx</t>
-  </si>
-  <si>
-    <t>English,Excel,ICT,ISO,Marketing,Teaching</t>
-  </si>
-  <si>
-    <t>Adelina_Erimia_PMP1.docx</t>
-  </si>
-  <si>
-    <t>PowerPoint,Problem Management,UAT,Agile,Change,Communication,Construction,Consulting,Excel,ITIL,Leadership,MS Project,Outlook,PMP,project management,Real Estate,Recruiting,Scrum,SharePoint</t>
-  </si>
-  <si>
-    <t>SUNITHA Project Manager (1).docx</t>
-  </si>
-  <si>
-    <t>Risk Management,User Acceptance Testing,UAT,Windows,.Net,Active Directory,Agile,Architect,B2B,Business Analyst,Business Intelligence,Change,Data Analysis,Data Migration,Data Modeling,ECC,ERP,ETL,Excel,Healthcare,Java,JavaScript,JIRA,Linux,MS Office,MS Project,Operating Systems,Oracle,Outlook,Payroll,PL/SQL,Power BI,project management,Project Planning,Sales,SAP,SAP BI,SAP HANA,Scheduling,Scrum,SDLC,Servers,SharePoint,SQL,Strategy,Tableau,Technical Design,Test Cases,Time Management,Travel,User Stories,Web Service,XML</t>
-  </si>
-  <si>
-    <t>Job Level</t>
-  </si>
-  <si>
-    <t>Job Function</t>
-  </si>
-  <si>
-    <t>Year Exp</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/information-technology/vm-windows-system-engineer-talento-meld-8b60b4dc412b3473a8ed78118f79cc30</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/education-training/teachers-physics-vaster-learning-000484fd9bfaf546209b59d94c29c81a</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/information-technology/senior-project-manager-trinity-consulting-services-83635a811c581b8096734efbfd903cb6</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/information-technology/go12267493-business-analyst-robert-half-international-00bbaab076d88a28a130d913f11f5d4a</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+  <x:si>
+    <x:t>No.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Filename</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Skills</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Job Ref</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Position</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Score (%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gap</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emp Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Job Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Job Function</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Year Exp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1388.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Microsoft Office,PowerPoint,Windows,Windows Operating Systems,Accounting,Construction,Electrical,English,ERP,Excel,ISO,Laboratory,Operating Systems,Pipelines,Wiring</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/vm-windows-system-engineer-talento-meld-8b60b4dc412b3473a8ed78118f79cc30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCF-2022-0291617</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TALENTO MELD PTE. LTD.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VM Windows System Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0% skills matched</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Junior Executive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Information Technology</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Islandwide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 years exp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64.docx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>English,Excel,ICT,ISO,Marketing,Teaching</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.mycareersfuture.gov.sg/job/education-training/teachers-physics-vaster-learning-000484fd9bfaf546209b59d94c29c81a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCF-2022-0241232</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VASTER LEARNING PTE. LTD.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Teachers--Physics </x:t>
+  </x:si>
+  <x:si>
+    <x:t>7% skills matched</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Part Time, Full Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Professional</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Education and Training</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GOLDHILL SHOPPING CENTRE, 201A THOMSON ROAD 307637</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adelina_Erimia_PMP1.docx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PowerPoint,Problem Management,UAT,Agile,Change,Communication,Construction,Consulting,Excel,ITIL,Leadership,MS Project,Outlook,PMP,project management,Real Estate,Recruiting,Scrum,SharePoint</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/senior-project-manager-trinity-consulting-services-83635a811c581b8096734efbfd903cb6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCF-2022-0298794</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TRINITY CONSULTING SERVICES PTE. LTD.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Senior Project Manager</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14% skills matched</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manager</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 years exp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUNITHA Project Manager (1).docx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Risk Management,User Acceptance Testing,UAT,Windows,.Net,Active Directory,Agile,Architect,B2B,Business Analyst,Business Intelligence,Change,Data Analysis,Data Migration,Data Modeling,ECC,ERP,ETL,Excel,Healthcare,Java,JavaScript,JIRA,Linux,MS Office,MS Project,Operating Systems,Oracle,Outlook,Payroll,PL/SQL,Power BI,project management,Project Planning,Sales,SAP,SAP BI,SAP HANA,Scheduling,Scrum,SDLC,Servers,SharePoint,SQL,Strategy,Tableau,Technical Design,Test Cases,Time Management,Travel,User Stories,Web Service,XML</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/go12267493-business-analyst-robert-half-international-00bbaab076d88a28a130d913f11f5d4a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCF-2022-0292701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROBERT HALF INTERNATIONAL PTE. LTD.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GO12267493 - Business Analyst (Contract)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13% skills matched</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Senior Executive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REPUBLIC PLAZA, 9 RAFFLES PLACE 048619</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7 years exp</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="1" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,122 +546,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="3" width="8.90625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:O5"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="E2" sqref="E2 E2:E5"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <x:cols>
+    <x:col min="1" max="3" width="8.90625" style="3" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <x:c r="A1" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L1" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M1" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="N1" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="O1" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <x:c r="A2" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C2" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E2" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F2" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G2" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H2" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I2" s="3" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J2" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K2" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L2" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M2" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="N2" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="O2" s="3" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <x:c r="A3" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B3" s="3" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C3" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E3" s="3" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F3" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G3" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H3" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I3" s="3" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="J3" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K3" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="L3" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="M3" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N3" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="O3" s="3" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <x:c r="A4" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B4" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C4" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E4" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F4" s="3" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G4" s="3" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H4" s="3" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I4" s="3" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="J4" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K4" s="3" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="L4" s="3" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="M4" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="N4" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="O4" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <x:c r="A5" s="3" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K5" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L5" s="3" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="M5" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="N5" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="O5" s="3" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tay Hock Gek\Documents\UiPath\sct9-diamond-proj2\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EAC5C1-E133-46F8-AD4D-0CD7CCB46CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBEEA16-798E-4265-A81C-5B692CE87FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <x:si>
     <x:t>No.</x:t>
   </x:si>
@@ -66,6 +66,9 @@
   </x:si>
   <x:si>
     <x:t>Year Exp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salary</x:t>
   </x:si>
   <x:si>
     <x:t>1388.pdf</x:t>
@@ -238,10 +241,9 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -550,238 +552,239 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:O5"/>
+  <x:dimension ref="A1:P5"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="E2" sqref="E2 E2:E5"/>
-    </x:sheetView>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <x:cols>
-    <x:col min="1" max="3" width="8.90625" style="3" customWidth="1"/>
+    <x:col min="1" max="3" width="8.90625" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <x:c r="A1" s="3" t="s">
+    <x:row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="3" t="s">
+      <x:c r="B1" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="3" t="s">
+      <x:c r="C1" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="3" t="s">
+      <x:c r="D1" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="3" t="s">
+      <x:c r="E1" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="3" t="s">
+      <x:c r="F1" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="3" t="s">
+      <x:c r="G1" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="3" t="s">
+      <x:c r="H1" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I1" s="3" t="s">
+      <x:c r="I1" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J1" s="3" t="s">
+      <x:c r="J1" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K1" s="3" t="s">
+      <x:c r="K1" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L1" s="3" t="s">
+      <x:c r="L1" s="2" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="M1" s="3" t="s">
+      <x:c r="M1" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="N1" s="3" t="s">
+      <x:c r="N1" s="2" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="O1" s="3" t="s">
+      <x:c r="O1" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
+      <x:c r="P1" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <x:c r="A2" s="3" t="n">
+    <x:row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A2" s="2" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C2" s="3" t="s">
+      <x:c r="B2" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="E2" s="3" t="s">
+      <x:c r="C2" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="F2" s="3" t="s">
+      <x:c r="E2" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="G2" s="3" t="s">
+      <x:c r="F2" s="2" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="H2" s="3" t="s">
+      <x:c r="G2" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="I2" s="3" t="s">
+      <x:c r="H2" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="J2" s="3" t="s">
+      <x:c r="I2" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="K2" s="3" t="s">
+      <x:c r="J2" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="L2" s="3" t="s">
+      <x:c r="K2" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="M2" s="3" t="s">
+      <x:c r="L2" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="N2" s="3" t="s">
+      <x:c r="M2" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="O2" s="3" t="s">
+      <x:c r="N2" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
+      <x:c r="O2" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
     </x:row>
-    <x:row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <x:c r="A3" s="3" t="n">
+    <x:row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A3" s="2" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="3" t="s">
+      <x:c r="B3" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G3" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H3" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="I3" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="J3" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K3" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="L3" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M3" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="N3" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O3" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C3" s="3" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E3" s="3" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F3" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G3" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="H3" s="3" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="I3" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="J3" s="3" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="K3" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="L3" s="3" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="M3" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="N3" s="3" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="O3" s="3" t="s">
+    </x:row>
+    <x:row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A4" s="2" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E4" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F4" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G4" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H4" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I4" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="J4" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K4" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L4" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="M4" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="N4" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
+      <x:c r="O4" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <x:c r="A4" s="3" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B4" s="3" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C4" s="3" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E4" s="3" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="F4" s="3" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="G4" s="3" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="H4" s="3" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="I4" s="3" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="J4" s="3" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="K4" s="3" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="L4" s="3" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="M4" s="3" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="N4" s="3" t="s">
+    <x:row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A5" s="2" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="I5" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="J5" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K5" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L5" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="M5" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="O4" s="3" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <x:c r="A5" s="3" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="J5" s="3" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="K5" s="3" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L5" s="3" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="M5" s="3" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="N5" s="3" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="O5" s="3" t="s">
+      <x:c r="N5" s="2" t="s">
         <x:v>58</x:v>
+      </x:c>
+      <x:c r="O5" s="2" t="s">
+        <x:v>59</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <x:si>
     <x:t>No.</x:t>
   </x:si>
@@ -128,9 +128,6 @@
     <x:t xml:space="preserve">Teachers--Physics </x:t>
   </x:si>
   <x:si>
-    <x:t>7% skills matched</x:t>
-  </x:si>
-  <x:si>
     <x:t>Part Time, Full Time</x:t>
   </x:si>
   <x:si>
@@ -161,9 +158,6 @@
     <x:t>Senior Project Manager</x:t>
   </x:si>
   <x:si>
-    <x:t>14% skills matched</x:t>
-  </x:si>
-  <x:si>
     <x:t>Full Time</x:t>
   </x:si>
   <x:si>
@@ -189,9 +183,6 @@
   </x:si>
   <x:si>
     <x:t>GO12267493 - Business Analyst (Contract)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13% skills matched</x:t>
   </x:si>
   <x:si>
     <x:t>Senior Executive</x:t>
@@ -678,22 +669,22 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I3" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J3" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="K3" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="L3" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="L3" s="2" t="s">
+      <x:c r="M3" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="M3" s="2" t="s">
+      <x:c r="N3" s="2" t="s">
         <x:v>38</x:v>
-      </x:c>
-      <x:c r="N3" s="2" t="s">
-        <x:v>39</x:v>
       </x:c>
       <x:c r="O3" s="2" t="s">
         <x:v>28</x:v>
@@ -704,34 +695,34 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="C4" s="2" t="s">
+      <x:c r="E4" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="E4" s="2" t="s">
+      <x:c r="F4" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="F4" s="2" t="s">
+      <x:c r="G4" s="2" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="G4" s="2" t="s">
+      <x:c r="H4" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="H4" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
       <x:c r="I4" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J4" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="K4" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="L4" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="M4" s="2" t="s">
         <x:v>26</x:v>
@@ -740,7 +731,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="O4" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -748,25 +739,25 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
+      <x:c r="F5" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="E5" s="2" t="s">
+      <x:c r="G5" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="F5" s="2" t="s">
+      <x:c r="H5" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="G5" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="H5" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
       <x:c r="I5" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J5" s="2" t="s">
         <x:v>23</x:v>
@@ -775,16 +766,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="L5" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="M5" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="N5" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="O5" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <x:si>
     <x:t>No.</x:t>
   </x:si>
@@ -89,10 +89,10 @@
     <x:t>VM Windows System Engineer</x:t>
   </x:si>
   <x:si>
-    <x:t>0% skills matched</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NA</x:t>
+    <x:t>8% skills matched</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">vSphere, Hardware, VMware, VM, Group Policy, Windows Server, Windows Operating Systems, Problem Management, Configuration Management, Team Player, Software Installation, </x:t>
   </x:si>
   <x:si>
     <x:t>Contract</x:t>
@@ -128,6 +128,12 @@
     <x:t xml:space="preserve">Teachers--Physics </x:t>
   </x:si>
   <x:si>
+    <x:t>7% skills matched</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">vSphere, Hardware, VMware, VM, Group Policy, Windows Server, Windows Operating Systems, Problem Management, Configuration Management, Team Player, Software Installation, Sports Coaching, Written English, Classroom, Teaching, ICT, Classroom Management, Physics, Tuition, Fitness, International Education, Teaching Experience, Physical Education, Team Player, Manage Change, </x:t>
+  </x:si>
+  <x:si>
     <x:t>Part Time, Full Time</x:t>
   </x:si>
   <x:si>
@@ -158,6 +164,12 @@
     <x:t>Senior Project Manager</x:t>
   </x:si>
   <x:si>
+    <x:t>36% skills matched</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">vSphere, Hardware, VMware, VM, Group Policy, Windows Server, Windows Operating Systems, Problem Management, Configuration Management, Team Player, Software Installation, Sports Coaching, Written English, Classroom, Teaching, ICT, Classroom Management, Physics, Tuition, Fitness, International Education, Teaching Experience, Physical Education, Team Player, Manage Change, Management Skills, Leadership, Construction, Change Management, Program Management, PMP, Project Delivery, Software Development, Business Requirements, </x:t>
+  </x:si>
+  <x:si>
     <x:t>Full Time</x:t>
   </x:si>
   <x:si>
@@ -183,6 +195,12 @@
   </x:si>
   <x:si>
     <x:t>GO12267493 - Business Analyst (Contract)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56% skills matched</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">vSphere, Hardware, VMware, VM, Group Policy, Windows Server, Windows Operating Systems, Problem Management, Configuration Management, Team Player, Software Installation, Sports Coaching, Written English, Classroom, Teaching, ICT, Classroom Management, Physics, Tuition, Fitness, International Education, Teaching Experience, Physical Education, Team Player, Manage Change, Management Skills, Leadership, Construction, Change Management, Program Management, PMP, Project Delivery, Software Development, Business Requirements, CRM, Microsoft Excel, Entertainment, Business Analysis, Banking, Team Player, Business Requirements, </x:t>
   </x:si>
   <x:si>
     <x:t>Senior Executive</x:t>
@@ -226,17 +244,90 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="25">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -627,7 +718,7 @@
       <x:c r="I2" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="J2" s="2" t="s">
+      <x:c r="J2" s="3" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="K2" s="2" t="s">
@@ -669,22 +760,22 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I3" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J3" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="J3" s="3" t="s">
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K3" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="L3" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M3" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="N3" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="O3" s="2" t="s">
         <x:v>28</x:v>
@@ -695,34 +786,34 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G4" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I4" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J4" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="J4" s="3" t="s">
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K4" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="L4" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="M4" s="2" t="s">
         <x:v>26</x:v>
@@ -731,7 +822,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="O4" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -739,43 +830,43 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I5" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J5" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="s">
+        <x:v>59</x:v>
       </x:c>
       <x:c r="K5" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="L5" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="M5" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="N5" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="O5" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>No.</x:t>
   </x:si>
@@ -38,6 +38,18 @@
     <x:t>URL</x:t>
   </x:si>
   <x:si>
+    <x:t>Salary</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1388.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Microsoft Office,PowerPoint,Windows,Windows Operating Systems,Accounting,Construction,Electrical,English,ERP,Excel,ISO,Laboratory,Operating Systems,Pipelines,Wiring</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/manager-wine-trade-asia-18b0eb386bb1cd3491b446f30ee74464</x:t>
+  </x:si>
+  <x:si>
     <x:t>Job Ref</x:t>
   </x:si>
   <x:si>
@@ -47,7 +59,7 @@
     <x:t>Position</x:t>
   </x:si>
   <x:si>
-    <x:t>Score (%)</x:t>
+    <x:t>Score</x:t>
   </x:si>
   <x:si>
     <x:t>Gap</x:t>
@@ -68,37 +80,34 @@
     <x:t>Year Exp</x:t>
   </x:si>
   <x:si>
-    <x:t>Salary</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1388.pdf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Microsoft Office,PowerPoint,Windows,Windows Operating Systems,Accounting,Construction,Electrical,English,ERP,Excel,ISO,Laboratory,Operating Systems,Pipelines,Wiring</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/vm-windows-system-engineer-talento-meld-8b60b4dc412b3473a8ed78118f79cc30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MCF-2022-0291617</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TALENTO MELD PTE. LTD.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VM Windows System Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8% skills matched</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">vSphere, Hardware, VMware, VM, Group Policy, Windows Server, Windows Operating Systems, Problem Management, Configuration Management, Team Player, Software Installation, </x:t>
+    <x:t>64.docx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>English,Excel,ICT,ISO,Marketing,Teaching</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.mycareersfuture.gov.sg/job/education-training/specialist-teacher-nexus-international-school-deceab0e66f3121a6ee1decc4db0cdf9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCF-2022-0272612</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WINE TRADE ASIA PTE. LTD.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT Manager (6 Months Contract - Renewable  /  Conversion to Full-Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40% skills matched</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Troubleshooting, Hardware, Information Technology, Windows Server, Compliance, Technical Support, </x:t>
   </x:si>
   <x:si>
     <x:t>Contract</x:t>
   </x:si>
   <x:si>
-    <x:t>Junior Executive</x:t>
+    <x:t>Manager</x:t>
   </x:si>
   <x:si>
     <x:t>Information Technology</x:t>
@@ -107,109 +116,88 @@
     <x:t>Islandwide</x:t>
   </x:si>
   <x:si>
-    <x:t>2 years exp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64.docx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>English,Excel,ICT,ISO,Marketing,Teaching</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.mycareersfuture.gov.sg/job/education-training/teachers-physics-vaster-learning-000484fd9bfaf546209b59d94c29c81a</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MCF-2022-0241232</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VASTER LEARNING PTE. LTD.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Teachers--Physics </x:t>
-  </x:si>
-  <x:si>
-    <x:t>7% skills matched</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">vSphere, Hardware, VMware, VM, Group Policy, Windows Server, Windows Operating Systems, Problem Management, Configuration Management, Team Player, Software Installation, Sports Coaching, Written English, Classroom, Teaching, ICT, Classroom Management, Physics, Tuition, Fitness, International Education, Teaching Experience, Physical Education, Team Player, Manage Change, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Part Time, Full Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Professional</x:t>
+    <x:t>5 years exp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adelina_Erimia_PMP1.docx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PowerPoint,Problem Management,UAT,Agile,Change,Communication,Construction,Consulting,Excel,ITIL,Leadership,MS Project,Outlook,PMP,project management,Real Estate,Recruiting,Scrum,SharePoint</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/project-manager-trinity-consulting-services-c365ac8714e1c1d4053cb94decc4182a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCF-2022-0283990</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NEXUS INTERNATIONAL SCHOOL (SINGAPORE) PTE. LTD.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Specialist Teacher</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13% skills matched</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Troubleshooting, Hardware, Information Technology, Windows Server, Compliance, Technical Support, Troubleshooting, Classroom, Teaching, ICT, Social Media, Classroom Management, Attention to Detail, Teaching Experience, Banking, Wellbeing, Evidence, Team Player, Customer Service, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Non-executive</x:t>
   </x:si>
   <x:si>
     <x:t>Education and Training</x:t>
   </x:si>
   <x:si>
-    <x:t>GOLDHILL SHOPPING CENTRE, 201A THOMSON ROAD 307637</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Adelina_Erimia_PMP1.docx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PowerPoint,Problem Management,UAT,Agile,Change,Communication,Construction,Consulting,Excel,ITIL,Leadership,MS Project,Outlook,PMP,project management,Real Estate,Recruiting,Scrum,SharePoint</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/senior-project-manager-trinity-consulting-services-83635a811c581b8096734efbfd903cb6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MCF-2022-0298794</x:t>
+    <x:t>Nexus International School (Singapore), 01 Aljunied Walk 387293</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 years exp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUNITHA Project Manager (1).docx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Risk Management,User Acceptance Testing,UAT,Windows,.Net,Active Directory,Agile,Architect,B2B,Business Analyst,Business Intelligence,Change,Data Analysis,Data Migration,Data Modeling,ECC,ERP,ETL,Excel,Healthcare,Java,JavaScript,JIRA,Linux,MS Office,MS Project,Operating Systems,Oracle,Outlook,Payroll,PL/SQL,Power BI,project management,Project Planning,Sales,SAP,SAP BI,SAP HANA,Scheduling,Scrum,SDLC,Servers,SharePoint,SQL,Strategy,Tableau,Technical Design,Test Cases,Time Management,Travel,User Stories,Web Service,XML</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/sap-hr-business-analyst-j37093-scientec-consulting-52d10232dbdd07e9bfa046f379fa4baf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCF-2022-0064811</x:t>
   </x:si>
   <x:si>
     <x:t>TRINITY CONSULTING SERVICES PTE. LTD.</x:t>
   </x:si>
   <x:si>
-    <x:t>Senior Project Manager</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36% skills matched</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">vSphere, Hardware, VMware, VM, Group Policy, Windows Server, Windows Operating Systems, Problem Management, Configuration Management, Team Player, Software Installation, Sports Coaching, Written English, Classroom, Teaching, ICT, Classroom Management, Physics, Tuition, Fitness, International Education, Teaching Experience, Physical Education, Team Player, Manage Change, Management Skills, Leadership, Construction, Change Management, Program Management, PMP, Project Delivery, Software Development, Business Requirements, </x:t>
+    <x:t>Project Manager</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Troubleshooting, Hardware, Information Technology, Windows Server, Compliance, Technical Support, Troubleshooting, Classroom, Teaching, ICT, Social Media, Classroom Management, Attention to Detail, Teaching Experience, Banking, Wellbeing, Evidence, Team Player, Customer Service, Management Skills, Budgets, Leadership, Construction, Program Management, Compliance, PMP, Team Player, Project Delivery, </x:t>
   </x:si>
   <x:si>
     <x:t>Full Time</x:t>
   </x:si>
   <x:si>
-    <x:t>Manager</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 years exp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SUNITHA Project Manager (1).docx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Risk Management,User Acceptance Testing,UAT,Windows,.Net,Active Directory,Agile,Architect,B2B,Business Analyst,Business Intelligence,Change,Data Analysis,Data Migration,Data Modeling,ECC,ERP,ETL,Excel,Healthcare,Java,JavaScript,JIRA,Linux,MS Office,MS Project,Operating Systems,Oracle,Outlook,Payroll,PL/SQL,Power BI,project management,Project Planning,Sales,SAP,SAP BI,SAP HANA,Scheduling,Scrum,SDLC,Servers,SharePoint,SQL,Strategy,Tableau,Technical Design,Test Cases,Time Management,Travel,User Stories,Web Service,XML</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/go12267493-business-analyst-robert-half-international-00bbaab076d88a28a130d913f11f5d4a</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MCF-2022-0292701</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ROBERT HALF INTERNATIONAL PTE. LTD.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GO12267493 - Business Analyst (Contract)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56% skills matched</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">vSphere, Hardware, VMware, VM, Group Policy, Windows Server, Windows Operating Systems, Problem Management, Configuration Management, Team Player, Software Installation, Sports Coaching, Written English, Classroom, Teaching, ICT, Classroom Management, Physics, Tuition, Fitness, International Education, Teaching Experience, Physical Education, Team Player, Manage Change, Management Skills, Leadership, Construction, Change Management, Program Management, PMP, Project Delivery, Software Development, Business Requirements, CRM, Microsoft Excel, Entertainment, Business Analysis, Banking, Team Player, Business Requirements, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Senior Executive</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REPUBLIC PLAZA, 9 RAFFLES PLACE 048619</x:t>
-  </x:si>
-  <x:si>
     <x:t>7 years exp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCF-2022-0253781</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SCIENTEC CONSULTING PTE. LTD.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAP HR Business Analyst - J37093</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41% skills matched</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Troubleshooting, Hardware, Information Technology, Windows Server, Compliance, Technical Support, Troubleshooting, Classroom, Teaching, ICT, Social Media, Classroom Management, Attention to Detail, Teaching Experience, Banking, Wellbeing, Evidence, Team Player, Customer Service, Management Skills, Budgets, Leadership, Construction, Program Management, Compliance, PMP, Team Player, Project Delivery, Workday, Business Analysis, Information Technology, Reliability, SAP HR, Consulting, Business Process, Disaster Recovery, Software Development, Service Delivery, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Executive</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -244,8 +232,47 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="25">
+  <x:cellStyleXfs count="38">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -659,38 +686,8 @@
       <x:c r="E1" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="2" t="s">
+      <x:c r="P1" s="2" t="s">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="G1" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H1" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I1" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="J1" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="K1" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="L1" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="M1" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="N1" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="O1" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="P1" s="2" t="s">
-        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -698,43 +695,46 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E2" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F2" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G2" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H2" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I2" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J2" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="K2" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="L2" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="M2" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C2" s="2" t="s">
+      <x:c r="N2" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="E2" s="2" t="s">
+      <x:c r="O2" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="F2" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G2" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H2" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="I2" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J2" s="3" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K2" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="L2" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="M2" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="N2" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="O2" s="2" t="s">
-        <x:v>28</x:v>
+      <x:c r="P2" s="2" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -742,43 +742,43 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G3" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H3" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I3" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J3" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="K3" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L3" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M3" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="N3" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="E3" s="2" t="s">
+      <x:c r="O3" s="2" t="s">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="F3" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G3" s="2" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="H3" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="I3" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="J3" s="3" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="K3" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="L3" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="M3" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="N3" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="O3" s="2" t="s">
-        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:16" x14ac:dyDescent="0.35">
@@ -786,43 +786,43 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E4" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F4" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G4" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H4" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I4" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="J4" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="K4" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L4" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="M4" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C4" s="2" t="s">
+      <x:c r="N4" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="E4" s="2" t="s">
+      <x:c r="O4" s="2" t="s">
         <x:v>43</x:v>
-      </x:c>
-      <x:c r="F4" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="G4" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="H4" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="I4" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="J4" s="3" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="K4" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="L4" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="M4" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="N4" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="O4" s="2" t="s">
-        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -830,45 +830,91 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I5" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="K5" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L5" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M5" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N5" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O5" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
+    </x:row>
+    <x:row r="6" spans="1:16">
+      <x:c r="F6" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="E5" s="2" t="s">
+      <x:c r="G6" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="F5" s="2" t="s">
+      <x:c r="H6" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="G5" s="2" t="s">
+      <x:c r="I6" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="H5" s="2" t="s">
+      <x:c r="J6" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="I5" s="2" t="s">
+      <x:c r="K6" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L6" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="J5" s="3" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="K5" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="L5" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="M5" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="N5" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="O5" s="2" t="s">
-        <x:v>62</x:v>
+      <x:c r="M6" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N6" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O6" s="2" t="s">
+        <x:v>43</x:v>
       </x:c>
     </x:row>
+    <x:row r="7" spans="1:16"/>
+    <x:row r="8" spans="1:16"/>
+    <x:row r="9" spans="1:16"/>
+    <x:row r="10" spans="1:16"/>
+    <x:row r="11" spans="1:16"/>
+    <x:row r="12" spans="1:16"/>
+    <x:row r="13" spans="1:16"/>
+    <x:row r="14" spans="1:16"/>
+    <x:row r="15" spans="1:16"/>
+    <x:row r="16" spans="1:16"/>
+    <x:row r="17" spans="1:16"/>
+    <x:row r="18" spans="1:16"/>
+    <x:row r="19" spans="1:16"/>
+    <x:row r="20" spans="1:16"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tay Hock Gek\Documents\UiPath\sct9-diamond-proj2\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proj\UiPath\SCT9_Diamond_Project2\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBEEA16-798E-4265-A81C-5B692CE87FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <x:si>
     <x:t>No.</x:t>
   </x:si>
@@ -38,46 +37,13 @@
     <x:t>URL</x:t>
   </x:si>
   <x:si>
-    <x:t>Salary</x:t>
-  </x:si>
-  <x:si>
     <x:t>1388.pdf</x:t>
   </x:si>
   <x:si>
     <x:t>Microsoft Office,PowerPoint,Windows,Windows Operating Systems,Accounting,Construction,Electrical,English,ERP,Excel,ISO,Laboratory,Operating Systems,Pipelines,Wiring</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/manager-wine-trade-asia-18b0eb386bb1cd3491b446f30ee74464</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Job Ref</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Position</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Score</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gap</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Emp Type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Job Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Job Function</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Year Exp</x:t>
+    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/vm-windows-system-engineer-es-recruitment-bb7267195028b9ae275a5964fdddbee2</x:t>
   </x:si>
   <x:si>
     <x:t>64.docx</x:t>
@@ -86,37 +52,7 @@
     <x:t>English,Excel,ICT,ISO,Marketing,Teaching</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.mycareersfuture.gov.sg/job/education-training/specialist-teacher-nexus-international-school-deceab0e66f3121a6ee1decc4db0cdf9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MCF-2022-0272612</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WINE TRADE ASIA PTE. LTD.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IT Manager (6 Months Contract - Renewable  /  Conversion to Full-Time)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40% skills matched</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Troubleshooting, Hardware, Information Technology, Windows Server, Compliance, Technical Support, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Manager</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Information Technology</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Islandwide</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5 years exp</x:t>
+    <x:t>https://www.mycareersfuture.gov.sg/job/education-training/assistant-teacher-blue-house-international-c84cc4dbd83a14aa851573c340659336</x:t>
   </x:si>
   <x:si>
     <x:t>Adelina_Erimia_PMP1.docx</x:t>
@@ -125,34 +61,16 @@
     <x:t>PowerPoint,Problem Management,UAT,Agile,Change,Communication,Construction,Consulting,Excel,ITIL,Leadership,MS Project,Outlook,PMP,project management,Real Estate,Recruiting,Scrum,SharePoint</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/project-manager-trinity-consulting-services-c365ac8714e1c1d4053cb94decc4182a</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MCF-2022-0283990</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NEXUS INTERNATIONAL SCHOOL (SINGAPORE) PTE. LTD.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Specialist Teacher</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13% skills matched</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Troubleshooting, Hardware, Information Technology, Windows Server, Compliance, Technical Support, Troubleshooting, Classroom, Teaching, ICT, Social Media, Classroom Management, Attention to Detail, Teaching Experience, Banking, Wellbeing, Evidence, Team Player, Customer Service, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Non-executive</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Education and Training</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nexus International School (Singapore), 01 Aljunied Walk 387293</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3 years exp</x:t>
+    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/senior-project-manager-trinity-consulting-services-83635a811c581b8096734efbfd903cb6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jennifer  M. Conte.docx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Windows,Architect,C++,Capital,EC2,Excel,Java,JavaScript,JSON,Linux,Mac,Oracle,SQL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.mycareersfuture.gov.sg/job/engineering/software-engineer-rovisys-asia-company-eed8074a6f3631baa9767998e6184336</x:t>
   </x:si>
   <x:si>
     <x:t>SUNITHA Project Manager (1).docx</x:t>
@@ -161,49 +79,13 @@
     <x:t>Risk Management,User Acceptance Testing,UAT,Windows,.Net,Active Directory,Agile,Architect,B2B,Business Analyst,Business Intelligence,Change,Data Analysis,Data Migration,Data Modeling,ECC,ERP,ETL,Excel,Healthcare,Java,JavaScript,JIRA,Linux,MS Office,MS Project,Operating Systems,Oracle,Outlook,Payroll,PL/SQL,Power BI,project management,Project Planning,Sales,SAP,SAP BI,SAP HANA,Scheduling,Scrum,SDLC,Servers,SharePoint,SQL,Strategy,Tableau,Technical Design,Test Cases,Time Management,Travel,User Stories,Web Service,XML</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/sap-hr-business-analyst-j37093-scientec-consulting-52d10232dbdd07e9bfa046f379fa4baf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MCF-2022-0064811</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TRINITY CONSULTING SERVICES PTE. LTD.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Project Manager</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Troubleshooting, Hardware, Information Technology, Windows Server, Compliance, Technical Support, Troubleshooting, Classroom, Teaching, ICT, Social Media, Classroom Management, Attention to Detail, Teaching Experience, Banking, Wellbeing, Evidence, Team Player, Customer Service, Management Skills, Budgets, Leadership, Construction, Program Management, Compliance, PMP, Team Player, Project Delivery, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7 years exp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MCF-2022-0253781</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SCIENTEC CONSULTING PTE. LTD.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAP HR Business Analyst - J37093</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41% skills matched</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Troubleshooting, Hardware, Information Technology, Windows Server, Compliance, Technical Support, Troubleshooting, Classroom, Teaching, ICT, Social Media, Classroom Management, Attention to Detail, Teaching Experience, Banking, Wellbeing, Evidence, Team Player, Customer Service, Management Skills, Budgets, Leadership, Construction, Program Management, Compliance, PMP, Team Player, Project Delivery, Workday, Business Analysis, Information Technology, Reliability, SAP HR, Consulting, Business Process, Disaster Recovery, Software Development, Service Delivery, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Executive</x:t>
+    <x:t>https://www.mycareersfuture.gov.sg/job/banking-finance/business-analyst-financial-markets-encora-technologies-4557eb6061d16fc01228f8b6ed836001</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
@@ -232,7 +114,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="38">
+  <x:cellStyleXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -252,103 +134,13 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
+  <x:cellXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <x:alignment wrapText="1"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -657,264 +449,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:P5"/>
+  <x:dimension ref="A1:P6"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="A6" sqref="A6 A6:A6 A6:P6"/>
+    </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:cols>
-    <x:col min="1" max="3" width="8.90625" style="2" customWidth="1"/>
+    <x:col min="1" max="3" width="8.886719" style="3" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <x:c r="A1" s="2" t="s">
+    <x:row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="2" t="s">
+      <x:c r="B1" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="2" t="s">
+      <x:c r="C1" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="2" t="s">
+      <x:c r="D1" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="2" t="s">
+      <x:c r="E1" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="P1" s="2" t="s">
+      <x:c r="J1" s="4" t="s"/>
+    </x:row>
+    <x:row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
+      <x:c r="C2" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E2" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <x:c r="A2" s="2" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B2" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C2" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E2" s="2" t="s">
+    <x:row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B3" s="3" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="F2" s="2" t="s">
+      <x:c r="C3" s="3" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="G2" s="2" t="s">
+      <x:c r="E3" s="3" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="H2" s="2" t="s">
+      <x:c r="J3" s="4" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B4" s="3" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="I2" s="2" t="s">
+      <x:c r="C4" s="3" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="J2" s="3" t="s">
+      <x:c r="E4" s="3" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="K2" s="2" t="s">
+      <x:c r="J4" s="4" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="3" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="L2" s="2" t="s">
+      <x:c r="C5" s="3" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="M2" s="2" t="s">
+      <x:c r="E5" s="3" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="N2" s="2" t="s">
+      <x:c r="J5" s="4" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <x:c r="A6" s="3" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="O2" s="2" t="s">
+      <x:c r="C6" s="3" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="P2" s="2" t="s">
-        <x:v>5</x:v>
+      <x:c r="E6" s="3" t="s">
+        <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <x:c r="A3" s="2" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E3" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F3" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G3" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H3" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I3" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="J3" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="K3" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="L3" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="M3" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="N3" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="O3" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <x:c r="A4" s="2" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B4" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C4" s="2" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E4" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F4" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="G4" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="H4" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="I4" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="J4" s="3" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="K4" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="L4" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="M4" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="N4" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="O4" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <x:c r="A5" s="2" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="E5" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="G5" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="H5" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="I5" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="J5" s="3" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="K5" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="L5" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="M5" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="N5" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="O5" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:16">
-      <x:c r="F6" s="2" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="G6" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="H6" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="I6" s="2" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="J6" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="K6" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="L6" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="M6" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="N6" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="O6" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:16"/>
-    <x:row r="8" spans="1:16"/>
-    <x:row r="9" spans="1:16"/>
-    <x:row r="10" spans="1:16"/>
-    <x:row r="11" spans="1:16"/>
-    <x:row r="12" spans="1:16"/>
-    <x:row r="13" spans="1:16"/>
-    <x:row r="14" spans="1:16"/>
-    <x:row r="15" spans="1:16"/>
-    <x:row r="16" spans="1:16"/>
-    <x:row r="17" spans="1:16"/>
-    <x:row r="18" spans="1:16"/>
-    <x:row r="19" spans="1:16"/>
-    <x:row r="20" spans="1:16"/>
+    <x:row r="7" spans="1:10"/>
+    <x:row r="8" spans="1:10"/>
+    <x:row r="9" spans="1:10"/>
+    <x:row r="10" spans="1:10"/>
+    <x:row r="11" spans="1:10"/>
+    <x:row r="12" spans="1:10"/>
+    <x:row r="13" spans="1:10"/>
+    <x:row r="14" spans="1:10"/>
+    <x:row r="15" spans="1:10"/>
+    <x:row r="16" spans="1:10"/>
+    <x:row r="17" spans="1:10"/>
+    <x:row r="18" spans="1:10"/>
+    <x:row r="19" spans="1:10"/>
+    <x:row r="20" spans="1:10"/>
+    <x:row r="21" spans="1:10"/>
+    <x:row r="22" spans="1:10"/>
+    <x:row r="23" spans="1:10"/>
+    <x:row r="24" spans="1:10"/>
+    <x:row r="25" spans="1:10"/>
+    <x:row r="26" spans="1:10"/>
+    <x:row r="27" spans="1:10"/>
+    <x:row r="28" spans="1:10"/>
+    <x:row r="29" spans="1:10"/>
+    <x:row r="30" spans="1:10"/>
+    <x:row r="31" spans="1:10"/>
+    <x:row r="32" spans="1:10"/>
+    <x:row r="33" spans="1:10"/>
+    <x:row r="34" spans="1:10"/>
+    <x:row r="35" spans="1:10"/>
+    <x:row r="36" spans="1:10"/>
+    <x:row r="37" spans="1:10"/>
+    <x:row r="38" spans="1:10"/>
+    <x:row r="39" spans="1:10"/>
+    <x:row r="40" spans="1:10"/>
+    <x:row r="41" spans="1:10"/>
+    <x:row r="42" spans="1:10"/>
+    <x:row r="43" spans="1:10"/>
+    <x:row r="44" spans="1:10"/>
+    <x:row r="45" spans="1:10"/>
+    <x:row r="46" spans="1:10"/>
+    <x:row r="47" spans="1:10"/>
+    <x:row r="48" spans="1:10"/>
+    <x:row r="49" spans="1:10"/>
+    <x:row r="50" spans="1:10"/>
+    <x:row r="51" spans="1:10"/>
+    <x:row r="52" spans="1:10"/>
+    <x:row r="53" spans="1:10"/>
+    <x:row r="54" spans="1:10"/>
+    <x:row r="55" spans="1:10"/>
+    <x:row r="56" spans="1:10"/>
+    <x:row r="57" spans="1:10"/>
+    <x:row r="58" spans="1:10"/>
+    <x:row r="59" spans="1:10"/>
+    <x:row r="60" spans="1:10"/>
+    <x:row r="61" spans="1:10"/>
+    <x:row r="62" spans="1:10"/>
+    <x:row r="63" spans="1:10"/>
+    <x:row r="64" spans="1:10"/>
+    <x:row r="65" spans="1:10"/>
+    <x:row r="66" spans="1:10"/>
+    <x:row r="67" spans="1:10"/>
+    <x:row r="68" spans="1:10"/>
+    <x:row r="69" spans="1:10"/>
+    <x:row r="70" spans="1:10"/>
+    <x:row r="71" spans="1:10"/>
+    <x:row r="72" spans="1:10"/>
+    <x:row r="73" spans="1:10"/>
+    <x:row r="74" spans="1:10"/>
+    <x:row r="75" spans="1:10"/>
+    <x:row r="76" spans="1:10"/>
+    <x:row r="77" spans="1:10"/>
+    <x:row r="78" spans="1:10"/>
+    <x:row r="79" spans="1:10"/>
+    <x:row r="80" spans="1:10"/>
+    <x:row r="81" spans="1:10"/>
+    <x:row r="82" spans="1:10"/>
+    <x:row r="83" spans="1:10"/>
+    <x:row r="84" spans="1:10"/>
+    <x:row r="85" spans="1:10"/>
+    <x:row r="86" spans="1:10"/>
+    <x:row r="87" spans="1:10"/>
+    <x:row r="88" spans="1:10"/>
+    <x:row r="89" spans="1:10"/>
+    <x:row r="90" spans="1:10"/>
+    <x:row r="91" spans="1:10"/>
+    <x:row r="92" spans="1:10"/>
+    <x:row r="93" spans="1:10"/>
+    <x:row r="94" spans="1:10"/>
+    <x:row r="95" spans="1:10"/>
+    <x:row r="96" spans="1:10"/>
+    <x:row r="97" spans="1:10"/>
+    <x:row r="98" spans="1:10"/>
+    <x:row r="99" spans="1:10"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <x:si>
     <x:t>No.</x:t>
   </x:si>
@@ -37,6 +37,39 @@
     <x:t>URL</x:t>
   </x:si>
   <x:si>
+    <x:t>Job Ref</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Position</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Score</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gap</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emp Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Job Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Job Function</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Year Exp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salary</x:t>
+  </x:si>
+  <x:si>
     <x:t>1388.pdf</x:t>
   </x:si>
   <x:si>
@@ -46,6 +79,33 @@
     <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/vm-windows-system-engineer-es-recruitment-bb7267195028b9ae275a5964fdddbee2</x:t>
   </x:si>
   <x:si>
+    <x:t>MCF-2022-0293715</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROVISYS ASIA COMPANY PTE. LTD.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Software Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47% skills matched</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rollout, ISO, Software Engineering, Python, Presentation Skills, C#, Software Development, C++, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fresh/entry level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Engineering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Strategy, 2 International Business Park 609930</x:t>
+  </x:si>
+  <x:si>
     <x:t>64.docx</x:t>
   </x:si>
   <x:si>
@@ -55,6 +115,36 @@
     <x:t>https://www.mycareersfuture.gov.sg/job/education-training/assistant-teacher-blue-house-international-c84cc4dbd83a14aa851573c340659336</x:t>
   </x:si>
   <x:si>
+    <x:t>MCF-2022-0292268</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ES RECRUITMENT PTE. LTD.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">VM Windows System Engineer (Alexandra Rd) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>21% skills matched</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rollout, ISO, Software Engineering, Python, Presentation Skills, C#, Software Development, C++, Troubleshooting, Windows 10, vSphere, Hardware, Citrix, VMware, VM, Scripting, Group Policy, Windows Server, Windows Operating Systems, Problem Management, Configuration Management, Software Installation, Virtualization, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Executive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Information Technology</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50 TAGORE LANE 787494</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 years exp</x:t>
+  </x:si>
+  <x:si>
     <x:t>Adelina_Erimia_PMP1.docx</x:t>
   </x:si>
   <x:si>
@@ -64,6 +154,30 @@
     <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/senior-project-manager-trinity-consulting-services-83635a811c581b8096734efbfd903cb6</x:t>
   </x:si>
   <x:si>
+    <x:t>MCF-2022-0248348</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BLUE HOUSE INTERNATIONAL PTE. LTD.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assistant Teacher</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0% skills matched</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rollout, ISO, Software Engineering, Python, Presentation Skills, C#, Software Development, C++, Troubleshooting, Windows 10, vSphere, Hardware, Citrix, VMware, VM, Scripting, Group Policy, Windows Server, Windows Operating Systems, Problem Management, Configuration Management, Software Installation, Virtualization, Childcare, Written English, Classroom, Teaching, Work Well Independently, Stress, Classroom Management, Interpersonal Skills, Early Childhood Education, International Education, Teaching English, First Aid, Teaching Experience, Teaching Children, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Junior Executive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Education and Training</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 TURF CLUB ROAD 287988</x:t>
+  </x:si>
+  <x:si>
     <x:t>Jennifer  M. Conte.docx</x:t>
   </x:si>
   <x:si>
@@ -73,6 +187,30 @@
     <x:t>https://www.mycareersfuture.gov.sg/job/engineering/software-engineer-rovisys-asia-company-eed8074a6f3631baa9767998e6184336</x:t>
   </x:si>
   <x:si>
+    <x:t>MCF-2022-0298794</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TRINITY CONSULTING SERVICES PTE. LTD.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Senior Project Manager</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36% skills matched</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rollout, ISO, Software Engineering, Python, Presentation Skills, C#, Software Development, C++, Troubleshooting, Windows 10, vSphere, Hardware, Citrix, VMware, VM, Scripting, Group Policy, Windows Server, Windows Operating Systems, Problem Management, Configuration Management, Software Installation, Virtualization, Childcare, Written English, Classroom, Teaching, Work Well Independently, Stress, Classroom Management, Interpersonal Skills, Early Childhood Education, International Education, Teaching English, First Aid, Teaching Experience, Teaching Children, Management Skills, Leadership, Construction, Change Management, Program Management, PMP, Project Delivery, Software Development, Business Requirements, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manager</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Islandwide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 years exp</x:t>
+  </x:si>
+  <x:si>
     <x:t>SUNITHA Project Manager (1).docx</x:t>
   </x:si>
   <x:si>
@@ -80,6 +218,9 @@
   </x:si>
   <x:si>
     <x:t>https://www.mycareersfuture.gov.sg/job/banking-finance/business-analyst-financial-markets-encora-technologies-4557eb6061d16fc01228f8b6ed836001</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rollout, ISO, Software Engineering, Python, Presentation Skills, C#, Software Development, C++, Troubleshooting, Windows 10, vSphere, Hardware, Citrix, VMware, VM, Scripting, Group Policy, Windows Server, Windows Operating Systems, Problem Management, Configuration Management, Software Installation, Virtualization, Childcare, Written English, Classroom, Teaching, Work Well Independently, Stress, Classroom Management, Interpersonal Skills, Early Childhood Education, International Education, Teaching English, First Aid, Teaching Experience, Teaching Children, Management Skills, Leadership, Construction, Change Management, Program Management, PMP, Project Delivery, Software Development, Business Requirements, Rollout, ISO, Software Engineering, Python, Presentation Skills, C#, Software Development, C++, </x:t>
   </x:si>
 </x:sst>
 </file>
@@ -114,8 +255,11 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="7">
+  <x:cellStyleXfs count="8">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -464,7 +608,7 @@
     <x:col min="1" max="3" width="8.886719" style="3" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A1" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -480,174 +624,350 @@
       <x:c r="E1" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="J1" s="4" t="s"/>
+      <x:c r="F1" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L1" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M1" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="N1" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="O1" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="P1" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <x:row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A2" s="3" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E2" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F2" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G2" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H2" s="3" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I2" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J2" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K2" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L2" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M2" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="N2" s="3" t="s">
+        <x:v>27</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <x:row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A3" s="3" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E3" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J3" s="4" t="s"/>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F3" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G3" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H3" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I3" s="3" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="J3" s="4" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="K3" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="L3" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M3" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="N3" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O3" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <x:row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A4" s="3" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E4" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="J4" s="4" t="s"/>
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F4" s="3" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="G4" s="3" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H4" s="3" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="I4" s="3" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="J4" s="4" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="K4" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L4" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="M4" s="3" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="N4" s="3" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="O4" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
     </x:row>
-    <x:row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <x:row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A5" s="3" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J5" s="4" t="s"/>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="J5" s="4" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="K5" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L5" s="3" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="M5" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="N5" s="3" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="O5" s="3" t="s">
+        <x:v>62</x:v>
+      </x:c>
     </x:row>
-    <x:row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <x:row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A6" s="3" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F6" s="3" t="s">
         <x:v>19</x:v>
       </x:c>
+      <x:c r="G6" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H6" s="3" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I6" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J6" s="3" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="K6" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L6" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M6" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="N6" s="3" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O6" s="3" t="s">
+        <x:v>62</x:v>
+      </x:c>
     </x:row>
-    <x:row r="7" spans="1:10"/>
-    <x:row r="8" spans="1:10"/>
-    <x:row r="9" spans="1:10"/>
-    <x:row r="10" spans="1:10"/>
-    <x:row r="11" spans="1:10"/>
-    <x:row r="12" spans="1:10"/>
-    <x:row r="13" spans="1:10"/>
-    <x:row r="14" spans="1:10"/>
-    <x:row r="15" spans="1:10"/>
-    <x:row r="16" spans="1:10"/>
-    <x:row r="17" spans="1:10"/>
-    <x:row r="18" spans="1:10"/>
-    <x:row r="19" spans="1:10"/>
-    <x:row r="20" spans="1:10"/>
-    <x:row r="21" spans="1:10"/>
-    <x:row r="22" spans="1:10"/>
-    <x:row r="23" spans="1:10"/>
-    <x:row r="24" spans="1:10"/>
-    <x:row r="25" spans="1:10"/>
-    <x:row r="26" spans="1:10"/>
-    <x:row r="27" spans="1:10"/>
-    <x:row r="28" spans="1:10"/>
-    <x:row r="29" spans="1:10"/>
-    <x:row r="30" spans="1:10"/>
-    <x:row r="31" spans="1:10"/>
-    <x:row r="32" spans="1:10"/>
-    <x:row r="33" spans="1:10"/>
-    <x:row r="34" spans="1:10"/>
-    <x:row r="35" spans="1:10"/>
-    <x:row r="36" spans="1:10"/>
-    <x:row r="37" spans="1:10"/>
-    <x:row r="38" spans="1:10"/>
-    <x:row r="39" spans="1:10"/>
-    <x:row r="40" spans="1:10"/>
-    <x:row r="41" spans="1:10"/>
-    <x:row r="42" spans="1:10"/>
-    <x:row r="43" spans="1:10"/>
-    <x:row r="44" spans="1:10"/>
-    <x:row r="45" spans="1:10"/>
-    <x:row r="46" spans="1:10"/>
-    <x:row r="47" spans="1:10"/>
-    <x:row r="48" spans="1:10"/>
-    <x:row r="49" spans="1:10"/>
-    <x:row r="50" spans="1:10"/>
-    <x:row r="51" spans="1:10"/>
-    <x:row r="52" spans="1:10"/>
-    <x:row r="53" spans="1:10"/>
-    <x:row r="54" spans="1:10"/>
-    <x:row r="55" spans="1:10"/>
-    <x:row r="56" spans="1:10"/>
-    <x:row r="57" spans="1:10"/>
-    <x:row r="58" spans="1:10"/>
-    <x:row r="59" spans="1:10"/>
-    <x:row r="60" spans="1:10"/>
-    <x:row r="61" spans="1:10"/>
-    <x:row r="62" spans="1:10"/>
-    <x:row r="63" spans="1:10"/>
-    <x:row r="64" spans="1:10"/>
-    <x:row r="65" spans="1:10"/>
-    <x:row r="66" spans="1:10"/>
-    <x:row r="67" spans="1:10"/>
-    <x:row r="68" spans="1:10"/>
-    <x:row r="69" spans="1:10"/>
-    <x:row r="70" spans="1:10"/>
-    <x:row r="71" spans="1:10"/>
-    <x:row r="72" spans="1:10"/>
-    <x:row r="73" spans="1:10"/>
-    <x:row r="74" spans="1:10"/>
-    <x:row r="75" spans="1:10"/>
-    <x:row r="76" spans="1:10"/>
-    <x:row r="77" spans="1:10"/>
-    <x:row r="78" spans="1:10"/>
-    <x:row r="79" spans="1:10"/>
-    <x:row r="80" spans="1:10"/>
-    <x:row r="81" spans="1:10"/>
-    <x:row r="82" spans="1:10"/>
-    <x:row r="83" spans="1:10"/>
-    <x:row r="84" spans="1:10"/>
-    <x:row r="85" spans="1:10"/>
-    <x:row r="86" spans="1:10"/>
-    <x:row r="87" spans="1:10"/>
-    <x:row r="88" spans="1:10"/>
-    <x:row r="89" spans="1:10"/>
-    <x:row r="90" spans="1:10"/>
-    <x:row r="91" spans="1:10"/>
-    <x:row r="92" spans="1:10"/>
-    <x:row r="93" spans="1:10"/>
-    <x:row r="94" spans="1:10"/>
-    <x:row r="95" spans="1:10"/>
-    <x:row r="96" spans="1:10"/>
-    <x:row r="97" spans="1:10"/>
-    <x:row r="98" spans="1:10"/>
-    <x:row r="99" spans="1:10"/>
+    <x:row r="7" spans="1:16"/>
+    <x:row r="8" spans="1:16"/>
+    <x:row r="9" spans="1:16"/>
+    <x:row r="10" spans="1:16"/>
+    <x:row r="11" spans="1:16"/>
+    <x:row r="12" spans="1:16"/>
+    <x:row r="13" spans="1:16"/>
+    <x:row r="14" spans="1:16"/>
+    <x:row r="15" spans="1:16"/>
+    <x:row r="16" spans="1:16"/>
+    <x:row r="17" spans="1:16"/>
+    <x:row r="18" spans="1:16"/>
+    <x:row r="19" spans="1:16"/>
+    <x:row r="20" spans="1:16"/>
+    <x:row r="21" spans="1:16"/>
+    <x:row r="22" spans="1:16"/>
+    <x:row r="23" spans="1:16"/>
+    <x:row r="24" spans="1:16"/>
+    <x:row r="25" spans="1:16"/>
+    <x:row r="26" spans="1:16"/>
+    <x:row r="27" spans="1:16"/>
+    <x:row r="28" spans="1:16"/>
+    <x:row r="29" spans="1:16"/>
+    <x:row r="30" spans="1:16"/>
+    <x:row r="31" spans="1:16"/>
+    <x:row r="32" spans="1:16"/>
+    <x:row r="33" spans="1:16"/>
+    <x:row r="34" spans="1:16"/>
+    <x:row r="35" spans="1:16"/>
+    <x:row r="36" spans="1:16"/>
+    <x:row r="37" spans="1:16"/>
+    <x:row r="38" spans="1:16"/>
+    <x:row r="39" spans="1:16"/>
+    <x:row r="40" spans="1:16"/>
+    <x:row r="41" spans="1:16"/>
+    <x:row r="42" spans="1:16"/>
+    <x:row r="43" spans="1:16"/>
+    <x:row r="44" spans="1:16"/>
+    <x:row r="45" spans="1:16"/>
+    <x:row r="46" spans="1:16"/>
+    <x:row r="47" spans="1:16"/>
+    <x:row r="48" spans="1:16"/>
+    <x:row r="49" spans="1:16"/>
+    <x:row r="50" spans="1:16"/>
+    <x:row r="51" spans="1:16"/>
+    <x:row r="52" spans="1:16"/>
+    <x:row r="53" spans="1:16"/>
+    <x:row r="54" spans="1:16"/>
+    <x:row r="55" spans="1:16"/>
+    <x:row r="56" spans="1:16"/>
+    <x:row r="57" spans="1:16"/>
+    <x:row r="58" spans="1:16"/>
+    <x:row r="59" spans="1:16"/>
+    <x:row r="60" spans="1:16"/>
+    <x:row r="61" spans="1:16"/>
+    <x:row r="62" spans="1:16"/>
+    <x:row r="63" spans="1:16"/>
+    <x:row r="64" spans="1:16"/>
+    <x:row r="65" spans="1:16"/>
+    <x:row r="66" spans="1:16"/>
+    <x:row r="67" spans="1:16"/>
+    <x:row r="68" spans="1:16"/>
+    <x:row r="69" spans="1:16"/>
+    <x:row r="70" spans="1:16"/>
+    <x:row r="71" spans="1:16"/>
+    <x:row r="72" spans="1:16"/>
+    <x:row r="73" spans="1:16"/>
+    <x:row r="74" spans="1:16"/>
+    <x:row r="75" spans="1:16"/>
+    <x:row r="76" spans="1:16"/>
+    <x:row r="77" spans="1:16"/>
+    <x:row r="78" spans="1:16"/>
+    <x:row r="79" spans="1:16"/>
+    <x:row r="80" spans="1:16"/>
+    <x:row r="81" spans="1:16"/>
+    <x:row r="82" spans="1:16"/>
+    <x:row r="83" spans="1:16"/>
+    <x:row r="84" spans="1:16"/>
+    <x:row r="85" spans="1:16"/>
+    <x:row r="86" spans="1:16"/>
+    <x:row r="87" spans="1:16"/>
+    <x:row r="88" spans="1:16"/>
+    <x:row r="89" spans="1:16"/>
+    <x:row r="90" spans="1:16"/>
+    <x:row r="91" spans="1:16"/>
+    <x:row r="92" spans="1:16"/>
+    <x:row r="93" spans="1:16"/>
+    <x:row r="94" spans="1:16"/>
+    <x:row r="95" spans="1:16"/>
+    <x:row r="96" spans="1:16"/>
+    <x:row r="97" spans="1:16"/>
+    <x:row r="98" spans="1:16"/>
+    <x:row r="99" spans="1:16"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <x:si>
     <x:t>No.</x:t>
   </x:si>
@@ -70,157 +70,85 @@
     <x:t>Salary</x:t>
   </x:si>
   <x:si>
-    <x:t>1388.pdf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Microsoft Office,PowerPoint,Windows,Windows Operating Systems,Accounting,Construction,Electrical,English,ERP,Excel,ISO,Laboratory,Operating Systems,Pipelines,Wiring</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/vm-windows-system-engineer-es-recruitment-bb7267195028b9ae275a5964fdddbee2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MCF-2022-0293715</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ROVISYS ASIA COMPANY PTE. LTD.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Software Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47% skills matched</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Rollout, ISO, Software Engineering, Python, Presentation Skills, C#, Software Development, C++, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fresh/entry level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Engineering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Strategy, 2 International Business Park 609930</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64.docx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>English,Excel,ICT,ISO,Marketing,Teaching</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.mycareersfuture.gov.sg/job/education-training/assistant-teacher-blue-house-international-c84cc4dbd83a14aa851573c340659336</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MCF-2022-0292268</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ES RECRUITMENT PTE. LTD.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">VM Windows System Engineer (Alexandra Rd) </x:t>
-  </x:si>
-  <x:si>
-    <x:t>21% skills matched</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Rollout, ISO, Software Engineering, Python, Presentation Skills, C#, Software Development, C++, Troubleshooting, Windows 10, vSphere, Hardware, Citrix, VMware, VM, Scripting, Group Policy, Windows Server, Windows Operating Systems, Problem Management, Configuration Management, Software Installation, Virtualization, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract</x:t>
+    <x:t>jagadeesh k.docx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Windows,Agile,Architect,Architectural,Communication,Data Modeling,Docker,EC2,English,Excel,French,Java,JavaScript,JIRA,JSON,Linux,Networking,Oracle,PL/SQL,project management,Scrum,SDLC,Servers,Software Development,Software Engineering,SQL,Web Service,XML</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/product-development-engineer-forte-employment-services-1a58b2615fc5f3d054a69267a62adf49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCF-2022-0299571</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FORTE EMPLOYMENT SERVICES PTE. LTD.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Product Development Engineer (IT /  Java / J2EE / UNIX / $6000)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40% skills matched</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Web Services, Kubernetes, MySQL, Unix, Data Migration, DB2, Web Applications, API, J2EE, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Permanent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manager</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Information Technology</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CT HUB, 2 KALLANG AVENUE 339407</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 years exp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$3,500 to $6,000 Monthly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jennifer  M. Conte.docx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Windows,Architect,C++,Capital,EC2,Excel,Java,JavaScript,JSON,Linux,Mac,Oracle,SQL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.mycareersfuture.gov.sg/job/engineering/technical-consultant-pacific-tech-8805e8661ff39c929125806c3c632d4d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCF-2022-0247090</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PACIFIC TECH PTE. LTD.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Technical Consultant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43% skills matched</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Leadership, ICT, Dynamics, Selling, Data Migration, Team Player, Software Development, Technical Support, </x:t>
   </x:si>
   <x:si>
     <x:t>Executive</x:t>
   </x:si>
   <x:si>
-    <x:t>Information Technology</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50 TAGORE LANE 787494</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3 years exp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Adelina_Erimia_PMP1.docx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PowerPoint,Problem Management,UAT,Agile,Change,Communication,Construction,Consulting,Excel,ITIL,Leadership,MS Project,Outlook,PMP,project management,Real Estate,Recruiting,Scrum,SharePoint</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/senior-project-manager-trinity-consulting-services-83635a811c581b8096734efbfd903cb6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MCF-2022-0248348</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BLUE HOUSE INTERNATIONAL PTE. LTD.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Assistant Teacher</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0% skills matched</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Rollout, ISO, Software Engineering, Python, Presentation Skills, C#, Software Development, C++, Troubleshooting, Windows 10, vSphere, Hardware, Citrix, VMware, VM, Scripting, Group Policy, Windows Server, Windows Operating Systems, Problem Management, Configuration Management, Software Installation, Virtualization, Childcare, Written English, Classroom, Teaching, Work Well Independently, Stress, Classroom Management, Interpersonal Skills, Early Childhood Education, International Education, Teaching English, First Aid, Teaching Experience, Teaching Children, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Junior Executive</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Education and Training</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 TURF CLUB ROAD 287988</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jennifer  M. Conte.docx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Windows,Architect,C++,Capital,EC2,Excel,Java,JavaScript,JSON,Linux,Mac,Oracle,SQL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.mycareersfuture.gov.sg/job/engineering/software-engineer-rovisys-asia-company-eed8074a6f3631baa9767998e6184336</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MCF-2022-0298794</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TRINITY CONSULTING SERVICES PTE. LTD.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Senior Project Manager</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36% skills matched</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Rollout, ISO, Software Engineering, Python, Presentation Skills, C#, Software Development, C++, Troubleshooting, Windows 10, vSphere, Hardware, Citrix, VMware, VM, Scripting, Group Policy, Windows Server, Windows Operating Systems, Problem Management, Configuration Management, Software Installation, Virtualization, Childcare, Written English, Classroom, Teaching, Work Well Independently, Stress, Classroom Management, Interpersonal Skills, Early Childhood Education, International Education, Teaching English, First Aid, Teaching Experience, Teaching Children, Management Skills, Leadership, Construction, Change Management, Program Management, PMP, Project Delivery, Software Development, Business Requirements, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Manager</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Islandwide</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 years exp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SUNITHA Project Manager (1).docx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Risk Management,User Acceptance Testing,UAT,Windows,.Net,Active Directory,Agile,Architect,B2B,Business Analyst,Business Intelligence,Change,Data Analysis,Data Migration,Data Modeling,ECC,ERP,ETL,Excel,Healthcare,Java,JavaScript,JIRA,Linux,MS Office,MS Project,Operating Systems,Oracle,Outlook,Payroll,PL/SQL,Power BI,project management,Project Planning,Sales,SAP,SAP BI,SAP HANA,Scheduling,Scrum,SDLC,Servers,SharePoint,SQL,Strategy,Tableau,Technical Design,Test Cases,Time Management,Travel,User Stories,Web Service,XML</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.mycareersfuture.gov.sg/job/banking-finance/business-analyst-financial-markets-encora-technologies-4557eb6061d16fc01228f8b6ed836001</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Rollout, ISO, Software Engineering, Python, Presentation Skills, C#, Software Development, C++, Troubleshooting, Windows 10, vSphere, Hardware, Citrix, VMware, VM, Scripting, Group Policy, Windows Server, Windows Operating Systems, Problem Management, Configuration Management, Software Installation, Virtualization, Childcare, Written English, Classroom, Teaching, Work Well Independently, Stress, Classroom Management, Interpersonal Skills, Early Childhood Education, International Education, Teaching English, First Aid, Teaching Experience, Teaching Children, Management Skills, Leadership, Construction, Change Management, Program Management, PMP, Project Delivery, Software Development, Business Requirements, Rollout, ISO, Software Engineering, Python, Presentation Skills, C#, Software Development, C++, </x:t>
+    <x:t>Engineering, Information Technology</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E-CENTRE @ REDHILL, 3791 JALAN BUKIT MERAH 159471</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 years exp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$3,800 to $6,000 Monthly</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -255,42 +183,17 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="8">
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="5">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <x:alignment wrapText="1"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -600,281 +503,161 @@
   <x:dimension ref="A1:P6"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A6" sqref="A6 A6:A6 A6:P6"/>
+      <x:selection activeCell="I7" sqref="I7 I7:I7"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr defaultColWidth="8.886719" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:cols>
-    <x:col min="1" max="3" width="8.886719" style="3" customWidth="1"/>
+    <x:col min="1" max="16384" width="8.886719" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <x:c r="A1" s="3" t="s">
+      <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="3" t="s">
+      <x:c r="B1" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="3" t="s">
+      <x:c r="C1" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="3" t="s">
+      <x:c r="D1" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="3" t="s">
+      <x:c r="E1" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="3" t="s">
+      <x:c r="F1" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="3" t="s">
+      <x:c r="G1" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="3" t="s">
+      <x:c r="H1" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I1" s="3" t="s">
+      <x:c r="I1" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J1" s="4" t="s">
+      <x:c r="J1" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K1" s="3" t="s">
+      <x:c r="K1" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L1" s="3" t="s">
+      <x:c r="L1" s="2" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="M1" s="3" t="s">
+      <x:c r="M1" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="N1" s="3" t="s">
+      <x:c r="N1" s="2" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="O1" s="3" t="s">
+      <x:c r="O1" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="P1" s="3" t="s">
+      <x:c r="P1" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <x:c r="A2" s="3" t="n">
+      <x:c r="A2" s="2" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="3" t="s">
+      <x:c r="B2" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C2" s="3" t="s">
+      <x:c r="C2" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="E2" s="3" t="s">
+      <x:c r="E2" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="F2" s="3" t="s">
+      <x:c r="F2" s="2" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="G2" s="3" t="s">
+      <x:c r="G2" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="H2" s="3" t="s">
+      <x:c r="H2" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="I2" s="3" t="s">
+      <x:c r="I2" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="J2" s="3" t="s">
+      <x:c r="J2" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="K2" s="3" t="s">
+      <x:c r="K2" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="L2" s="3" t="s">
+      <x:c r="L2" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="M2" s="3" t="s">
+      <x:c r="M2" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="N2" s="3" t="s">
+      <x:c r="N2" s="2" t="s">
         <x:v>27</x:v>
+      </x:c>
+      <x:c r="O2" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="P2" s="2" t="s">
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <x:c r="A3" s="3" t="n">
+      <x:c r="A3" s="2" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="3" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C3" s="3" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E3" s="3" t="s">
+      <x:c r="B3" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="F3" s="3" t="s">
+      <x:c r="C3" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="G3" s="3" t="s">
+      <x:c r="E3" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="H3" s="3" t="s">
+      <x:c r="F3" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="I3" s="3" t="s">
+      <x:c r="G3" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="J3" s="4" t="s">
+      <x:c r="H3" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="K3" s="3" t="s">
+      <x:c r="I3" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="L3" s="3" t="s">
+      <x:c r="J3" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="M3" s="3" t="s">
+      <x:c r="K3" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L3" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="N3" s="3" t="s">
+      <x:c r="M3" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="O3" s="3" t="s">
+      <x:c r="N3" s="2" t="s">
         <x:v>40</x:v>
       </x:c>
+      <x:c r="O3" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="P3" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <x:c r="A4" s="3" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B4" s="3" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C4" s="3" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="E4" s="3" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="F4" s="3" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="G4" s="3" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="H4" s="3" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="I4" s="3" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="J4" s="4" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="K4" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="L4" s="3" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="M4" s="3" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="N4" s="3" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="O4" s="3" t="s">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <x:c r="A5" s="3" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="J5" s="4" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="K5" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="L5" s="3" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="M5" s="3" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="N5" s="3" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="O5" s="3" t="s">
-        <x:v>62</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <x:c r="A6" s="3" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E6" s="3" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="F6" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G6" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H6" s="3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="I6" s="3" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J6" s="3" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="K6" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="L6" s="3" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="M6" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="N6" s="3" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="O6" s="3" t="s">
-        <x:v>62</x:v>
-      </x:c>
-    </x:row>
+    <x:row r="4" spans="1:16" x14ac:dyDescent="0.3"/>
+    <x:row r="5" spans="1:16" x14ac:dyDescent="0.3"/>
+    <x:row r="6" spans="1:16" x14ac:dyDescent="0.3"/>
     <x:row r="7" spans="1:16"/>
     <x:row r="8" spans="1:16"/>
     <x:row r="9" spans="1:16"/>

--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <x:si>
     <x:t>No.</x:t>
   </x:si>
@@ -76,79 +76,82 @@
     <x:t>Windows,Agile,Architect,Architectural,Communication,Data Modeling,Docker,EC2,English,Excel,French,Java,JavaScript,JIRA,JSON,Linux,Networking,Oracle,PL/SQL,project management,Scrum,SDLC,Servers,Software Development,Software Engineering,SQL,Web Service,XML</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/product-development-engineer-forte-employment-services-1a58b2615fc5f3d054a69267a62adf49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MCF-2022-0299571</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FORTE EMPLOYMENT SERVICES PTE. LTD.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Product Development Engineer (IT /  Java / J2EE / UNIX / $6000)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40% skills matched</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Web Services, Kubernetes, MySQL, Unix, Data Migration, DB2, Web Applications, API, J2EE, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Permanent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Manager</x:t>
+    <x:t>https://www.https://www.mycareersfuture.gov.sg/job/engineering/software-engineerdeveloper-jtc-corporation-9eab23489681625ce65776c8b333b48e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCF-2022-0190059</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JTC Corporation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Software Engineer / Developer (Contract)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33% skills matched</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">CSS3, Web Services, Design Patterns, SOAP, MySQL, Application Development, HTML5, UI, API, Web Development, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fresh/entry level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Engineering, Information Technology</x:t>
+  </x:si>
+  <x:si>
+    <x:t>THE JTC SUMMIT, 8 JURONG TOWN HALL ROAD 609434</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N/A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$4,100 to $7,000 Monthly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jennifer  M. Conte.docx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Windows,Architect,C++,Capital,EC2,Excel,Java,JavaScript,JSON,Linux,Mac,Oracle,SQL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.https://www.mycareersfuture.gov.sg/job/information-technology/application-support-engineer-idc-technologies-d7734d8b4222464b9fb173275c2c698e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCF-2022-0282301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IDC TECHNOLOGIES (SINGAPORE) PTE. LTD.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Application Support Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44% skills matched</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Troubleshooting, Unix, Administration, Application Support, Python, Consulting, Scheduling, Software Development, Technical Support, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract, Full Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Professional</x:t>
   </x:si>
   <x:si>
     <x:t>Information Technology</x:t>
   </x:si>
   <x:si>
-    <x:t>CT HUB, 2 KALLANG AVENUE 339407</x:t>
+    <x:t>GB BUILDING, 143 CECIL STREET 069542</x:t>
   </x:si>
   <x:si>
     <x:t>5 years exp</x:t>
   </x:si>
   <x:si>
-    <x:t>$3,500 to $6,000 Monthly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jennifer  M. Conte.docx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Windows,Architect,C++,Capital,EC2,Excel,Java,JavaScript,JSON,Linux,Mac,Oracle,SQL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.mycareersfuture.gov.sg/job/engineering/technical-consultant-pacific-tech-8805e8661ff39c929125806c3c632d4d</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MCF-2022-0247090</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PACIFIC TECH PTE. LTD.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Technical Consultant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43% skills matched</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Leadership, ICT, Dynamics, Selling, Data Migration, Team Player, Software Development, Technical Support, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Executive</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Engineering, Information Technology</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E-CENTRE @ REDHILL, 3791 JALAN BUKIT MERAH 159471</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 years exp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$3,800 to $6,000 Monthly</x:t>
+    <x:t>$6,000 to $7,500 Monthly</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -637,22 +640,22 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="K3" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="L3" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M3" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N3" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="O3" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="P3" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:16" x14ac:dyDescent="0.3"/>

--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
-  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proj\UiPath\SCT9_Diamond_Project2\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="9564" windowHeight="8340" firstSheet="0" activeTab="0"/>
+    <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <x:sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="0"/>
+  <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <x:si>
     <x:t>No.</x:t>
   </x:si>
@@ -31,27 +25,115 @@
     <x:t>Skills</x:t>
   </x:si>
   <x:si>
-    <x:t>Komala BSA Resume.docx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inventory,Microsoft Office,PowerPoint,Power Point,Risk Management,User Acceptance Testing,UAT,Windows,.Net,Administration,Agile,Architect,Automation,Azure,Business Analyst,Business Requirements,C++,Confluence,Databases,Electrical,Electrical Engineering,ETL,Excel,IIS,Java,JavaScript,JIRA,JSON,Linux,Mac,MS Office,MS Project,Operating Systems,Oracle,Outlook,PL/SQL,Power BI,Property,Scrum,SDLC,Selenium,SharePoint,Software Development,SQL,Strategy,Tableau,Test Cases,Test Strategy,Usability,User Stories,XML</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RaviRaju_Resume.docx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inventory Management,Inventory,User Acceptance Testing,UAT,Windows,Administration,Agile,Architect,Business Analysis,Business Analyst,Business Intelligence,Business Requirements,Data Analysis,Data Quality,ETL,Excel,Hardware,IIS,IT Operations,ITIL,Java,JavaScript,JIRA,Linux,Network Architecture,Oracle,PMP,Power BI,Publishing,Python,SAP,Scripting,Scrum,SDLC,Servers,Service Desk,SQL,Tableau</x:t>
+    <x:t>Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Job Ref</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Position</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Score</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gap</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emp Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Job Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Job Function</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Year Exp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salary</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jagadeesh k.docx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Windows,Agile,Architect,Architectural,Communication,Data Modeling,Docker,EC2,English,Excel,French,Java,JavaScript,JIRA,JSON,Linux,Networking,Oracle,PL/SQL,project management,Scrum,SDLC,Servers,Software Development,Software Engineering,SQL,Web Service,XML</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/senior-developer-anchor-search-group-27f6977ddf305485b81225727c63b6f1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCF-2021-0707052</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRINCESS MANICURE PTE. LTD.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manicurist / Beauty Therapist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10% skills matched</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Communication, service oriented, Collaboration, Positive Team Player, Beauty, Salons, Pedicures, Consulting, Manicures, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Non-executive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Personal Care / Beauty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Islandwide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 years exp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$2,500 to $3,500 Monthly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jennifer  M. Conte.docx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Windows,Architect,C++,Capital,EC2,Excel,Java,JavaScript,JSON,Linux,Mac,Oracle,SQL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/software-engineer-c-java-flintex-consulting-44ce56bbd4af664f0ad795779bdd8ffa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUNITHA Project Manager (1).docx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Risk Management,User Acceptance Testing,UAT,Windows,.Net,Active Directory,Agile,Architect,B2B,Business Analyst,Business Intelligence,Data Analysis,Data Migration,Data Modeling,ECC,ERP,ETL,Excel,Healthcare,Java,JavaScript,JIRA,Linux,MS Office,MS Project,Operating Systems,Oracle,Outlook,Payroll,PL/SQL,Power BI,project management,Project Planning,Sales,SAP,SAP BI,SAP HANA,Scheduling,Scrum,SDLC,Servers,SharePoint,SQL,Strategy,Tableau,Technical Design,Test Cases,Time Management,Travel,User Stories,Web Service,XML</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/business-analyst-tech-mahindra-2cd9db73aff974a23e2a51d7bbf65d18</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
+<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1" x14ac:knownFonts="1">
+  <x:fonts count="1">
     <x:font>
+      <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
@@ -67,22 +149,30 @@
     </x:fill>
   </x:fills>
   <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+  <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+  <x:cellXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -91,19 +181,10 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -386,73 +467,307 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:sheetPr codeName="Sheet1">
+<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:P99"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <x:pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
-      <x:selection activeCell="C1" sqref="C1 C1:C1"/>
-    </x:sheetView>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <x:cols>
-    <x:col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="35.21875" style="1" customWidth="1"/>
-    <x:col min="3" max="4" width="53.777344" style="1" customWidth="1"/>
-    <x:col min="5" max="5" width="17.21875" style="1" customWidth="1"/>
-    <x:col min="6" max="6" width="49" style="1" customWidth="1"/>
-    <x:col min="7" max="7" width="86.554688" style="1" customWidth="1"/>
-    <x:col min="8" max="8" width="5.664062" style="1" customWidth="1"/>
-    <x:col min="9" max="9" width="53.777344" style="1" customWidth="1"/>
-    <x:col min="10" max="10" width="26.441406" style="1" customWidth="1"/>
-    <x:col min="11" max="11" width="18" style="1" customWidth="1"/>
-    <x:col min="12" max="12" width="75.664062" style="1" customWidth="1"/>
-    <x:col min="13" max="13" width="56.109375" style="1" customWidth="1"/>
-    <x:col min="14" max="14" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="15" max="15" width="24.109375" style="1" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:15">
-      <x:c r="A1" s="1" t="s">
+    <x:row r="1" spans="1:16">
+      <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="1" t="s">
+      <x:c r="B1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="1" t="s">
+      <x:c r="C1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L1" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M1" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="N1" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="O1" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="P1" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:15">
-      <x:c r="A2" s="1" t="n">
+    <x:row r="2" spans="1:16">
+      <x:c r="A2" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="1" t="s">
+      <x:c r="B2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="P2" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:16">
+      <x:c r="A3" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="N3" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O3" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="P3" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:16">
+      <x:c r="A4" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C2" s="1" t="s">
-        <x:v>4</x:v>
+      <x:c r="B4" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="N4" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O4" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="P4" s="0" t="s">
+        <x:v>29</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:15">
-      <x:c r="A3" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B3" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
+    <x:row r="5" spans="1:16"/>
+    <x:row r="6" spans="1:16"/>
+    <x:row r="7" spans="1:16"/>
+    <x:row r="8" spans="1:16"/>
+    <x:row r="9" spans="1:16"/>
+    <x:row r="10" spans="1:16"/>
+    <x:row r="11" spans="1:16"/>
+    <x:row r="12" spans="1:16"/>
+    <x:row r="13" spans="1:16"/>
+    <x:row r="14" spans="1:16"/>
+    <x:row r="15" spans="1:16"/>
+    <x:row r="16" spans="1:16"/>
+    <x:row r="17" spans="1:16"/>
+    <x:row r="18" spans="1:16"/>
+    <x:row r="19" spans="1:16"/>
+    <x:row r="20" spans="1:16"/>
+    <x:row r="21" spans="1:16"/>
+    <x:row r="22" spans="1:16"/>
+    <x:row r="23" spans="1:16"/>
+    <x:row r="24" spans="1:16"/>
+    <x:row r="25" spans="1:16"/>
+    <x:row r="26" spans="1:16"/>
+    <x:row r="27" spans="1:16"/>
+    <x:row r="28" spans="1:16"/>
+    <x:row r="29" spans="1:16"/>
+    <x:row r="30" spans="1:16"/>
+    <x:row r="31" spans="1:16"/>
+    <x:row r="32" spans="1:16"/>
+    <x:row r="33" spans="1:16"/>
+    <x:row r="34" spans="1:16"/>
+    <x:row r="35" spans="1:16"/>
+    <x:row r="36" spans="1:16"/>
+    <x:row r="37" spans="1:16"/>
+    <x:row r="38" spans="1:16"/>
+    <x:row r="39" spans="1:16"/>
+    <x:row r="40" spans="1:16"/>
+    <x:row r="41" spans="1:16"/>
+    <x:row r="42" spans="1:16"/>
+    <x:row r="43" spans="1:16"/>
+    <x:row r="44" spans="1:16"/>
+    <x:row r="45" spans="1:16"/>
+    <x:row r="46" spans="1:16"/>
+    <x:row r="47" spans="1:16"/>
+    <x:row r="48" spans="1:16"/>
+    <x:row r="49" spans="1:16"/>
+    <x:row r="50" spans="1:16"/>
+    <x:row r="51" spans="1:16"/>
+    <x:row r="52" spans="1:16"/>
+    <x:row r="53" spans="1:16"/>
+    <x:row r="54" spans="1:16"/>
+    <x:row r="55" spans="1:16"/>
+    <x:row r="56" spans="1:16"/>
+    <x:row r="57" spans="1:16"/>
+    <x:row r="58" spans="1:16"/>
+    <x:row r="59" spans="1:16"/>
+    <x:row r="60" spans="1:16"/>
+    <x:row r="61" spans="1:16"/>
+    <x:row r="62" spans="1:16"/>
+    <x:row r="63" spans="1:16"/>
+    <x:row r="64" spans="1:16"/>
+    <x:row r="65" spans="1:16"/>
+    <x:row r="66" spans="1:16"/>
+    <x:row r="67" spans="1:16"/>
+    <x:row r="68" spans="1:16"/>
+    <x:row r="69" spans="1:16"/>
+    <x:row r="70" spans="1:16"/>
+    <x:row r="71" spans="1:16"/>
+    <x:row r="72" spans="1:16"/>
+    <x:row r="73" spans="1:16"/>
+    <x:row r="74" spans="1:16"/>
+    <x:row r="75" spans="1:16"/>
+    <x:row r="76" spans="1:16"/>
+    <x:row r="77" spans="1:16"/>
+    <x:row r="78" spans="1:16"/>
+    <x:row r="79" spans="1:16"/>
+    <x:row r="80" spans="1:16"/>
+    <x:row r="81" spans="1:16"/>
+    <x:row r="82" spans="1:16"/>
+    <x:row r="83" spans="1:16"/>
+    <x:row r="84" spans="1:16"/>
+    <x:row r="85" spans="1:16"/>
+    <x:row r="86" spans="1:16"/>
+    <x:row r="87" spans="1:16"/>
+    <x:row r="88" spans="1:16"/>
+    <x:row r="89" spans="1:16"/>
+    <x:row r="90" spans="1:16"/>
+    <x:row r="91" spans="1:16"/>
+    <x:row r="92" spans="1:16"/>
+    <x:row r="93" spans="1:16"/>
+    <x:row r="94" spans="1:16"/>
+    <x:row r="95" spans="1:16"/>
+    <x:row r="96" spans="1:16"/>
+    <x:row r="97" spans="1:16"/>
+    <x:row r="98" spans="1:16"/>
+    <x:row r="99" spans="1:16"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>

--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <x:si>
     <x:t>No.</x:t>
   </x:si>
@@ -70,49 +70,79 @@
     <x:t>Windows,Agile,Architect,Architectural,Communication,Data Modeling,Docker,EC2,English,Excel,French,Java,JavaScript,JIRA,JSON,Linux,Networking,Oracle,PL/SQL,project management,Scrum,SDLC,Servers,Software Development,Software Engineering,SQL,Web Service,XML</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/senior-developer-anchor-search-group-27f6977ddf305485b81225727c63b6f1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MCF-2021-0707052</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PRINCESS MANICURE PTE. LTD.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Manicurist / Beauty Therapist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10% skills matched</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Communication, service oriented, Collaboration, Positive Team Player, Beauty, Salons, Pedicures, Consulting, Manicures, </x:t>
+    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/senior-developer-basil-technologies-0ca878162e09111d2be8ee4a64644aec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCF-2022-0296303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BASIL TECHNOLOGIES PTE. LTD.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Senior Developer </x:t>
+  </x:si>
+  <x:si>
+    <x:t>56% skills matched</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SOAP, MySQL, Configuration Management, API, Databases, J2EE, Hibernate, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Senior Executive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Information Technology</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Islandwide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 years exp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$6,000 to $8,000 Monthly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jennifer  M. Conte.docx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Windows,Architect,C++,Capital,EC2,Excel,Java,JavaScript,JSON,Linux,Mac,Oracle,SQL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.mycareersfuture.gov.sg/job/engineering/senior-software-engineers-marquee-semiconductor-singapore-c62f0f74f24a099da4b542e215d701ac</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCF-2022-0282201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARQUEE SEMICONDUCTOR  SINGAPORE PTE. LTD.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Senior Software Engineers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30% skills matched</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Version Control, Autonomy, AngularJS, MySQL, Scripting, Information Technology, OpenCL, Requirements Analysis, Python, Computer Architecture, ClearCase, Debugging, Databases, Software Development, </x:t>
   </x:si>
   <x:si>
     <x:t>Full Time</x:t>
   </x:si>
   <x:si>
-    <x:t>Non-executive</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Personal Care / Beauty</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Islandwide</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 years exp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$2,500 to $3,500 Monthly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jennifer  M. Conte.docx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Windows,Architect,C++,Capital,EC2,Excel,Java,JavaScript,JSON,Linux,Mac,Oracle,SQL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/software-engineer-c-java-flintex-consulting-44ce56bbd4af664f0ad795779bdd8ffa</x:t>
+    <x:t>Middle Management</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Engineering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 year exp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$4,000 to $6,000 Monthly</x:t>
   </x:si>
   <x:si>
     <x:t>SUNITHA Project Manager (1).docx</x:t>
@@ -121,7 +151,31 @@
     <x:t>Risk Management,User Acceptance Testing,UAT,Windows,.Net,Active Directory,Agile,Architect,B2B,Business Analyst,Business Intelligence,Data Analysis,Data Migration,Data Modeling,ECC,ERP,ETL,Excel,Healthcare,Java,JavaScript,JIRA,Linux,MS Office,MS Project,Operating Systems,Oracle,Outlook,Payroll,PL/SQL,Power BI,project management,Project Planning,Sales,SAP,SAP BI,SAP HANA,Scheduling,Scrum,SDLC,Servers,SharePoint,SQL,Strategy,Tableau,Technical Design,Test Cases,Time Management,Travel,User Stories,Web Service,XML</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/business-analyst-tech-mahindra-2cd9db73aff974a23e2a51d7bbf65d18</x:t>
+    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/business-analyst-5-days-java-2894-supreme-hr-advisory-81fc54813d31f893d647d8ddfa32cb8f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCF-2022-0332440</x:t>
+  </x:si>
+  <x:si>
+    <x:t>THE SUPREME HR ADVISORY PTE. LTD.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Business Analyst [5 days| Java] 2894</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50% skills matched</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Requirements Gathering, Microsoft Excel, Business Analysis, Communication Skills, Banking, Web Applications, Team Player, Business Requirements, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Permanent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Junior Executive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$3,200 to $5,000 Monthly</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -589,37 +643,37 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="L3" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M3" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N3" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="O3" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="P3" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:16">
@@ -627,34 +681,34 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="J4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="K4" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L4" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="M4" s="0" t="s">
         <x:v>26</x:v>
@@ -663,10 +717,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="O4" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="P4" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:16"/>

--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
   <si>
     <t>No.</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Skills</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
@@ -75,121 +72,184 @@
     <t>Windows,Agile,Architect,Architectural,Communication,Data Modeling,Docker,EC2,English,Excel,French,Java,JavaScript,JIRA,JSON,Linux,Networking,Oracle,PL/SQL,project management,Scrum,SDLC,Servers,Software Development,Software Engineering,SQL,Web Service,XML</t>
   </si>
   <si>
-    <t>https://www.mycareersfuture.gov.sg/job/information-technology/senior-software-developer-flintex-consulting-2eaf1e57e75b3b7c00c1128200a46f48</t>
-  </si>
-  <si>
-    <t>MCF-2022-0325133</t>
-  </si>
-  <si>
-    <t>FLINTEX CONSULTING PTE. LTD.</t>
-  </si>
-  <si>
-    <t>Senior Software Developer</t>
-  </si>
-  <si>
-    <t>38% skills matched</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MVC, iOS, Web Services, CSS, PHP, Design Patterns, HTML5, SQL Server, Software Design, C#, </t>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/software-engineer-commontown-62ceaf29c5989a3494467adc476c1ea2?source=MCF&amp;event=SuggestedJob</t>
+  </si>
+  <si>
+    <t>MCF-2022-0275914</t>
+  </si>
+  <si>
+    <t>COMMONTOWN PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Git, Able To Multitask, PHP, MySQL, Python, Applications Support, Software Development, </t>
+  </si>
+  <si>
+    <t>Full Time</t>
+  </si>
+  <si>
+    <t>Senior Executive</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>Vertex (Tower A), 33 Ubi Avenue 3 408868</t>
+  </si>
+  <si>
+    <t>2 years exp</t>
+  </si>
+  <si>
+    <t>$4,000 to $7,000 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/engineering/senior-product-engineer-lead-digital-gov-solutions-provider-3770-supreme-hr-advisory-134197e72ddf280d04a29b8dad45c76f?source=MCF&amp;event=SuggestedJob</t>
+  </si>
+  <si>
+    <t>MCF-2022-0318306</t>
+  </si>
+  <si>
+    <t>THE SUPREME HR ADVISORY PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Senior Product Engineer  /  Lead - Digital Gov Solutions Provider [3770]</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVC, Technical Documentation, Web Services, Kubernetes, Unix, Data Migration, User Acceptance Testing, DB2, Web Applications, J2EE, Software Development, Able To Work Independently, </t>
+  </si>
+  <si>
+    <t>Engineering, Information Technology</t>
+  </si>
+  <si>
+    <t>Islandwide</t>
+  </si>
+  <si>
+    <t>4 years exp</t>
+  </si>
+  <si>
+    <t>$6,800 to $8,800 Monthly</t>
+  </si>
+  <si>
+    <t>Jennifer  M. Conte.docx</t>
+  </si>
+  <si>
+    <t>Windows,Architect,C++,Capital,EC2,Excel,Java,JavaScript,JSON,Linux,Mac,Oracle,SQL</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/automation-engineer-mavenside-consulting-fb65c956e440d1f6d0538ef688a5e70a?source=MCF&amp;event=SuggestedJob</t>
+  </si>
+  <si>
+    <t>MCF-2022-0315372</t>
+  </si>
+  <si>
+    <t>MAVENSIDE CONSULTING PTE. LTD.</t>
+  </si>
+  <si>
+    <t>IT Automation Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAT, Scripting, Electrical, Test Cases, PLC, Test Automation, Networking, Python, Selenium, API, S3, Databases, </t>
+  </si>
+  <si>
+    <t>Permanent, Full Time</t>
+  </si>
+  <si>
+    <t>Executive</t>
+  </si>
+  <si>
+    <t>1 year exp</t>
+  </si>
+  <si>
+    <t>$4,500 to $8,000 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/engineering/software-engineer-rovisys-asia-company-eed8074a6f3631baa9767998e6184336?source=MCF&amp;event=SuggestedJob</t>
+  </si>
+  <si>
+    <t>MCF-2022-0293715</t>
+  </si>
+  <si>
+    <t>ROVISYS ASIA COMPANY PTE. LTD.</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rollout, ISO, Software Engineering, Agile, MS Office, Python, Presentation Skills, C#, Software Development, </t>
+  </si>
+  <si>
+    <t>Fresh/entry level</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Strategy, 2 International Business Park 609930</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>$3,900 to $4,500 Monthly</t>
+  </si>
+  <si>
+    <t>SUNITHA Project Manager (1).docx</t>
+  </si>
+  <si>
+    <t>Risk Management,User Acceptance Testing,UAT,Windows,.Net,Active Directory,Agile,Architect,B2B,Business Analyst,Business Intelligence,Data Analysis,Data Migration,Data Modeling,ECC,ERP,ETL,Excel,Healthcare,Java,JavaScript,JIRA,Linux,MS Office,MS Project,Operating Systems,Oracle,Outlook,Payroll,PL/SQL,Power BI,project management,Project Planning,Sales,SAP,SAP BI,SAP HANA,Scheduling,Scrum,SDLC,Servers,SharePoint,SQL,Strategy,Tableau,Technical Design,Test Cases,Time Management,Travel,User Stories,Web Service,XML</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/bi-consultant-envoy-search-partners-5b54f64d463cb437ba60f2f5dd2ba944?source=MCF&amp;event=SuggestedJob</t>
+  </si>
+  <si>
+    <t>MCF-2022-0282258</t>
+  </si>
+  <si>
+    <t>ENVOY SEARCH PARTNERS PTE. LIMITED</t>
+  </si>
+  <si>
+    <t>BI Consultant</t>
+  </si>
+  <si>
+    <t>53%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Analysis, Data Transformation, Advanced Excel, VBA, Information Technology, VBA Programming, Excel VBA, </t>
+  </si>
+  <si>
+    <t>Contract</t>
+  </si>
+  <si>
+    <t>$4,500 to $7,500 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/business-analyst-5-days-java-2894-supreme-hr-advisory-57f9122e962177ae35d6eaf78e8f8783?source=MCF&amp;event=SuggestedJob</t>
+  </si>
+  <si>
+    <t>MCF-2022-0329028</t>
+  </si>
+  <si>
+    <t>Business Analyst [5 days| Java] 2894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirements Gathering, Microsoft Excel, Business Analysis, Communication Skills, Banking, Web Applications, Team Player, Business Requirements, </t>
   </si>
   <si>
     <t>Permanent</t>
   </si>
   <si>
-    <t>Executive</t>
-  </si>
-  <si>
-    <t>Information Technology</t>
-  </si>
-  <si>
-    <t>INTERNATIONAL PLAZA, 10 ANSON ROAD 079903</t>
-  </si>
-  <si>
-    <t>3 years exp</t>
-  </si>
-  <si>
-    <t>$4,700 to $5,500 Monthly</t>
-  </si>
-  <si>
-    <t>Jennifer  M. Conte.docx</t>
-  </si>
-  <si>
-    <t>Windows,Architect,C++,Capital,EC2,Excel,Java,JavaScript,JSON,Linux,Mac,Oracle,SQL</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/engineering/software-engineer-hp-singapore-2cd704771c47b6dd57c425b82ca99713</t>
-  </si>
-  <si>
-    <t>MCF-2022-0278030</t>
-  </si>
-  <si>
-    <t>HP SINGAPORE (PRIVATE) LIMITED</t>
-  </si>
-  <si>
-    <t>Software Engineer</t>
-  </si>
-  <si>
-    <t>33% skills matched</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Engineering, MySQL, Agile, Python, Team Player, Debugging, API, Databases, Software Development, Human Capital, </t>
-  </si>
-  <si>
-    <t>Permanent, Full Time</t>
-  </si>
-  <si>
     <t>Junior Executive</t>
   </si>
   <si>
-    <t>Engineering, Information Technology</t>
-  </si>
-  <si>
-    <t>1 DEPOT CLOSE 109841</t>
-  </si>
-  <si>
-    <t>2 years exp</t>
-  </si>
-  <si>
-    <t>$4,000 to $6,500 Monthly</t>
-  </si>
-  <si>
-    <t>SUNITHA Project Manager (1).docx</t>
-  </si>
-  <si>
-    <t>Risk Management,User Acceptance Testing,UAT,Windows,.Net,Active Directory,Agile,Architect,B2B,Business Analyst,Business Intelligence,Data Analysis,Data Migration,Data Modeling,ECC,ERP,ETL,Excel,Healthcare,Java,JavaScript,JIRA,Linux,MS Office,MS Project,Operating Systems,Oracle,Outlook,Payroll,PL/SQL,Power BI,project management,Project Planning,Sales,SAP,SAP BI,SAP HANA,Scheduling,Scrum,SDLC,Servers,SharePoint,SQL,Strategy,Tableau,Technical Design,Test Cases,Time Management,Travel,User Stories,Web Service,XML</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/information-technology/business-analyst-ijj-recruit-express-287c82d082e493e4dc07b5b3b25c1e6c</t>
-  </si>
-  <si>
-    <t>MCF-2022-0288198</t>
-  </si>
-  <si>
-    <t>RECRUIT EXPRESS PTE LTD</t>
-  </si>
-  <si>
-    <t>IT Business Analyst (no experience is fine, with C#.Net) #IJJ</t>
-  </si>
-  <si>
-    <t>53% skills matched</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change Management, Business Analysis, Information Technology, Banking, Team Player, Business Process, Business Requirements, </t>
-  </si>
-  <si>
-    <t>Contract, Permanent, Full Time</t>
-  </si>
-  <si>
-    <t>Fresh/entry level</t>
-  </si>
-  <si>
-    <t>NGEE ANN CITY, 391A ORCHARD ROAD 238873</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>$3,500 to $4,500 Monthly</t>
+    <t>$3,200 to $5,000 Monthly</t>
   </si>
 </sst>
 </file>
@@ -237,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -245,18 +305,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,30 +627,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576 E1:E1048576 J1:J1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1048576 I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.77734375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="53.77734375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="53.77734375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="26.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="42" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="5" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.77734375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="53.77734375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="53.77734375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -593,13 +659,13 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -608,13 +674,13 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -629,152 +695,291 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="9"/>
+    </row>
+    <row r="2" spans="1:16" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="3" spans="1:16" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="D3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="I7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="M7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="N7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>56</v>
+      <c r="O7" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <x:si>
     <x:t>No.</x:t>
   </x:si>
@@ -31,22 +31,241 @@
     <x:t>Skills</x:t>
   </x:si>
   <x:si>
+    <x:t>URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Job Ref</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Position</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Score</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gap</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emp Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Job Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Job Function</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Year Exp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salary</x:t>
+  </x:si>
+  <x:si>
     <x:t>jagadeesh k.docx</x:t>
   </x:si>
   <x:si>
     <x:t>Windows,Agile,Architect,Architectural,Communication,Data Modeling,Docker,EC2,English,Excel,French,Java,JavaScript,JIRA,JSON,Linux,Networking,Oracle,PL/SQL,project management,Scrum,SDLC,Servers,Software Development,Software Engineering,SQL,Web Service,XML</x:t>
   </x:si>
   <x:si>
+    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/software-engineer-v-key-36f06c3f937cec64f24a8ea40bb22b39?source=MCF&amp;event=SuggestedJob</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCF-2022-0335677</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V-KEY PTE. LTD.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Software Engineer (QA)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Product Knowledge, Web Services, Software Testing, Selenium, Web Applications, Team Player, Product Development, C++, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Permanent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Executive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Information Technology</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OC@PASIR PANJANG, 100H PASIR PANJANG ROAD 118524</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 year exp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$4,000 to $8,000 Monthly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/product-development-engineer-forte-employment-services-1a58b2615fc5f3d054a69267a62adf49?source=MCF&amp;event=SuggestedJob</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCF-2022-0299571</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FORTE EMPLOYMENT SERVICES PTE. LTD.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Product Development Engineer (IT /  Java / J2EE / UNIX / $6000)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Web Services, Kubernetes, MySQL, Unix, Data Migration, DB2, Web Applications, API, J2EE, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manager</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CT HUB, 2 KALLANG AVENUE 339407</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 years exp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$3,500 to $6,000 Monthly</x:t>
+  </x:si>
+  <x:si>
     <x:t>Jennifer  M. Conte.docx</x:t>
   </x:si>
   <x:si>
     <x:t>Windows,Architect,C++,Capital,EC2,Excel,Java,JavaScript,JSON,Linux,Mac,Oracle,SQL</x:t>
   </x:si>
   <x:si>
+    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/application-support-engineer-idc-technologies-d7734d8b4222464b9fb173275c2c698e?source=MCF&amp;event=SuggestedJob</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCF-2022-0282301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IDC TECHNOLOGIES (SINGAPORE) PTE. LTD.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Application Support Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Troubleshooting, Unix, Administration, Application Support, Python, Consulting, Scheduling, Software Development, Technical Support, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract, Full Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Professional</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GB BUILDING, 143 CECIL STREET 069542</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$6,000 to $7,500 Monthly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/software-engineer-speech-audio-tiktok-9114fed5c8fda96662ed5ce04abcad2a?source=MCF&amp;event=SuggestedJob</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCF-2022-0324932</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIKTOK PTE. LTD.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Software Engineer - Speech &amp; Audio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Troubleshooting, Software Engineering, Agile, Administration, Distributed Systems, Python, C#, Electrical Engineering, Databases, Software Development, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 RAFFLES QUAY 048583</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 years exp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$10,000 to $20,000 Monthly</x:t>
+  </x:si>
+  <x:si>
     <x:t>SUNITHA Project Manager (1).docx</x:t>
   </x:si>
   <x:si>
     <x:t>Risk Management,User Acceptance Testing,UAT,Windows,.Net,Active Directory,Agile,Architect,B2B,Business Analyst,Business Intelligence,Data Analysis,Data Migration,Data Modeling,ECC,ERP,ETL,Excel,Healthcare,Java,JavaScript,JIRA,Linux,MS Office,MS Project,Operating Systems,Oracle,Outlook,Payroll,PL/SQL,Power BI,project management,Project Planning,Sales,SAP,SAP BI,SAP HANA,Scheduling,Scrum,SDLC,Servers,SharePoint,SQL,Strategy,Tableau,Technical Design,Test Cases,Time Management,Travel,User Stories,Web Service,XML</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/bi-consultant-envoy-search-partners-5b54f64d463cb437ba60f2f5dd2ba944?source=MCF&amp;event=SuggestedJob</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCF-2022-0282258</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ENVOY SEARCH PARTNERS PTE. LIMITED</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BI Consultant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Business Analysis, Data Transformation, Advanced Excel, VBA, Information Technology, VBA Programming, Excel VBA, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Islandwide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 years exp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$4,500 to $7,500 Monthly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/business-analyst-sandbox-consulting-935fffbc6d9014bf54fc7e8f2ffa6b2a?source=MCF&amp;event=SuggestedJob</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCF-2022-0305844</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SANDBOX CONSULTING PTE. LTD.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Business Analyst</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Microsoft Excel, Analytical Skills, Business Analysis, Information Technology, Banking, Team Player, Business Process, Business Requirements, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Senior Executive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 years exp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$10,000 to $11,000 Monthly</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -431,16 +650,88 @@
       <x:c r="C1" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L1" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M1" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="N1" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="O1" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
     </x:row>
     <x:row r="2" spans="1:15" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A2" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F2" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H2" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I2" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K2" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L2" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M2" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="N2" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O2" s="1" t="s">
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:15" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -448,10 +739,46 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D3" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H3" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I3" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="J3" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K3" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="L3" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M3" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="N3" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O3" s="1" t="s">
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:15" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -459,15 +786,189 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F4" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G4" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H4" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I4" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="J4" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="K4" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L4" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M4" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="N4" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O4" s="1" t="s">
+        <x:v>50</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:15" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <x:row r="6" spans="1:15" customFormat="1" ht="158.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <x:row r="7" spans="1:15" customFormat="1" ht="158.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <x:row r="5" spans="1:15" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F5" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G5" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="H5" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="I5" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="J5" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="K5" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L5" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M5" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="N5" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="O5" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:15" customFormat="1" ht="158.4" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A6" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E6" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F6" s="1" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="G6" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H6" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="I6" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="J6" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="K6" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L6" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M6" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="N6" s="1" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="O6" s="1" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:15" customFormat="1" ht="158.4" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A7" s="1" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E7" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F7" s="1" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G7" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="H7" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="I7" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="J7" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K7" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="L7" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M7" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="N7" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="O7" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <x:si>
     <x:t>No.</x:t>
   </x:si>
@@ -64,34 +64,34 @@
     <x:t>Salary</x:t>
   </x:si>
   <x:si>
-    <x:t>223610-64.docx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Problem Management,Windows,Windows Operating Systems,Change,Classroom,Coaching,Configuration Management,English,Excel,Group Policy,Hardware,ICT,ISO,Marketing,Operating Systems,Software Installation,Teaching,Team Player,VMware,Windows Server</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.mycareersfuture.gov.sg/job/information-technology/vm-windows-system-engineer-talento-meld-8b60b4dc412b3473a8ed78118f79cc30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MCF-2022-0291617</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TALENTO MELD PTE. LTD.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VM Windows System Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>83% skills matched</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">vSphere, VM, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Junior Executive</x:t>
+    <x:t>Abiral_Pandey_Fullstack_Java.docx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Windows,Agile,Automation,Databases,ETL,Excel,Java,JavaScript,JIRA,Linux,Logging,Operating Systems,Oracle,PL/SQL,Scripting,SDLC,Servers,Software Development,SQL,Web Service,XML</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.https://www.mycareersfuture.gov.sg/job/information-technology/java-developer-zenith-infotech-a9740325ce508618531643c9e0c6adc1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCF-2022-0141516</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZENITH INFOTECH (S) PTE LTD.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Java Developer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50% skills matched</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Web Services, Design Patterns, SOAP, Maven, Angular, EJB, J2EE, Hibernate, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Professional</x:t>
   </x:si>
   <x:si>
     <x:t>Information Technology</x:t>
@@ -100,91 +100,10 @@
     <x:t>Islandwide</x:t>
   </x:si>
   <x:si>
-    <x:t>2 years exp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$4,000 to $5,500 Monthly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jagadeesh k.docx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Windows,Agile,Architect,Architectural,Communication,Data Modeling,Docker,EC2,English,Excel,French,Java,JavaScript,JIRA,JSON,Linux,Networking,Oracle,PL/SQL,project management,Scrum,SDLC,Servers,Software Development,Software Engineering,SQL,Web Service,XML</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.mycareersfuture.gov.sg/job/engineering/software-engineer-–-iot-development-realtek-singapore-47521dbbb4b131b2a6974e9516143a95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MCF-2022-0135543</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REALTEK SINGAPORE PRIVATE LIMITED</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Software Engineer – IoT Development</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56% skills matched</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Design Patterns, Protocol, Python, Angular, Team Player, API, Electronics, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Permanent, Full Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fresh/entry level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Engineering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>THE STRATEGY, 2 INTERNATIONAL BUSINESS PARK 609930</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N/A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$3,500 to $5,500 Monthly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jennifer  M. Conte.docx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Windows,Architect,C++,Capital,EC2,Excel,Java,JavaScript,JSON,Linux,Mac,Oracle,SQL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.mycareersfuture.gov.sg/job/manufacturing/applications-principalsenior-engineer-advanced-micro-foundry-2f6e83f3269a379969b479edff057c5c</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MCF-2022-0270063</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ADVANCED MICRO FOUNDRY PTE. LTD.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IT Applications Principal / Senior Engineer (Automation)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38% skills matched</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">MES, SOAP, HTML5, Information Technology, Architectural Design, Microsoft SQL, IT Strategy, Manufacturing, Able To Work Independently, Design Management, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Senior Executive</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Manufacturing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11 SCIENCE PARK ROAD 117685</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$5,000 to $10,000 Monthly</x:t>
+    <x:t>6 years exp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$6,100 to $7,600 Monthly</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -638,100 +557,8 @@
         <x:v>29</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:16">
-      <x:c r="A3" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="J3" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K3" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="L3" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="M3" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="N3" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="O3" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="P3" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:16">
-      <x:c r="A4" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="J4" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="K4" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="L4" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="M4" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="N4" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="O4" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="P4" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-    </x:row>
+    <x:row r="3" spans="1:16"/>
+    <x:row r="4" spans="1:16"/>
     <x:row r="5" spans="1:16"/>
     <x:row r="6" spans="1:16"/>
     <x:row r="7" spans="1:16"/>

--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <x:workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proj\UiPath\SCT9_Diamond_Project2\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="9564" windowHeight="8340" firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="125725"/>
+  <x:calcPr calcId="0"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <x:si>
     <x:t>No.</x:t>
   </x:si>
@@ -25,97 +31,27 @@
     <x:t>Skills</x:t>
   </x:si>
   <x:si>
-    <x:t>Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Job Ref</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Position</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Score</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gap</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Emp Type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Job Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Job Function</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Year Exp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salary</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abiral_Pandey_Fullstack_Java.docx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Windows,Agile,Automation,Databases,ETL,Excel,Java,JavaScript,JIRA,Linux,Logging,Operating Systems,Oracle,PL/SQL,Scripting,SDLC,Servers,Software Development,SQL,Web Service,XML</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.https://www.mycareersfuture.gov.sg/job/information-technology/java-developer-zenith-infotech-a9740325ce508618531643c9e0c6adc1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MCF-2022-0141516</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ZENITH INFOTECH (S) PTE LTD.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Java Developer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50% skills matched</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Web Services, Design Patterns, SOAP, Maven, Angular, EJB, J2EE, Hibernate, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Professional</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Information Technology</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Islandwide</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6 years exp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$6,100 to $7,600 Monthly</x:t>
+    <x:t>Komala BSA Resume.docx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Inventory,Microsoft Office,PowerPoint,Power Point,Risk Management,User Acceptance Testing,UAT,Windows,.Net,Administration,Agile,Architect,Automation,Azure,Business Analyst,Business Requirements,C++,Confluence,Databases,Electrical,Electrical Engineering,ETL,Excel,IIS,Java,JavaScript,JIRA,JSON,Linux,Mac,MS Office,MS Project,Operating Systems,Oracle,Outlook,PL/SQL,Power BI,Property,Scrum,SDLC,Selenium,SharePoint,Software Development,SQL,Strategy,Tableau,Test Cases,Test Strategy,Usability,User Stories,XML</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RaviRaju_Resume.docx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Inventory Management,Inventory,User Acceptance Testing,UAT,Windows,Administration,Agile,Architect,Business Analysis,Business Analyst,Business Intelligence,Business Requirements,Data Analysis,Data Quality,ETL,Excel,Hardware,IIS,IT Operations,ITIL,Java,JavaScript,JIRA,Linux,Network Architecture,Oracle,PMP,Power BI,Publishing,Python,SAP,Scripting,Scrum,SDLC,Servers,Service Desk,SQL,Tableau</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="1" x14ac:knownFonts="1">
     <x:font>
-      <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
@@ -131,30 +67,22 @@
     </x:fill>
   </x:fills>
   <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -163,10 +91,19 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </x:ext>
+  </x:extLst>
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -449,215 +386,73 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr codeName="Sheet1">
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:P99"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
+    <x:sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <x:pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <x:selection activeCell="C1" sqref="C1 C1:C1"/>
+    </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:cols>
+    <x:col min="1" max="1" width="4" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="35.21875" style="1" customWidth="1"/>
+    <x:col min="3" max="4" width="53.777344" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="17.21875" style="1" customWidth="1"/>
+    <x:col min="6" max="6" width="49" style="1" customWidth="1"/>
+    <x:col min="7" max="7" width="86.554688" style="1" customWidth="1"/>
+    <x:col min="8" max="8" width="5.664062" style="1" customWidth="1"/>
+    <x:col min="9" max="9" width="53.777344" style="1" customWidth="1"/>
+    <x:col min="10" max="10" width="26.441406" style="1" customWidth="1"/>
+    <x:col min="11" max="11" width="18" style="1" customWidth="1"/>
+    <x:col min="12" max="12" width="75.664062" style="1" customWidth="1"/>
+    <x:col min="13" max="13" width="56.109375" style="1" customWidth="1"/>
+    <x:col min="14" max="14" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="15" max="15" width="24.109375" style="1" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:16">
-      <x:c r="A1" s="0" t="s">
+    <x:row r="1" spans="1:15">
+      <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+      <x:c r="B1" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
+      <x:c r="C1" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
+    </x:row>
+    <x:row r="2" spans="1:15">
+      <x:c r="A2" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="0" t="s">
+      <x:c r="C2" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="0" t="s">
+    </x:row>
+    <x:row r="3" spans="1:15">
+      <x:c r="A3" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="0" t="s">
+      <x:c r="C3" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I1" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="J1" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="K1" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="L1" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="M1" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="N1" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="O1" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="P1" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
     </x:row>
-    <x:row r="2" spans="1:16">
-      <x:c r="A2" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K2" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="L2" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="M2" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="N2" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="O2" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="P2" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:16"/>
-    <x:row r="4" spans="1:16"/>
-    <x:row r="5" spans="1:16"/>
-    <x:row r="6" spans="1:16"/>
-    <x:row r="7" spans="1:16"/>
-    <x:row r="8" spans="1:16"/>
-    <x:row r="9" spans="1:16"/>
-    <x:row r="10" spans="1:16"/>
-    <x:row r="11" spans="1:16"/>
-    <x:row r="12" spans="1:16"/>
-    <x:row r="13" spans="1:16"/>
-    <x:row r="14" spans="1:16"/>
-    <x:row r="15" spans="1:16"/>
-    <x:row r="16" spans="1:16"/>
-    <x:row r="17" spans="1:16"/>
-    <x:row r="18" spans="1:16"/>
-    <x:row r="19" spans="1:16"/>
-    <x:row r="20" spans="1:16"/>
-    <x:row r="21" spans="1:16"/>
-    <x:row r="22" spans="1:16"/>
-    <x:row r="23" spans="1:16"/>
-    <x:row r="24" spans="1:16"/>
-    <x:row r="25" spans="1:16"/>
-    <x:row r="26" spans="1:16"/>
-    <x:row r="27" spans="1:16"/>
-    <x:row r="28" spans="1:16"/>
-    <x:row r="29" spans="1:16"/>
-    <x:row r="30" spans="1:16"/>
-    <x:row r="31" spans="1:16"/>
-    <x:row r="32" spans="1:16"/>
-    <x:row r="33" spans="1:16"/>
-    <x:row r="34" spans="1:16"/>
-    <x:row r="35" spans="1:16"/>
-    <x:row r="36" spans="1:16"/>
-    <x:row r="37" spans="1:16"/>
-    <x:row r="38" spans="1:16"/>
-    <x:row r="39" spans="1:16"/>
-    <x:row r="40" spans="1:16"/>
-    <x:row r="41" spans="1:16"/>
-    <x:row r="42" spans="1:16"/>
-    <x:row r="43" spans="1:16"/>
-    <x:row r="44" spans="1:16"/>
-    <x:row r="45" spans="1:16"/>
-    <x:row r="46" spans="1:16"/>
-    <x:row r="47" spans="1:16"/>
-    <x:row r="48" spans="1:16"/>
-    <x:row r="49" spans="1:16"/>
-    <x:row r="50" spans="1:16"/>
-    <x:row r="51" spans="1:16"/>
-    <x:row r="52" spans="1:16"/>
-    <x:row r="53" spans="1:16"/>
-    <x:row r="54" spans="1:16"/>
-    <x:row r="55" spans="1:16"/>
-    <x:row r="56" spans="1:16"/>
-    <x:row r="57" spans="1:16"/>
-    <x:row r="58" spans="1:16"/>
-    <x:row r="59" spans="1:16"/>
-    <x:row r="60" spans="1:16"/>
-    <x:row r="61" spans="1:16"/>
-    <x:row r="62" spans="1:16"/>
-    <x:row r="63" spans="1:16"/>
-    <x:row r="64" spans="1:16"/>
-    <x:row r="65" spans="1:16"/>
-    <x:row r="66" spans="1:16"/>
-    <x:row r="67" spans="1:16"/>
-    <x:row r="68" spans="1:16"/>
-    <x:row r="69" spans="1:16"/>
-    <x:row r="70" spans="1:16"/>
-    <x:row r="71" spans="1:16"/>
-    <x:row r="72" spans="1:16"/>
-    <x:row r="73" spans="1:16"/>
-    <x:row r="74" spans="1:16"/>
-    <x:row r="75" spans="1:16"/>
-    <x:row r="76" spans="1:16"/>
-    <x:row r="77" spans="1:16"/>
-    <x:row r="78" spans="1:16"/>
-    <x:row r="79" spans="1:16"/>
-    <x:row r="80" spans="1:16"/>
-    <x:row r="81" spans="1:16"/>
-    <x:row r="82" spans="1:16"/>
-    <x:row r="83" spans="1:16"/>
-    <x:row r="84" spans="1:16"/>
-    <x:row r="85" spans="1:16"/>
-    <x:row r="86" spans="1:16"/>
-    <x:row r="87" spans="1:16"/>
-    <x:row r="88" spans="1:16"/>
-    <x:row r="89" spans="1:16"/>
-    <x:row r="90" spans="1:16"/>
-    <x:row r="91" spans="1:16"/>
-    <x:row r="92" spans="1:16"/>
-    <x:row r="93" spans="1:16"/>
-    <x:row r="94" spans="1:16"/>
-    <x:row r="95" spans="1:16"/>
-    <x:row r="96" spans="1:16"/>
-    <x:row r="97" spans="1:16"/>
-    <x:row r="98" spans="1:16"/>
-    <x:row r="99" spans="1:16"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>

--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -1,106 +1,163 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
-  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <x:workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proj\UiPath\SCT9_Diamond_Project2\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="9564" windowHeight="8340" firstSheet="0" activeTab="0"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="0"/>
-</x:workbook>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9564" windowHeight="8340"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <x:si>
-    <x:t>No.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Filename</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Skills</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Komala BSA Resume.docx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inventory,Microsoft Office,PowerPoint,Power Point,Risk Management,User Acceptance Testing,UAT,Windows,.Net,Administration,Agile,Architect,Automation,Azure,Business Analyst,Business Requirements,C++,Confluence,Databases,Electrical,Electrical Engineering,ETL,Excel,IIS,Java,JavaScript,JIRA,JSON,Linux,Mac,MS Office,MS Project,Operating Systems,Oracle,Outlook,PL/SQL,Power BI,Property,Scrum,SDLC,Selenium,SharePoint,Software Development,SQL,Strategy,Tableau,Test Cases,Test Strategy,Usability,User Stories,XML</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RaviRaju_Resume.docx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inventory Management,Inventory,User Acceptance Testing,UAT,Windows,Administration,Agile,Architect,Business Analysis,Business Analyst,Business Intelligence,Business Requirements,Data Analysis,Data Quality,ETL,Excel,Hardware,IIS,IT Operations,ITIL,Java,JavaScript,JIRA,Linux,Network Architecture,Oracle,PMP,Power BI,Publishing,Python,SAP,Scripting,Scrum,SDLC,Servers,Service Desk,SQL,Tableau</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Job Ref</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Gap</t>
+  </si>
+  <si>
+    <t>Emp Type</t>
+  </si>
+  <si>
+    <t>Job Level</t>
+  </si>
+  <si>
+    <t>Job Function</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Year Exp</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Komala BSA Resume.docx</t>
+  </si>
+  <si>
+    <t>Inventory,Microsoft Office,PowerPoint,Power Point,Risk Management,User Acceptance Testing,UAT,Windows,.Net,Administration,Agile,Architect,Automation,Azure,Business Analyst,Business Requirements,C++,Confluence,Databases,Electrical,Electrical Engineering,ETL,Excel,IIS,Java,JavaScript,JIRA,JSON,Linux,Mac,MS Office,MS Project,Operating Systems,Oracle,Outlook,PL/SQL,Power BI,Property,Scrum,SDLC,Selenium,SharePoint,Software Development,SQL,Strategy,Tableau,Test Cases,Test Strategy,Usability,User Stories,XML</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/business-analyst-5-days-java-2894-supreme-hr-advisory-ce6e06b0d3c9285cf81599168925df25</t>
+  </si>
+  <si>
+    <t>MCF-2022-0321842</t>
+  </si>
+  <si>
+    <t>THE SUPREME HR ADVISORY PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Business Analyst [5 days| Java] 2894</t>
+  </si>
+  <si>
+    <t>56%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirements Gathering, Microsoft Excel, Business Analysis, Communication Skills, Banking, Web Applications, Team Player, </t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>Junior Executive</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>Islandwide</t>
+  </si>
+  <si>
+    <t>1 year exp</t>
+  </si>
+  <si>
+    <t>$3,200 to $5,000 Monthly</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="1" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,73 +444,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:sheetPr codeName="Sheet1">
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <x:pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
-      <x:selection activeCell="C1" sqref="C1 C1:C1"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <x:cols>
-    <x:col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="35.21875" style="1" customWidth="1"/>
-    <x:col min="3" max="4" width="53.777344" style="1" customWidth="1"/>
-    <x:col min="5" max="5" width="17.21875" style="1" customWidth="1"/>
-    <x:col min="6" max="6" width="49" style="1" customWidth="1"/>
-    <x:col min="7" max="7" width="86.554688" style="1" customWidth="1"/>
-    <x:col min="8" max="8" width="5.664062" style="1" customWidth="1"/>
-    <x:col min="9" max="9" width="53.777344" style="1" customWidth="1"/>
-    <x:col min="10" max="10" width="26.441406" style="1" customWidth="1"/>
-    <x:col min="11" max="11" width="18" style="1" customWidth="1"/>
-    <x:col min="12" max="12" width="75.664062" style="1" customWidth="1"/>
-    <x:col min="13" max="13" width="56.109375" style="1" customWidth="1"/>
-    <x:col min="14" max="14" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="15" max="15" width="24.109375" style="1" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:15">
-      <x:c r="A1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:15">
-      <x:c r="A2" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:15">
-      <x:c r="A3" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B3" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <selection activeCell="C1" sqref="C1 C1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.21875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="53.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="49" style="1" customWidth="1"/>
+    <col min="7" max="7" width="86.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="53.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18" style="1" customWidth="1"/>
+    <col min="12" max="12" width="75.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="56.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$17</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="133">
   <si>
     <t>No.</t>
   </si>
@@ -42,9 +45,6 @@
     <t>Position</t>
   </si>
   <si>
-    <t>Score</t>
-  </si>
-  <si>
     <t>Gap</t>
   </si>
   <si>
@@ -84,9 +84,6 @@
     <t>Business Analyst (Endur)</t>
   </si>
   <si>
-    <t>56%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Microsoft Excel, Analytical Skills, Business Analysis, Project Management, Banking, Team Player, MIS, </t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>Software Engineer</t>
   </si>
   <si>
-    <t>69%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Software Engineering, Python, C#, API, MIS, </t>
   </si>
   <si>
@@ -177,9 +171,6 @@
     <t>Business Analyst</t>
   </si>
   <si>
-    <t>75%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Listening Skills, Business Analysis, Agile Methodology, </t>
   </si>
   <si>
@@ -204,9 +195,6 @@
     <t>ITCAN PTE. LIMITED</t>
   </si>
   <si>
-    <t>50%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Microsoft Excel, Analytical Skills, Business Analysis, Information Technology, Project Management, Banking, Team Player, Business Process, </t>
   </si>
   <si>
@@ -243,9 +231,6 @@
     <t>BUSINESS ANALYST</t>
   </si>
   <si>
-    <t>53%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Microsoft Excel, Data Analysis, Business Analysis, Project Management, Banking, Business Process, Integration Testing, </t>
   </si>
   <si>
@@ -273,9 +258,6 @@
     <t>Business Analyst (IT)</t>
   </si>
   <si>
-    <t>47%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Producing, Troubleshooting, User Stories, Information Technology, Project Management, Banking, Presentation Skills, Team Player, </t>
   </si>
   <si>
@@ -297,9 +279,6 @@
     <t>Data Analyst | 12-Months Contract</t>
   </si>
   <si>
-    <t>70%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Critical Thinking, Presentation Skills, Data Analytics, </t>
   </si>
   <si>
@@ -439,6 +418,9 @@
   </si>
   <si>
     <t>$6,000 to $7,000 Monthly</t>
+  </si>
+  <si>
+    <t>Score (%)</t>
   </si>
 </sst>
 </file>
@@ -460,7 +442,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +452,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -506,6 +494,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,28 +804,28 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="C1" sqref="C1 C1"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:D1048576 I1:I1048576"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="23.44140625" style="5" customWidth="1"/>
     <col min="3" max="4" width="53.77734375" style="7" customWidth="1"/>
     <col min="5" max="5" width="18.5546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="49" style="5" customWidth="1"/>
     <col min="7" max="7" width="36" style="5" customWidth="1"/>
-    <col min="8" max="8" width="5.77734375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="53.77734375" style="7" customWidth="1"/>
     <col min="10" max="10" width="19.6640625" style="5" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" style="5" customWidth="1"/>
     <col min="12" max="12" width="41.88671875" style="5" customWidth="1"/>
     <col min="13" max="13" width="54.88671875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="5" customWidth="1"/>
     <col min="15" max="15" width="26.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -861,784 +852,787 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="H2" s="8">
+        <v>75</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="M2" s="5" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="8">
+        <v>71</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="8">
+        <v>70</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="L4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="N4" s="5" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="4">
+        <v>69</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="O5" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>52</v>
+        <v>120</v>
+      </c>
+      <c r="H6" s="4">
+        <v>69</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>61</v>
+        <v>19</v>
+      </c>
+      <c r="H7" s="4">
+        <v>56</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="L7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="O7" s="4" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="D8" s="7" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>61</v>
+        <v>38</v>
+      </c>
+      <c r="H8" s="4">
+        <v>56</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="M8" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="D9" s="7" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>74</v>
+        <v>38</v>
+      </c>
+      <c r="H9" s="4">
+        <v>56</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="J9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="M9" s="5" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>84</v>
+        <v>101</v>
+      </c>
+      <c r="H10" s="4">
+        <v>56</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="O10" s="4" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>92</v>
+        <v>48</v>
+      </c>
+      <c r="H11" s="4">
+        <v>56</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>94</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="4">
+        <v>53</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="4">
+        <v>50</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="E14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="4">
+        <v>50</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="K14" s="5" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>84</v>
+        <v>92</v>
+      </c>
+      <c r="H15" s="4">
+        <v>50</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>33</v>
+        <v>129</v>
+      </c>
+      <c r="H16" s="4">
+        <v>50</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O16" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="4">
+        <v>47</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="J17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="N17" s="5" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:O17">
+    <sortCondition descending="1" ref="H1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -1,108 +1,518 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <x:workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tay Hock Gek\Documents\UiPath\sct9-diamond-proj2\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proj\UiPath\SCT9_Diamond_Project2\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980090A4-079E-4091-8070-0C0F506BA13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <x:bookViews>
-    <x:workbookView xWindow="4800" yWindow="2810" windowWidth="14400" windowHeight="7270" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="0"/>
-</x:workbook>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9564" windowHeight="8340"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+  </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$17</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <x:si>
-    <x:t>No.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Filename</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Skills</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Komala BSA Resume.docx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inventory,Microsoft Office,PowerPoint,Power Point,Risk Management,User Acceptance Testing,UAT,Windows,.Net,Administration,Agile,Architect,Automation,Azure,Business Analyst,Business Requirements,C++,Confluence,Databases,Electrical,Electrical Engineering,ETL,Excel,IIS,Java,JavaScript,JIRA,JSON,Linux,Mac,MS Office,MS Project,Operating Systems,Oracle,Outlook,PL/SQL,Power BI,Property,Scrum,SDLC,Selenium,SharePoint,Software Development,SQL,Strategy,Tableau,Test Cases,Test Strategy,Usability,User Stories,XML</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RaviRaju_Resume.docx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inventory Management,Inventory,User Acceptance Testing,UAT,Windows,Administration,Agile,Architect,Business Analysis,Business Analyst,Business Intelligence,Business Requirements,Data Analysis,Data Quality,ETL,Excel,Hardware,IIS,IT Operations,ITIL,Java,JavaScript,JIRA,Linux,Network Architecture,Oracle,PMP,Power BI,Publishing,Python,SAP,Scripting,Scrum,SDLC,Servers,Service Desk,SQL,Tableau</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="133">
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Job Ref</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Gap</t>
+  </si>
+  <si>
+    <t>Emp Type</t>
+  </si>
+  <si>
+    <t>Job Level</t>
+  </si>
+  <si>
+    <t>Job Function</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Year Exp</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Komala BSA Resume.docx</t>
+  </si>
+  <si>
+    <t>Inventory,Microsoft Office,PowerPoint,Power Point,Risk Management,User Acceptance Testing,UAT,Windows,.Net,Administration,Agile,Architect,Automation,Azure,Business Analyst,Business Requirements,C++,Confluence,Databases,Electrical,Electrical Engineering,ETL,Excel,IIS,Java,JavaScript,JIRA,JSON,Linux,Mac,MS Office,MS Project,Operating Systems,Oracle,Outlook,PL/SQL,Power BI,Property,Scrum,SDLC,Selenium,SharePoint,Software Development,SQL,Strategy,Tableau,Test Cases,Test Strategy,Usability,User Stories,XML</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/business-analyst-tech-mahindra-2cd9db73aff974a23e2a51d7bbf65d18</t>
+  </si>
+  <si>
+    <t>MCF-2022-0327498</t>
+  </si>
+  <si>
+    <t>TECH MAHINDRA LIMITED (SINGAPORE BRANCH)</t>
+  </si>
+  <si>
+    <t>Business Analyst (Endur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Excel, Analytical Skills, Business Analysis, Project Management, Banking, Team Player, MIS, </t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>Senior Executive</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>17 CHANGI BUSINESS PARK CENTRAL 1 486073</t>
+  </si>
+  <si>
+    <t>5 years exp</t>
+  </si>
+  <si>
+    <t>$6,000 to $12,000 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/software-engineer-sandbox-consulting-380fc702f29bf361fd9c3fa883764c93</t>
+  </si>
+  <si>
+    <t>MCF-2022-0330815</t>
+  </si>
+  <si>
+    <t>SANDBOX CONSULTING PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Engineering, Python, C#, API, MIS, </t>
+  </si>
+  <si>
+    <t>Executive</t>
+  </si>
+  <si>
+    <t>Islandwide</t>
+  </si>
+  <si>
+    <t>$5,000 to $8,000 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/business-analyst-5-days-java-2894-supreme-hr-advisory-10d5ba240aff605fd8037f49d7e528e6</t>
+  </si>
+  <si>
+    <t>MCF-2022-0349265</t>
+  </si>
+  <si>
+    <t>THE SUPREME HR ADVISORY PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Business Analyst [5 days| Java] 2894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirements Gathering, Microsoft Excel, Business Analysis, Communication Skills, Banking, Web Applications, Team Player, </t>
+  </si>
+  <si>
+    <t>Junior Executive</t>
+  </si>
+  <si>
+    <t>1 year exp</t>
+  </si>
+  <si>
+    <t>$3,200 to $5,000 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/business-analyst-5-days-java-2894-supreme-hr-advisory-db990c4fb6d2960bd1c9d372c93c3f4a</t>
+  </si>
+  <si>
+    <t>MCF-2022-0342517</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/business-analyst-r-systems-consulting-services-e9ce8281ca24f0d22156f3344cd3f6a4</t>
+  </si>
+  <si>
+    <t>MCF-2022-0293058</t>
+  </si>
+  <si>
+    <t>R SYSTEMS CONSULTING SERVICES LIMITED</t>
+  </si>
+  <si>
+    <t>Business Analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listening Skills, Business Analysis, Agile Methodology, </t>
+  </si>
+  <si>
+    <t>Full Time</t>
+  </si>
+  <si>
+    <t>HOI HUP BUILDING, 16 JALAN KILANG 159416</t>
+  </si>
+  <si>
+    <t>2 years exp</t>
+  </si>
+  <si>
+    <t>$5,500 to $7,000 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/business-analyst-itcan-09ccaabff9477dce0acf9d5992654310</t>
+  </si>
+  <si>
+    <t>MCF-2022-0318397</t>
+  </si>
+  <si>
+    <t>ITCAN PTE. LIMITED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Excel, Analytical Skills, Business Analysis, Information Technology, Project Management, Banking, Team Player, Business Process, </t>
+  </si>
+  <si>
+    <t>Professional</t>
+  </si>
+  <si>
+    <t>6 years exp</t>
+  </si>
+  <si>
+    <t>$5,000 to $10,000 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/business-analyst-sandbox-consulting-935fffbc6d9014bf54fc7e8f2ffa6b2a</t>
+  </si>
+  <si>
+    <t>MCF-2022-0305844</t>
+  </si>
+  <si>
+    <t>8 years exp</t>
+  </si>
+  <si>
+    <t>$10,000 to $11,000 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/business-analyst-enterprise-advanced-system-intelligence-77cddd26fa52a3a2b93622cde4223df5</t>
+  </si>
+  <si>
+    <t>MCF-2022-0342409</t>
+  </si>
+  <si>
+    <t>ENTERPRISE ADVANCED SYSTEM INTELLIGENCE PTE. LTD.</t>
+  </si>
+  <si>
+    <t>BUSINESS ANALYST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Excel, Data Analysis, Business Analysis, Project Management, Banking, Business Process, Integration Testing, </t>
+  </si>
+  <si>
+    <t>ALJUNIED INDUSTRIAL COMPLEX, 623 ALJUNIED ROAD 389835</t>
+  </si>
+  <si>
+    <t>$3,000 to $4,500 Monthly</t>
+  </si>
+  <si>
+    <t>RaviRaju_Resume.docx</t>
+  </si>
+  <si>
+    <t>Inventory Management,Inventory,User Acceptance Testing,UAT,Windows,Administration,Agile,Architect,Business Analysis,Business Analyst,Business Intelligence,Business Requirements,Data Analysis,Data Quality,ETL,Excel,Hardware,IIS,IT Operations,ITIL,Java,JavaScript,JIRA,Linux,Network Architecture,Oracle,PMP,Power BI,Publishing,Python,SAP,Scripting,Scrum,SDLC,Servers,Service Desk,SQL,Tableau</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/business-analyst-y3-technologies-98d3f39904e47a37507b8f8bef69b560</t>
+  </si>
+  <si>
+    <t>MCF-2022-0204726</t>
+  </si>
+  <si>
+    <t>Y3 TECHNOLOGIES PTE LTD</t>
+  </si>
+  <si>
+    <t>Business Analyst (IT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Producing, Troubleshooting, User Stories, Information Technology, Project Management, Banking, Presentation Skills, Team Player, </t>
+  </si>
+  <si>
+    <t>8 BULIM AVENUE 648166</t>
+  </si>
+  <si>
+    <t>$3,000 to $4,000 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/data-analyst-12-months-contract-manpower-staffing-services-86e7378a6c82a896e6edae9c37d0fe06</t>
+  </si>
+  <si>
+    <t>MCF-2022-0337776</t>
+  </si>
+  <si>
+    <t>MANPOWER STAFFING SERVICES (SINGAPORE) PTE LTD</t>
+  </si>
+  <si>
+    <t>Data Analyst | 12-Months Contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critical Thinking, Presentation Skills, Data Analytics, </t>
+  </si>
+  <si>
+    <t>Contract</t>
+  </si>
+  <si>
+    <t>3 years exp</t>
+  </si>
+  <si>
+    <t>$4,000 to $4,500 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/project-support-executive-singapore-telecommunications-3425396f34f2ef1878d0570b3de04bdb</t>
+  </si>
+  <si>
+    <t>MCF-2022-0337665</t>
+  </si>
+  <si>
+    <t>SINGAPORE TELECOMMUNICATIONS LIMITED</t>
+  </si>
+  <si>
+    <t>Project and Support Executive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality Assurance, User Stories, Information Technology, Project Management, Team Player, Business Process, </t>
+  </si>
+  <si>
+    <t>Permanent, Full Time</t>
+  </si>
+  <si>
+    <t>Information Technology, Telecommunications</t>
+  </si>
+  <si>
+    <t>COMCENTRE, 31 EXETER ROAD 239732</t>
+  </si>
+  <si>
+    <t>$2,600 to $3,600 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/business-analyst-data-analytics-encora-technologies-a52ba7dcc109556bdfd869c682591f44</t>
+  </si>
+  <si>
+    <t>MCF-2022-0308712</t>
+  </si>
+  <si>
+    <t>ENCORA TECHNOLOGIES PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Business Analyst - Data Analytics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFRS, Microsoft Excel, System Design, Statistics, Data Warehousing, Data Visualization, MIS, </t>
+  </si>
+  <si>
+    <t>Information Technology, Insurance</t>
+  </si>
+  <si>
+    <t>$7,000 to $9,000 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/business-analyst-pan-united-corporation-023a2228f88c7ef3d22825514716121b</t>
+  </si>
+  <si>
+    <t>MCF-2022-0302714</t>
+  </si>
+  <si>
+    <t>PAN-UNITED CORPORATION LTD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Office, Microsoft Excel, Interpersonal Skills, Hyperion, Information Technology, System Design, Banking, </t>
+  </si>
+  <si>
+    <t>$2,500 to $4,500 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/business-analyst-xtremax-0a140f972dce37229a159211361f0e60</t>
+  </si>
+  <si>
+    <t>MCF-2022-0290474</t>
+  </si>
+  <si>
+    <t>XTREMAX PTE. LTD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Analyst </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Stories, Information Technology, Project Management, Communication Skills, Banking, Team Player, Business Process, Integration Testing, </t>
+  </si>
+  <si>
+    <t>CT HUB 2, 114 LAVENDER STREET 338729</t>
+  </si>
+  <si>
+    <t>$2,800 to $5,500 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/business-analyst-data-analytics-u3-infotech-12e8e07abcb54c0a425ba3df34a217de</t>
+  </si>
+  <si>
+    <t>MCF-2022-0285131</t>
+  </si>
+  <si>
+    <t>U3 INFOTECH PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Business Analyst - Data Analytics (016)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Intelligence Tools, Statistics, Data Warehousing, Data Visualization, </t>
+  </si>
+  <si>
+    <t>Contract, Full Time</t>
+  </si>
+  <si>
+    <t>KECK SENG TOWER, 133 CECIL STREET 069535</t>
+  </si>
+  <si>
+    <t>4 years exp</t>
+  </si>
+  <si>
+    <t>$6,000 to $9,000 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/data-business-analyst-r-systems-5fb45d888f2db3c812cb6ffb9c5d065f</t>
+  </si>
+  <si>
+    <t>MCF-2022-0281955</t>
+  </si>
+  <si>
+    <t>R SYSTEMS (SINGAPORE) PTE LIMITED</t>
+  </si>
+  <si>
+    <t>Data Business Analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warehousing, Microsoft Excel, PowerPoint, System Design, Business Intelligence Tools, Articulate, Data Analytics, Data Visualization, </t>
+  </si>
+  <si>
+    <t>$6,000 to $7,000 Monthly</t>
+  </si>
+  <si>
+    <t>Score (%)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="1" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="3">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="4">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+  </cellStyleXfs>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,74 +799,842 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr codeName="Sheet1">
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <x:pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
-      <x:selection activeCell="C1" sqref="C1 C1:C1"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.726562" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <x:cols>
-    <x:col min="1" max="1" width="4.089844" style="2" customWidth="1"/>
-    <x:col min="2" max="2" width="23.453125" style="2" customWidth="1"/>
-    <x:col min="3" max="4" width="53.816406" style="2" customWidth="1"/>
-    <x:col min="5" max="5" width="18.542969" style="2" customWidth="1"/>
-    <x:col min="6" max="6" width="49" style="2" customWidth="1"/>
-    <x:col min="7" max="7" width="36" style="2" customWidth="1"/>
-    <x:col min="8" max="8" width="5.816406" style="2" customWidth="1"/>
-    <x:col min="9" max="9" width="53.816406" style="2" customWidth="1"/>
-    <x:col min="10" max="10" width="19.632812" style="2" customWidth="1"/>
-    <x:col min="11" max="11" width="15.363281" style="2" customWidth="1"/>
-    <x:col min="12" max="12" width="41.90625" style="2" customWidth="1"/>
-    <x:col min="13" max="13" width="54.90625" style="2" customWidth="1"/>
-    <x:col min="14" max="14" width="10.90625" style="2" customWidth="1"/>
-    <x:col min="15" max="15" width="26.363281" style="2" customWidth="1"/>
-    <x:col min="16" max="16384" width="8.726562" style="2" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:16">
-      <x:c r="A1" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:16">
-      <x:c r="A2" s="2" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B2" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:16">
-      <x:c r="A3" s="2" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozenSplit"/>
+      <selection activeCell="C1" sqref="C1 C1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="53.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="53.77734375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="54.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="8">
+        <v>75</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="8">
+        <v>70</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1">
+        <v>69</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="1">
+        <v>69</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="1">
+        <v>56</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="1">
+        <v>56</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="1">
+        <v>56</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="1">
+        <v>56</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="1">
+        <v>56</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="1">
+        <v>53</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="1">
+        <v>50</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="1">
+        <v>50</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="1">
+        <v>50</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" s="1">
+        <v>50</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="1">
+        <v>47</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="1">
+        <v>47</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:O17"/>
+  <sortState ref="A1:O17">
+    <sortCondition descending="1" ref="H1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -2,22 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proj\UiPath\SCT9_Diamond_Project2\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9564" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$17</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -45,6 +50,9 @@
     <t>Position</t>
   </si>
   <si>
+    <t>Score (%)</t>
+  </si>
+  <si>
     <t>Gap</t>
   </si>
   <si>
@@ -418,9 +426,6 @@
   </si>
   <si>
     <t>$6,000 to $7,000 Monthly</t>
-  </si>
-  <si>
-    <t>Score (%)</t>
   </si>
 </sst>
 </file>
@@ -430,16 +435,18 @@
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -472,30 +479,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -526,44 +533,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -590,14 +597,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -624,6 +632,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -635,166 +644,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -803,37 +788,33 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozenSplit"/>
-      <selection activeCell="C1" sqref="C1 C1"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="53.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="9" width="53.77734375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="54.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="53.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.77734375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -842,799 +823,798 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>132</v>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="7"/>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>48</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="H2" s="8">
         <v>75</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="K2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="5" t="s">
         <v>53</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="C3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>84</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="H3" s="8">
         <v>70</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="J3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="L3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>88</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="1">
+      <c r="G4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="4">
         <v>69</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="I4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="J4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="1" t="s">
+      <c r="L4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>34</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="1">
+      <c r="G5" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="4">
         <v>69</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="I5" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="J5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="N5" s="2" t="s">
+      <c r="L5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="N5" s="5" t="s">
         <v>125</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="1">
+      <c r="G6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="4">
         <v>56</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="I6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="K6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="L6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="M6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="N6" s="5" t="s">
         <v>26</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="1">
+      <c r="G7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="4">
         <v>56</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="I7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="2" t="s">
+      <c r="J7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="L7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>42</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="4">
+        <v>56</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="1">
-        <v>56</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="C9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="1">
+      <c r="G9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="4">
         <v>56</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="2" t="s">
+      <c r="I9" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="1" t="s">
+      <c r="J9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>104</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="C10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="F10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="4">
         <v>56</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="2" t="s">
+      <c r="I10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>109</v>
+      <c r="L10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="C11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="1">
+      <c r="G11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="4">
         <v>53</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="2" t="s">
+      <c r="I11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O11" s="1" t="s">
+      <c r="J11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="5" t="s">
         <v>71</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <v>6</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="F12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="4">
         <v>50</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="I12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="2" t="s">
+      <c r="J12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="L12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>60</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <v>7</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="C13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="E13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="4">
         <v>50</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="I13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="K13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O13" s="1" t="s">
+      <c r="L13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="5" t="s">
         <v>64</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="C14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="1">
+      <c r="G14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="4">
         <v>50</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J14" s="2" t="s">
+      <c r="I14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="2" t="s">
+      <c r="J14" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="K14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="1" t="s">
+      <c r="M14" s="5" t="s">
         <v>97</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <v>16</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="C15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="F15" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H15" s="1">
+      <c r="G15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="4">
         <v>50</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="O15" s="1" t="s">
+      <c r="I15" s="7" t="s">
         <v>131</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <v>9</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="E16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="F16" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="1">
+      <c r="G16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="4">
         <v>47</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="2" t="s">
+      <c r="I16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O16" s="1" t="s">
+      <c r="J16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="5" t="s">
         <v>80</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="C17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="E17" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="F17" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H17" s="1">
+      <c r="G17" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="4">
         <v>47</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="2" t="s">
+      <c r="I17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O17" s="1" t="s">
+      <c r="J17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="5" t="s">
         <v>116</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O17"/>
   <sortState ref="A1:O17">
     <sortCondition descending="1" ref="H1"/>
   </sortState>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t>No.</t>
   </si>
@@ -80,22 +80,22 @@
     <t>Architect,Business Analyst,CSS,Database,HTML,Java,JavaScript,Linux,Oracle,PL/SQL,Servers,Software Development,SQL,UML,Web Service,XML</t>
   </si>
   <si>
-    <t>https://www.mycareersfuture.gov.sg/job/information-technology/software-engineer-ufinity-358562641e0c3590533e71f4cfa9e39f</t>
-  </si>
-  <si>
-    <t>MCF-2022-0321920</t>
-  </si>
-  <si>
-    <t>UFINITY PTE LTD</t>
-  </si>
-  <si>
-    <t>Software Engineer (Java)</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information Technology, Software Design, Web Development, </t>
+    <t>https://www.mycareersfuture.gov.sg/job/banking-finance/j2ee-software-engineer-avallis-financial-2db445776e740e24ad67b1acc8fd91ca</t>
+  </si>
+  <si>
+    <t>MCF-2022-0341338</t>
+  </si>
+  <si>
+    <t>AVALLIS FINANCIAL PTE. LTD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J2EE Software Engineer (Financial Applications)  </t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVC, JSON, Rollout, Scripting, HTML5, UI, Maven, Core Java, Hibernate, </t>
   </si>
   <si>
     <t>Permanent, Full Time</t>
@@ -104,46 +104,52 @@
     <t>Executive</t>
   </si>
   <si>
+    <t>Banking and Finance, Information Technology</t>
+  </si>
+  <si>
+    <t>CLIFFORD CENTRE, 24 RAFFLES PLACE 048621</t>
+  </si>
+  <si>
+    <t>4 years exp</t>
+  </si>
+  <si>
+    <t>$3,500 to $5,500 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/software-back-end-developer-vyom-labs-singapore-af3cb9dfbc428a9e99da4a47842bedc2</t>
+  </si>
+  <si>
+    <t>MCF-2022-0303340</t>
+  </si>
+  <si>
+    <t>VYOM LABS SINGAPORE PTE. LTD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Back End Developer  </t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASPNet, Web Services, PHP, HTML5, Research and Development, SharePoint, SQL Server, Ansible, API, C++, </t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>Senior Executive</t>
+  </si>
+  <si>
     <t>Information Technology</t>
   </si>
   <si>
-    <t>21 UBI ROAD 1 408724</t>
-  </si>
-  <si>
-    <t>1 year exp</t>
-  </si>
-  <si>
-    <t>$3,900 to $5,000 Monthly</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/information-technology/software-developer-genesis-networks-36eb999885686de85b36fbdaed179405</t>
-  </si>
-  <si>
-    <t>MCF-2022-0365569</t>
-  </si>
-  <si>
-    <t>GENESIS NETWORKS PTE LTD</t>
-  </si>
-  <si>
-    <t>Software Developer</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web Services, PHP, .NET, Agile Development, </t>
-  </si>
-  <si>
-    <t>Junior Executive</t>
-  </si>
-  <si>
-    <t>2 KAKI BUKIT AVENUE 1 417938</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>$2,800 to $3,300 Monthly</t>
+    <t>Islandwide</t>
+  </si>
+  <si>
+    <t>$4,000 to $6,000 Monthly</t>
+  </si>
+  <si>
+    <t>Balakrishna_1_1.docx</t>
   </si>
 </sst>
 </file>
@@ -167,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,12 +183,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -199,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -220,9 +220,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,7 +502,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H1048576"/>
@@ -514,18 +511,18 @@
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19" style="6" customWidth="1"/>
     <col min="3" max="4" width="53.77734375" style="8" customWidth="1"/>
     <col min="5" max="5" width="17.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="29.109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="40.6640625" style="6" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="5" customWidth="1"/>
     <col min="9" max="9" width="53.77734375" style="8" customWidth="1"/>
     <col min="10" max="10" width="18.21875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.21875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="20.77734375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="27.21875" style="6" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="38.6640625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="38.88671875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" style="6" customWidth="1"/>
     <col min="15" max="15" width="22.109375" style="5" customWidth="1"/>
     <col min="16" max="16" width="8.88671875" style="1" customWidth="1"/>
     <col min="17" max="16384" width="8.88671875" style="1"/>
@@ -579,7 +576,7 @@
       </c>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -601,7 +598,7 @@
       <c r="G2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="8" t="s">
@@ -628,54 +625,148 @@
     </row>
     <row r="3" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>25</v>
       </c>
       <c r="M3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="M4" s="6" t="s">
         <v>38</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O3"/>
-  <sortState ref="A1:O3">
+  <autoFilter ref="A1:O5"/>
+  <sortState ref="A1:O5">
     <sortCondition descending="1" ref="H1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>No.</t>
   </si>
@@ -78,78 +78,6 @@
   </si>
   <si>
     <t>Architect,Business Analyst,CSS,Database,HTML,Java,JavaScript,Linux,Oracle,PL/SQL,Servers,Software Development,SQL,UML,Web Service,XML</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/banking-finance/j2ee-software-engineer-avallis-financial-2db445776e740e24ad67b1acc8fd91ca</t>
-  </si>
-  <si>
-    <t>MCF-2022-0341338</t>
-  </si>
-  <si>
-    <t>AVALLIS FINANCIAL PTE. LTD.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J2EE Software Engineer (Financial Applications)  </t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MVC, JSON, Rollout, Scripting, HTML5, UI, Maven, Core Java, Hibernate, </t>
-  </si>
-  <si>
-    <t>Permanent, Full Time</t>
-  </si>
-  <si>
-    <t>Executive</t>
-  </si>
-  <si>
-    <t>Banking and Finance, Information Technology</t>
-  </si>
-  <si>
-    <t>CLIFFORD CENTRE, 24 RAFFLES PLACE 048621</t>
-  </si>
-  <si>
-    <t>4 years exp</t>
-  </si>
-  <si>
-    <t>$3,500 to $5,500 Monthly</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/information-technology/software-back-end-developer-vyom-labs-singapore-af3cb9dfbc428a9e99da4a47842bedc2</t>
-  </si>
-  <si>
-    <t>MCF-2022-0303340</t>
-  </si>
-  <si>
-    <t>VYOM LABS SINGAPORE PTE. LTD.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Back End Developer  </t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASPNet, Web Services, PHP, HTML5, Research and Development, SharePoint, SQL Server, Ansible, API, C++, </t>
-  </si>
-  <si>
-    <t>Permanent</t>
-  </si>
-  <si>
-    <t>Senior Executive</t>
-  </si>
-  <si>
-    <t>Information Technology</t>
-  </si>
-  <si>
-    <t>Islandwide</t>
-  </si>
-  <si>
-    <t>$4,000 to $6,000 Monthly</t>
-  </si>
-  <si>
-    <t>Balakrishna_1_1.docx</t>
   </si>
 </sst>
 </file>
@@ -502,10 +430,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,186 +514,9 @@
       <c r="C2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>39</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O5"/>
+  <autoFilter ref="A1:O2"/>
   <sortState ref="A1:O5">
     <sortCondition descending="1" ref="H1"/>
   </sortState>

--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proj\UiPath\SCT9_Diamond_Project2\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\UiPath\sct9-diamond-proj2\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120542E0-ABA0-4723-8F6E-BB3A7A54E211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
+    <workbookView xWindow="340" yWindow="200" windowWidth="9280" windowHeight="10000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$45</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="275">
   <si>
     <t>No.</t>
   </si>
@@ -74,502 +75,790 @@
     <t>Salary</t>
   </si>
   <si>
-    <t>Balakrishna_1.docx</t>
-  </si>
-  <si>
-    <t>Architect,Business Analyst,CSS,Database,HTML,Java,JavaScript,Linux,Oracle,PL/SQL,Servers,Software Development,SQL,UML,Web Service,XML</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/information-technology/ascentis-full-stack-application-developer-ascentis-6e230beade6caea50e3b12e47bf1dee5</t>
-  </si>
-  <si>
-    <t>MCF-2022-0320375</t>
-  </si>
-  <si>
-    <t>HYPERSCAL SOLUTIONS PTE. LTD.</t>
-  </si>
-  <si>
-    <t>Ascentis - Full Stack Application Developer</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#.NET, MySQL, Microsoft Visual Studio C++, </t>
-  </si>
-  <si>
-    <t>Contract, Full Time</t>
+    <t>CV MJH-Exec Admin -mpa gov -211117.pdf</t>
+  </si>
+  <si>
+    <t>Administration,Adobe Acrobat,Analytical Skills,Communication,Critical Thinking,English,ERP,Excel,Leadership,Marketing,Microsoft Excel,Microsoft Office,Outlook,Power Point,Product Development,Microsoft Word</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/admin/operations-executive-giveplease-4ef80b95a5b160793667344e5b3d8e8c</t>
+  </si>
+  <si>
+    <t>MCF-2022-0376136</t>
+  </si>
+  <si>
+    <t>GIVEPLEASE PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Operations Executive</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Marketing, Fundraising, Pressure, Team Player, Customer Service, KYC, Facilitation, Shipping, </t>
+  </si>
+  <si>
+    <t>Full Time</t>
   </si>
   <si>
     <t>Executive</t>
   </si>
   <si>
-    <t>Information Technology</t>
-  </si>
-  <si>
-    <t>3015A UBI ROAD 1 408705</t>
+    <t>Admin / Secretarial, Customer Service, General Management, Information Technology, Logistics / Supply Chain</t>
+  </si>
+  <si>
+    <t>WATERLOO CENTRE, 261 WATERLOO STREET 180261</t>
+  </si>
+  <si>
+    <t>3 years exp</t>
+  </si>
+  <si>
+    <t>$2,400 to $2,700 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/regional-product-manager-theexecutivecircle-asia-pacific-44321ae81bc0cc36338bff3843c1424b</t>
+  </si>
+  <si>
+    <t>MCF-2022-0376177</t>
+  </si>
+  <si>
+    <t>THEEXECUTIVECIRCLE ASIA PACIFIC PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Regional Product Manager (Consumer Electronics / Computers / IT Peripherals)</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market Research, Competitive Analysis, Forecasting, Product Marketing, Change Management, Inventory, Marketing Strategy, Supply Chain, Strategy, B2B, Product Management, Project Management, Attention to Detail, Pricing, Electronics, </t>
+  </si>
+  <si>
+    <t>Permanent, Full Time</t>
+  </si>
+  <si>
+    <t>Information Technology, Marketing / Public Relations, Sales / Retail</t>
+  </si>
+  <si>
+    <t>MOUNTBATTEN SQUARE, 229 MOUNTBATTEN ROAD 398007</t>
   </si>
   <si>
     <t>2 years exp</t>
   </si>
   <si>
-    <t>$4,000 to $8,000 Monthly</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/information-technology/software-test-engineer-changi-beyondsoft-international-7d98b45eb810b8cb1cea051b0a87fe0f</t>
-  </si>
-  <si>
-    <t>MCF-2022-0355611</t>
-  </si>
-  <si>
-    <t>Software Test Engineer - Changi</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Engineering, MySQL, Microsoft Visual Studio C++, Application programming, </t>
-  </si>
-  <si>
-    <t>Full Time</t>
+    <t>$3,500 to $4,500 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/engineering/project-manager-array-engineering-facilities-management-3a1a72a5143ae2cf2b5ef22d79900fd4</t>
+  </si>
+  <si>
+    <t>MCF-2022-0306373</t>
+  </si>
+  <si>
+    <t>ARRAY ENGINEERING &amp; FACILITIES MANAGEMENT PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategic Planning, Management Skills, Budgets, Construction, Project Planning, Strategy, Procurement, Project Management, Pressure, Communication Skills, Team Player, Scheduling, Facilities Management, Technical Support, </t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Islandwide</t>
+  </si>
+  <si>
+    <t>5 years exp</t>
+  </si>
+  <si>
+    <t>$4,500 to $5,800 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/admin/administrator-adler-3652f6416eab59a324ee7030c107fe54</t>
+  </si>
+  <si>
+    <t>MCF-2022-0376194</t>
+  </si>
+  <si>
+    <t>AT ADLER</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft PowerPoint, Troubleshooting, Well Organised, Data Entry, Office Administration, Financial Statements, Time Management skills, Administrative Support, Team Player, </t>
+  </si>
+  <si>
+    <t>Permanent</t>
   </si>
   <si>
     <t>Non-executive</t>
   </si>
   <si>
-    <t>Information Technology, Others</t>
-  </si>
-  <si>
-    <t>3 DEPOT CLOSE 109840</t>
-  </si>
-  <si>
-    <t>3 years exp</t>
-  </si>
-  <si>
-    <t>$3,500 to $5,000 Monthly</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/information-technology/software-engineer-sita-information-networking-computing-0634cbec98463e8287fed653082527c4</t>
-  </si>
-  <si>
-    <t>MCF-2022-0358111</t>
-  </si>
-  <si>
-    <t>SITA INFORMATION NETWORKING COMPUTING (ASIA PACIFIC) PTE LTD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Engineer </t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web Services, Scrum, REST, Software Engineering, SQL Server, Windows, Continuous Integration, Angular, API, Hibernate, </t>
+    <t>Admin / Secretarial</t>
+  </si>
+  <si>
+    <t>ROBINSON 112, 112 ROBINSON ROAD 068902</t>
+  </si>
+  <si>
+    <t>$2,500 to $3,600 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/admin/office-administrator-skyral-corporation-93f40f1f28b03cf40064d9cb8c29da49</t>
+  </si>
+  <si>
+    <t>MCF-2022-0376165</t>
+  </si>
+  <si>
+    <t>SKYRAL CORPORATION PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Office Administrator</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent Communication Skills, Travel Arrangements, Office Management, Office Administration, Word Processing, Bookkeeping, Administrative Support, </t>
+  </si>
+  <si>
+    <t>GOLDEN WHEEL BUILDING, 41 KALLANG PUDDING ROAD 349316</t>
+  </si>
+  <si>
+    <t>$3,600 to $4,500 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/sales/sales-senior-executive-assistant-manager-manager-times-publishing-3c4a002fecda82da5d6307875ad5e9e5</t>
+  </si>
+  <si>
+    <t>MCF-2022-0376220</t>
+  </si>
+  <si>
+    <t>TIMES PUBLISHING LIMITED</t>
+  </si>
+  <si>
+    <t>Sales Senior Executive /  Assistant Manager /  Manager</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account Management, Budgets, Travel Arrangements, Business Acumen, Selling, Packaging, Selling Skills, Offset Printing, Team Player, Direct Marketing, </t>
+  </si>
+  <si>
+    <t>Sales / Retail</t>
+  </si>
+  <si>
+    <t>$2,000 to $4,000 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/admin/administrative-assistant-exasoft-3a22f0c91ff807a1eb672410f86c0247</t>
+  </si>
+  <si>
+    <t>MCF-2022-0376126</t>
+  </si>
+  <si>
+    <t>EXASOFT PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Administrative Assistant (Software Company)</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to Multitask, Microsoft PowerPoint, Travel Arrangements, Office Management, Data Entry, PMO, SharePoint, MS Word, Good Communication Skills, Attention to Detail, Administrative Support, </t>
+  </si>
+  <si>
+    <t>Contract</t>
+  </si>
+  <si>
+    <t>1 year exp</t>
+  </si>
+  <si>
+    <t>$2,000 to $2,300 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/admin/sales-support-officer-4769-supreme-hr-advisory-c380ebede709fdee9d427b6e812221fb</t>
+  </si>
+  <si>
+    <t>MCF-2022-0376236</t>
+  </si>
+  <si>
+    <t>THE SUPREME HR ADVISORY PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Sales Support Officer ( Indoor ) - 4769</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire Safety, Excellent Communication Skills, Sales, Referrals, Troubleshooting, Employee Communication, Hardware, Literacy, Legislation, Written Skills, Customer Service, Sourcing, </t>
   </si>
   <si>
     <t>Junior Executive</t>
   </si>
   <si>
-    <t>11 LOYANG WAY 508723</t>
-  </si>
-  <si>
-    <t>$5,000 to $5,500 Monthly</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/information-technology/senior-software-engineer-akribis-systems-695a3432a9ee50e43d973c1f7cc36996</t>
-  </si>
-  <si>
-    <t>MCF-2022-0341733</t>
-  </si>
-  <si>
-    <t>Senior  /  Software Engineer</t>
-  </si>
-  <si>
-    <t>5012 ANG MO KIO AVENUE 5 569876</t>
-  </si>
-  <si>
-    <t>1 year exp</t>
-  </si>
-  <si>
-    <t>$4,000 to $7,000 Monthly</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/information-technology/software-engineer-akribis-systems-1a7b6e3bea6a7644a49ffd83ace37e3d</t>
-  </si>
-  <si>
-    <t>MCF-2022-0341569</t>
-  </si>
-  <si>
-    <t>Software Engineer</t>
-  </si>
-  <si>
-    <t>$3,000 to $6,000 Monthly</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/general-work/application-engineer-akribis-systems-62aa07b369aa04c356422a965445641c</t>
-  </si>
-  <si>
-    <t>MCF-2022-0341566</t>
-  </si>
-  <si>
-    <t>Application Engineer</t>
-  </si>
-  <si>
-    <t>General Work, Information Technology</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/information-technology/software-engineer-ufinity-358562641e0c3590533e71f4cfa9e39f</t>
-  </si>
-  <si>
-    <t>MCF-2022-0321920</t>
-  </si>
-  <si>
-    <t>UFINITY PTE LTD</t>
-  </si>
-  <si>
-    <t>Software Engineer (Java)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSS, Information Technology, Software Design, Web Development, </t>
-  </si>
-  <si>
-    <t>Permanent, Full Time</t>
-  </si>
-  <si>
-    <t>21 UBI ROAD 1 408724</t>
-  </si>
-  <si>
-    <t>$3,900 to $5,000 Monthly</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/banking-finance/graduate-production-management-analyst-m-three-corporate-consulting-singapore-54a8fc0887fc806e9f765184ee9114c8</t>
-  </si>
-  <si>
-    <t>MCF-2022-0307542</t>
-  </si>
-  <si>
-    <t>M THREE CORPORATE CONSULTING SINGAPORE PTE. LIMITED</t>
-  </si>
-  <si>
-    <t>Graduate Production Management Analyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REST, MySQL, Information Technology, Python, </t>
+    <t>Admin / Secretarial, Customer Service</t>
+  </si>
+  <si>
+    <t>$2,500 to $3,200 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/admin/front-desk-st-andrews-dental-d7ee75cc34f1a477972ddf2a84349f16</t>
+  </si>
+  <si>
+    <t>MCF-2022-0376198</t>
+  </si>
+  <si>
+    <t>ST. ANDREW'S DENTAL PTE. LTD.</t>
+  </si>
+  <si>
+    <t>FRONT DESK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front Office, Customer Service Oriented, Claims Handling, Housekeeping, Good Communication Skills, Communication Skills, Administrative Support, Customer Service, Able To Work Independently, </t>
+  </si>
+  <si>
+    <t>Admin / Secretarial, Customer Service, Healthcare / Pharmaceutical</t>
+  </si>
+  <si>
+    <t>100 AM, 100 TRAS STREET 079027</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>$2,300 to $2,800 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/food-and-beverage/management-trainee-pentagon-h-baf72829c0f2fefd52120f8adb989e2a</t>
+  </si>
+  <si>
+    <t>MCF-2022-0376226</t>
+  </si>
+  <si>
+    <t>PENTAGON H PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Management Trainee</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft PowerPoint, Quality Control, Restaurants, Housekeeping, Interpersonal Skills, Inventory, Compliance, Cashiering, Team Player, Customer Service, Cocktails, Hospitality, </t>
+  </si>
+  <si>
+    <t>F&amp;B</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/admin/hr-admin-executive-recruiters-39b14c50ea75b260db73b5b372b82dd2</t>
+  </si>
+  <si>
+    <t>MCF-2022-0376218</t>
+  </si>
+  <si>
+    <t>OUR RECRUITERS LLP</t>
+  </si>
+  <si>
+    <t>HR &amp; Admin Executive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft PowerPoint, Construction, Recruiting, Payroll, Office Administration, Good Communication Skills, Human Resource, Administrative Support, Team Player, Human Resources, Screening, Sourcing, </t>
+  </si>
+  <si>
+    <t>Admin / Secretarial, Building and Construction, Consulting, General Management, Human Resources</t>
+  </si>
+  <si>
+    <t>BURLINGTON SQUARE, 175A BENCOOLEN STREET 189650</t>
+  </si>
+  <si>
+    <t>$3,500 to $5,500 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/logistics/operations-officer-changi-airline-rd-airfreight-3770-supreme-hr-advisory-c54e91e5657643bda48fa7c3338b2c1b</t>
+  </si>
+  <si>
+    <t>MCF-2022-0376255</t>
+  </si>
+  <si>
+    <t>Operations Officer - Changi Airline Rd  /  Airfreight [3770]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front Office, Vocal, Interpersonal Skills, Inventory, Securities, Good Communication Skills, Freight, Banking, Team Player, Shipping, Able To Work Independently, </t>
+  </si>
+  <si>
+    <t>Logistics / Supply Chain</t>
+  </si>
+  <si>
+    <t>$2,300 to $2,500 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/banking-finance/sales-executive-veltiston-group-cf8e80a76b0160ac926e2a9f9cde2287</t>
+  </si>
+  <si>
+    <t>MCF-2022-0373770</t>
+  </si>
+  <si>
+    <t>VELTISTON GROUP</t>
+  </si>
+  <si>
+    <t>Sales Executive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negotiation, Wealth Management, Sales, Interpersonal Skills, Cold Calling, Selling, B2B, Networking, Customer Satisfaction, Team Player, Customer Service, Business Development, </t>
+  </si>
+  <si>
+    <t>Banking and Finance, Consulting, Customer Service, Marketing / Public Relations, Sales / Retail</t>
+  </si>
+  <si>
+    <t>$2,500 to $6,000 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/admin/admin-operation-officer-bs-capital-de3d387f5cf9c1ce31ce8d3818437711</t>
+  </si>
+  <si>
+    <t>MCF-2022-0241722</t>
+  </si>
+  <si>
+    <t>BS CAPITAL PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Admin / Operation Officer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary Education, Payroll, Vehicles, Data Entry, MS Office, PowerPoint, SharePoint, Compliance, Good Communication Skills, Administrative Support, Team Player, </t>
+  </si>
+  <si>
+    <t>Admin / Secretarial, Customer Service, General Work, Others</t>
+  </si>
+  <si>
+    <t>$2,000 to $2,200 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/accounting/accounts-assistant-yong-wen-food-8cc7b383c0ef55760bb19259a495f414</t>
+  </si>
+  <si>
+    <t>MCF-2022-0376179</t>
+  </si>
+  <si>
+    <t>YONG WEN FOOD (S) PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Accounts Assistant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accounts Payable, Interpersonal Skills, Tax, Accounting System, Data Entry, Bank Reconciliation, Accounts Receivable, Accounting, Cash Flow, Audit, Able To Work Independently, </t>
+  </si>
+  <si>
+    <t>Accounting / Auditing / Taxation</t>
+  </si>
+  <si>
+    <t>11 THIRD CHIN BEE ROAD 618687</t>
+  </si>
+  <si>
+    <t>$2,000 to $2,500 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/human-resources/human-resource-cum-admin-executive-woodlands-4769-supreme-hr-advisory-83e3bf8e2df3091fabbbeb366aa10f9c</t>
+  </si>
+  <si>
+    <t>MCF-2022-0376272</t>
+  </si>
+  <si>
+    <t>Human Resource cum Admin Executive  /  Woodlands  - 4769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRAs, Payroll, Hotel Booking, Accounting System, MS Office, Office Administration, SAP, HR Policies, Human Resource, Administrative Support, Human Resources, Legal Compliance, </t>
+  </si>
+  <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t>$2,800 to $3,500 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/logistics/warehouse-logistics-assistant-sgunitedjobs-jaa-enterprise-677c27cb33ea24d81b423819d3d9a8fa</t>
+  </si>
+  <si>
+    <t>MCF-2022-0376254</t>
+  </si>
+  <si>
+    <t>JAA ENTERPRISE</t>
+  </si>
+  <si>
+    <t>Warehouse  /  Logistics Assistant #SGUnitedJobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOPs, Change Management, Ability To Work Independently, Housekeeping, Logistics, Training, Able To Work Independently, Always On Time, </t>
+  </si>
+  <si>
+    <t>$1,800 to $2,000 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/building-construction/assistant-engineer-v-top-03ed2917f3ed86b310a83f95e36cf140</t>
+  </si>
+  <si>
+    <t>MCF-2022-0376237</t>
+  </si>
+  <si>
+    <t>V-TOP PTE. LTD.</t>
+  </si>
+  <si>
+    <t>ASSISTANT ENGINEER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction, BIM, Drawing, Electrical, PowerPoint, AutoCAD, CAD, Electronics, </t>
+  </si>
+  <si>
+    <t>Building and Construction</t>
+  </si>
+  <si>
+    <t>EUNOS INDUSTRIAL ESTATE, 1002 EUNOS AVENUE 8 409497</t>
+  </si>
+  <si>
+    <t>$2,500 to $3,000 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/sales/senior-executive-indoor-sales-sales-support-hitachi-transport-system-09062b88a5a2d2a24914f9dc795dcf4f</t>
+  </si>
+  <si>
+    <t>MCF-2022-0376192</t>
+  </si>
+  <si>
+    <t>HITACHI TRANSPORT SYSTEM (ASIA) PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Senior Executive, Indoor Sales &amp; Sales Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negotiation, Sales, Customer Information, Selling, INCO terms, Freight, Networking, Communication Skills, Internal Audit, Team Player, Customer Service, Business Development, </t>
+  </si>
+  <si>
+    <t>Senior Executive</t>
+  </si>
+  <si>
+    <t>8 CHANGI SOUTH STREET 3 486399</t>
+  </si>
+  <si>
+    <t>$2,800 to $3,200 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/customer-service/operation-executive-manager-one-excel-484b42420ceac762befacddcc4eb6314</t>
+  </si>
+  <si>
+    <t>MCF-2022-0376138</t>
+  </si>
+  <si>
+    <t>ONE EXCEL PTE. LTD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operation Executive / Manager (Pub) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licensing, Interpersonal Skills, Inventory, Restaurant Management, Public Relations, Administrative Support, Team Player, Customer Service, Directing, Shipping, Customer Relations, Able To Work Independently, </t>
+  </si>
+  <si>
+    <t>Customer Service, General Management, Sales / Retail</t>
+  </si>
+  <si>
+    <t>61A BOAT QUAY 049849</t>
+  </si>
+  <si>
+    <t>$2,200 to $2,800 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/real-estate/executive-senior-executive-facilities-straits-retail-property-management-services-f6c89211e6bf3a43e45250b9550f4723</t>
+  </si>
+  <si>
+    <t>MCF-2022-0376250</t>
+  </si>
+  <si>
+    <t>STRAITS RETAIL PROPERTY MANAGEMENT SERVICES PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Executive /  Senior Executive, Facilities</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire Safety, Microsoft PowerPoint, Preventive Maintenance, Property Management, Interpersonal Skills, Tenant, Electrical, Building Services, Compliance, Team Player, Electrical Engineering, Able To Work Independently, Facilities Management, </t>
+  </si>
+  <si>
+    <t>Real Estate / Property Management</t>
+  </si>
+  <si>
+    <t>The Clementi Mall, 3155 Commonwealth Ave W 129588</t>
+  </si>
+  <si>
+    <t>$3,000 to $4,200 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/admin/tcm-front-desk-executive-care-area-f08fadbed26cbc4344dd18fb5c30b91a</t>
+  </si>
+  <si>
+    <t>MCF-2022-0376146</t>
+  </si>
+  <si>
+    <t>THE CARE AREA</t>
+  </si>
+  <si>
+    <t>TCM Front Desk Executive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front Office, Customer Service Oriented, Able To Multitask, Troubleshooting, Interpersonal Skills, Inventory, Healthcare, Medicine, Musculoskeletal, Customer Service, Scheduling, Customer Services, Able To Work Independently, </t>
+  </si>
+  <si>
+    <t>Admin / Secretarial, Medical / Therapy Services, Telecommunications</t>
+  </si>
+  <si>
+    <t>THE ADELPHI, 1 COLEMAN STREET 179803</t>
+  </si>
+  <si>
+    <t>Exec-MJH-210611.docx</t>
+  </si>
+  <si>
+    <t>Adobe Acrobat,Analytical Skills,Communication,Critical Thinking,English,ERP,Excel,Leadership,Marketing,Microsoft Excel,Microsoft Office,Outlook,People Management,Power Point,Sales,Scheduling,Microsoft Word</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/customer-service/restaurant-general-manager-lolla-e85d025154ef78a3763e949d0f2e999b</t>
+  </si>
+  <si>
+    <t>MCF-2022-0376174</t>
+  </si>
+  <si>
+    <t>LOLLA PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Restaurant General Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Management Skills, Customer Experience Management, Financial Management, Literacy, Inventory, Recruiting, Counseling, Fine Dining, Restaurant Management, Event Planning, Wine, Business Development, Hospitality, </t>
+  </si>
+  <si>
+    <t>Senior Management</t>
+  </si>
+  <si>
+    <t>Customer Service, F&amp;B, General Management, Hospitality, Marketing / Public Relations</t>
+  </si>
+  <si>
+    <t>PAYA LEBAR SQUARE, 60 PAYA LEBAR ROAD 409051</t>
+  </si>
+  <si>
+    <t>10 years exp</t>
+  </si>
+  <si>
+    <t>$5,000 to $7,000 Monthly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire Safety, Excellent Communication Skills, Referrals, Troubleshooting, Employee Communication, Hardware, Literacy, Legislation, Administration, Written Skills, Customer Service, Sourcing, </t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/wholesale-trade/operation-intern-itg-resources-27c9b9b7de836cbc80cbadb4d67ce35c</t>
+  </si>
+  <si>
+    <t>MCF-2022-0360139</t>
+  </si>
+  <si>
+    <t>ITG RESOURCES (SINGAPORE) PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Operation Intern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to Multitask, Charter, Microsoft PowerPoint, Advertising, Data Analysis, Interpersonal Skills, Inventory, Administration, Strategy, Banking, Team Player, </t>
+  </si>
+  <si>
+    <t>Internship/Attachment</t>
   </si>
   <si>
     <t>Fresh/entry level</t>
   </si>
   <si>
-    <t>Banking and Finance, Information Technology</t>
-  </si>
-  <si>
-    <t>Islandwide</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>$3,750 to $4,750 Monthly</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/information-technology/embedded-firmware-engineer-beyondsoft-international-527a0cccc99c787016f5825738109a35</t>
-  </si>
-  <si>
-    <t>MCF-2022-0366966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Embedded Firmware Engineer </t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#.NET, Software Engineering, MySQL, Microsoft Visual Studio C++, Application programming, </t>
-  </si>
-  <si>
-    <t>$3,000 to $4,500 Monthly</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/information-technology/software-engineer-android-ntuc-enterprise-nexus-co-operative-d494d5698866a2719de0ccccd7842028</t>
-  </si>
-  <si>
-    <t>MCF-2022-0352363</t>
-  </si>
-  <si>
-    <t>Software Engineer, Android</t>
-  </si>
-  <si>
-    <t>Manager, Executive</t>
-  </si>
-  <si>
-    <t>77 ROBINSON ROAD 068896</t>
-  </si>
-  <si>
-    <t>$6,000 to $12,000 Monthly</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/information-technology/software-engineer-product-development-mercatus-co-operative-5f77db585d934a1e49ad8c04382666cc</t>
-  </si>
-  <si>
-    <t>MCF-2022-0344947</t>
-  </si>
-  <si>
-    <t>Software Engineer, Product Development (Contract)</t>
-  </si>
-  <si>
-    <t>Contract</t>
-  </si>
-  <si>
-    <t>1 MARINA BOULEVARD 018989</t>
-  </si>
-  <si>
-    <t>4 years exp</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/engineering/technical-consultant-pacific-tech-4689355aa923ae3c7675441de55ae192</t>
-  </si>
-  <si>
-    <t>MCF-2022-0324438</t>
-  </si>
-  <si>
-    <t>PACIFIC TECH PTE. LTD.</t>
-  </si>
-  <si>
-    <t>Technical Consultant</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICT, Dynamics, Selling, Data Migration, Consulting, Technical Support, </t>
-  </si>
-  <si>
-    <t>Permanent</t>
-  </si>
-  <si>
-    <t>Engineering, Information Technology</t>
-  </si>
-  <si>
-    <t>E-CENTRE @ REDHILL, 3791 JALAN BUKIT MERAH 159471</t>
-  </si>
-  <si>
-    <t>$3,800 to $6,000 Monthly</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/information-technology/software-developer-genesis-networks-36eb999885686de85b36fbdaed179405</t>
-  </si>
-  <si>
-    <t>MCF-2022-0365569</t>
-  </si>
-  <si>
-    <t>GENESIS NETWORKS PTE LTD</t>
-  </si>
-  <si>
-    <t>Software Developer</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web Services, CSS, PHP, .NET, Agile Development, </t>
-  </si>
-  <si>
-    <t>2 KAKI BUKIT AVENUE 1 417938</t>
-  </si>
-  <si>
-    <t>$2,800 to $3,300 Monthly</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/information-technology/net-pl-sql-developer-exasoft-ab4c9155e035edac2c5edeb29ec1b986</t>
-  </si>
-  <si>
-    <t>MCF-2022-0349413</t>
-  </si>
-  <si>
-    <t>EXASOFT PTE. LTD.</t>
-  </si>
-  <si>
-    <t>.Net PL / SQL Developer</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feasibility Studies, ASPNet, Program Development, Azure, Oracle PL/SQL, Unix, Test Cases, Microsoft SQL Server, PL/SQL Developer, SQL Server, SSIS, Business Requirements, SSRS, </t>
-  </si>
-  <si>
-    <t>$4,500 to $6,000 Monthly</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/information-technology/technical-lead-ufinity-56087fb5cf3a1d1cae8e8fa66490e468</t>
-  </si>
-  <si>
-    <t>MCF-2022-0321872</t>
-  </si>
-  <si>
-    <t>Technical Lead (Operations)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web Services, Application Servers, Amazon Web Services, Unix, Software Design, </t>
-  </si>
-  <si>
-    <t>Senior Executive</t>
-  </si>
-  <si>
-    <t>$5,600 to $6,800 Monthly</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/information-technology/technical-consultant-ytl-powerseraya-0e60068d89f3e3a91a744ad2ef3b5d95</t>
-  </si>
-  <si>
-    <t>MCF-2022-0340571</t>
-  </si>
-  <si>
-    <t>YTL POWERSERAYA PTE. LIMITED</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Groovy, Dynamics, Scripting, Customer Care, Consulting, Business Requirements, Technical Support, </t>
-  </si>
-  <si>
-    <t>450 ALEXANDRA ROAD 119960</t>
-  </si>
-  <si>
-    <t>6 years exp</t>
-  </si>
-  <si>
-    <t>$4,500 to $8,500 Monthly</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/information-technology/python-django-web-developer-persolkelly-singapore-af5cd1f5ae55926190e8ec96a8e917f5</t>
-  </si>
-  <si>
-    <t>MCF-2022-0372902</t>
-  </si>
-  <si>
-    <t>PERSOLKELLY SINGAPORE PTE. LTD.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python Django Web Developer </t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shell Scripting, Unix, Python, Django, jQuery, </t>
-  </si>
-  <si>
-    <t>5 years exp</t>
-  </si>
-  <si>
-    <t>$7,000 to $10,500 Monthly</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/banking-finance/software-engineer-linklogis-0ee9cbb437fe5b0cbb82f0a7576a5305</t>
-  </si>
-  <si>
-    <t>MCF-2022-0289316</t>
-  </si>
-  <si>
-    <t>LINKLOGIS (SINGAPORE) PTE. LTD.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Data, Cloud Computing, Data Structures, Software Engineering, MySQL, </t>
-  </si>
-  <si>
-    <t>Banking and Finance, Engineering, Information Technology</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/information-technology/technical-consultant-intver-global-consulting-6792d65bafd93309533845efec7a0d0e</t>
-  </si>
-  <si>
-    <t>MCF-2022-0073284</t>
-  </si>
-  <si>
-    <t>INTVER GLOBAL CONSULTING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.NET, Software Engineering, Application Development, Good Communication Skills, Web Applications, Team Player, </t>
-  </si>
-  <si>
-    <t>$4,000 to $5,500 Monthly</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/information-technology/senior-java-developer-adecco-personnel-1d10150bf209d0b2d23f2b3f44bb962e</t>
-  </si>
-  <si>
-    <t>MCF-2022-0362694</t>
-  </si>
-  <si>
-    <t>ADECCO PERSONNEL PTE LTD</t>
-  </si>
-  <si>
-    <t>Senior Java Developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDD, Web Services, Cassandra, JUnit, User Acceptance Testing, Performance Tuning, Hibernate, </t>
-  </si>
-  <si>
-    <t>Contract, Permanent, Full Time</t>
-  </si>
-  <si>
-    <t>SHAW CENTRE, 1 SCOTTS ROAD 228208</t>
-  </si>
-  <si>
-    <t>8 years exp</t>
-  </si>
-  <si>
-    <t>$7,000 to $11,000 Monthly</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/engineering/sustaining-software-engineer-teradyne-3c658103ed4e9483425f84dbf80593dd</t>
-  </si>
-  <si>
-    <t>MCF-2022-0360521</t>
-  </si>
-  <si>
-    <t>TERADYNE (ASIA) PTE. LTD.</t>
-  </si>
-  <si>
-    <t>Sustaining Software Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hardware, Data Structures, Software Engineering, Agile, Python, C#, C++, </t>
-  </si>
-  <si>
-    <t>Professional</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
-    <t>The Aries Singapore Science Park 2, 51 Science Park Road 117586</t>
-  </si>
-  <si>
-    <t>$5,500 to $7,000 Monthly</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/information-technology/system-analyst-success-resource-centre-025c040e697752c64ceab71ac01bcce8</t>
-  </si>
-  <si>
-    <t>MCF-2022-0354139</t>
-  </si>
-  <si>
-    <t>SUCCESS RESOURCE CENTRE PTE. LTD.</t>
-  </si>
-  <si>
-    <t>System Analyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XSD, XSLT, SOAP, SQL Server, Windows, XSL, XPath, DB2, </t>
+    <t>Wholesale Trade</t>
+  </si>
+  <si>
+    <t>SPRINGLEAF TOWER, 3 ANSON ROAD 079909</t>
+  </si>
+  <si>
+    <t>$1,000 to $1,000 Monthly</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft PowerPoint, Troubleshooting, Well Organised, Administration, Data Entry, Office Administration, Financial Statements, Time Management skills, Administrative Support, Team Player, </t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market Research, Competitive Analysis, Forecasting, Product Marketing, Change Management, Inventory, Marketing Strategy, Supply Chain, Strategy, B2B, Product Management, Project Management, Attention to Detail, Product Development, Pricing, Electronics, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Marketing, Fundraising, Pressure, Team Player, Product Development, Customer Service, KYC, Facilitation, Shipping, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to Multitask, Microsoft PowerPoint, Travel Arrangements, Office Management, Administration, Data Entry, PMO, SharePoint, MS Word, Good Communication Skills, Attention to Detail, Administrative Support, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negotiation, Wealth Management, Interpersonal Skills, Cold Calling, Selling, B2B, Networking, Customer Satisfaction, Team Player, Customer Service, Business Development, </t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/banking-finance/sales-consultant-veltiston-group-aa3755f5e4c100ec75e9d077dc0c1a3e</t>
+  </si>
+  <si>
+    <t>MCF-2022-0373775</t>
+  </si>
+  <si>
+    <t>Sales Consultant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negotiation, Wealth Management, Excellent Communication Skills, Stress, Interpersonal Skills, Selling, Sales Process, Good Communication Skills, Networking, Consulting, Team Player, Customer Service, Business Development, </t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/professional-services/esports-analyst-hyperlive-entertainment-4efb29810f6f230331042139a0b1f754</t>
+  </si>
+  <si>
+    <t>MCF-2022-0290316</t>
+  </si>
+  <si>
+    <t>HYPERLIVE ENTERTAINMENT PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Esports Analyst</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coaching, Able To Multitask, Data Analysis, Ability To Work Independently, Strategy, Compliance, Attention to Detail, Time Management, Statistics, Team Player, </t>
+  </si>
+  <si>
+    <t>Professional Services</t>
+  </si>
+  <si>
+    <t>26A ANN SIANG ROAD 069706</t>
+  </si>
+  <si>
+    <t>$2,500 to $4,000 Monthly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent Communication Skills, Travel Arrangements, Office Management, Administration, Office Administration, Word Processing, Bookkeeping, Administrative Support, </t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/accounting/senior-administration-officer-7913-good-job-creations-dfeb75dc6740655729732bf82f073e66</t>
+  </si>
+  <si>
+    <t>MCF-2022-0361868</t>
+  </si>
+  <si>
+    <t>GOOD JOB CREATIONS (SINGAPORE) PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Senior Administration Officer (SAP /  Tanjong Pagar /  5 Days /  Up to $2.7k) - 7913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft PowerPoint, Troubleshooting, Interpersonal Skills, Inventory, Books, Administration, Payroll, Data Entry, Bank Reconciliation, SharePoint, Accounting, Communication Skills, Administrative Support, Team Player, Human Resources, Able To Work Independently, </t>
+  </si>
+  <si>
+    <t>Accounting / Auditing / Taxation, Admin / Secretarial</t>
+  </si>
+  <si>
+    <t>NOVENA SQUARE, 238A THOMSON ROAD 307684</t>
+  </si>
+  <si>
+    <t>$2,500 to $2,700 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/professional-services/project-coordinator-psykhe-580ce7418dc880639ca12fd9fcf44764</t>
+  </si>
+  <si>
+    <t>MCF-2022-0376150</t>
+  </si>
+  <si>
+    <t>PSYKHE PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Project Coordinator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Management Skills, Budgets, Customer Experience, User Stories, Project Management, Administrative Support, Project Coordination, Stakeholder Management, Project Delivery, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negotiation, Customer Information, Administration, Selling, INCO terms, Freight, Networking, Communication Skills, Internal Audit, Team Player, Customer Service, Business Development, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front Office, Customer Service Oriented, Able To Multitask, Troubleshooting, Interpersonal Skills, Inventory, Healthcare, Medicine, Administration, Musculoskeletal, Customer Service, Customer Services, Able To Work Independently, </t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/general-work/driver-cum-warehouse-assist-acquaint-career-consultants-f9cafdf4b1653318470e6741d927e732</t>
+  </si>
+  <si>
+    <t>MCF-2022-0376139</t>
+  </si>
+  <si>
+    <t>ACQUAINT CAREER CONSULTANTS</t>
+  </si>
+  <si>
+    <t>Driver cum Warehouse Assist (North - $2.3K to $2.8K)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warehousing, Warehouse Management, Converge, Housekeeping, Inventory, Unloading, Data Entry, Physically Fit, Freight, Driving License, Class 3 Driving License, Occupational Health, Shipping, </t>
+  </si>
+  <si>
+    <t>General Work, Logistics / Supply Chain, Others</t>
+  </si>
+  <si>
+    <t>KINGLY BUILDING, 46 SOUTH BRIDGE ROAD 058679</t>
+  </si>
+  <si>
+    <t>$2,000 to $2,900 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/customer-service/customer-service-executive-foodxervices-21e2b7738ae0e7e41700f7dff47bd112</t>
+  </si>
+  <si>
+    <t>MCF-2022-0376132</t>
+  </si>
+  <si>
+    <t>FOODXERVICES INC. PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Customer Service Executive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent Communication Skills, Able To Multitask, Assessing, Interpersonal Skills, Selling, Communication Skills, Customer Satisfaction, Team Player, Customer Service, Customer Service Experience, </t>
+  </si>
+  <si>
+    <t>Customer Service, Wholesale Trade</t>
+  </si>
+  <si>
+    <t>218 PANDAN LOOP 128408</t>
+  </si>
+  <si>
+    <t>$2,800 to $3,400 Monthly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -587,7 +876,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,12 +886,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,7 +902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -640,9 +923,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,35 +1203,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" style="6" customWidth="1"/>
-    <col min="3" max="4" width="53.77734375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="44" style="6" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="53.77734375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="26.44140625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="17" style="6" customWidth="1"/>
-    <col min="12" max="12" width="49.109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="54.6640625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="23.109375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="53.6328125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.6328125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="20.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="93.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="54.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.08984375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="8.90625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -999,7 +1279,7 @@
       </c>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1021,7 +1301,7 @@
       <c r="G2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="8" t="s">
@@ -1046,9 +1326,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>15</v>
@@ -1057,139 +1337,139 @@
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>38</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>49</v>
+        <v>213</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>50</v>
+        <v>214</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>51</v>
+        <v>216</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
         <v>32</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>5</v>
-      </c>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="I5" s="8" t="s">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>15</v>
@@ -1198,45 +1478,45 @@
         <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
@@ -1245,45 +1525,45 @@
         <v>16</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>15</v>
@@ -1292,45 +1572,45 @@
         <v>16</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>15</v>
@@ -1339,45 +1619,45 @@
         <v>16</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="I9" s="8" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>15</v>
@@ -1392,39 +1672,39 @@
         <v>88</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>38</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -1433,45 +1713,45 @@
         <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>15</v>
@@ -1480,280 +1760,280 @@
         <v>16</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>114</v>
+        <v>212</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>134</v>
+        <v>227</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>138</v>
+        <v>252</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>139</v>
+        <v>253</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>140</v>
+        <v>254</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>141</v>
+        <v>255</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>25</v>
+        <v>240</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>147</v>
+        <v>52</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="G17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="K17" s="6" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>15</v>
@@ -1762,45 +2042,45 @@
         <v>16</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>15</v>
@@ -1809,45 +2089,45 @@
         <v>16</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>15</v>
@@ -1856,45 +2136,45 @@
         <v>16</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>15</v>
@@ -1903,92 +2183,92 @@
         <v>16</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="H21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>38</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>3</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="G22" s="6" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>15</v>
@@ -1997,45 +2277,1079 @@
         <v>16</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>11</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="M24" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="N24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K23" s="6" t="s">
+    </row>
+    <row r="25" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>16</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>17</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>18</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="6" t="s">
+      <c r="L27" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>19</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>20</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>28</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>31</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="N23" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>123</v>
+      <c r="E31" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>35</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>36</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>39</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>40</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>41</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>21</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>22</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>23</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>33</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>42</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>43</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>34</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>44</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>29</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O23"/>
-  <sortState ref="A1:O23">
+  <autoFilter ref="A1:O45" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:O45">
     <sortCondition descending="1" ref="H1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -1,114 +1,478 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
-  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proj\UiPath\SCT9_Diamond_Project2\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <x:bookViews>
-    <x:workbookView xWindow="336" yWindow="204" windowWidth="9276" windowHeight="9996" firstSheet="0" activeTab="0"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="162913"/>
-  <x:extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <bookViews>
+    <workbookView xWindow="336" yWindow="204" windowWidth="9276" windowHeight="9996"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$13</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </x:ext>
-  </x:extLst>
-</x:workbook>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <x:si>
-    <x:t>No.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Filename</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Skills</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Balakrishna_1.docx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Architect,Business Analyst,CSS,Database,HTML,Java,JavaScript,Linux,Oracle,PL/SQL,Servers,Software Development,SQL,UML,Web Service,XML</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="117">
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Job Ref</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Score (%)</t>
+  </si>
+  <si>
+    <t>Gap</t>
+  </si>
+  <si>
+    <t>Emp Type</t>
+  </si>
+  <si>
+    <t>Job Level</t>
+  </si>
+  <si>
+    <t>Job Function</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Year Exp</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Balakrishna_1.docx</t>
+  </si>
+  <si>
+    <t>Architect,Business Analyst,CSS,Database,HTML,Java,JavaScript,Linux,Oracle,PL/SQL,Servers,Software Development,SQL,UML,Web Service,XML</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/software-engineer-sita-information-networking-computing-0634cbec98463e8287fed653082527c4</t>
+  </si>
+  <si>
+    <t>MCF-2022-0358111</t>
+  </si>
+  <si>
+    <t>SITA INFORMATION NETWORKING COMPUTING (ASIA PACIFIC) PTE LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Engineer </t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Services, Scrum, REST, Software Engineering, SQL Server, Windows, Continuous Integration, Angular, API, Hibernate, </t>
+  </si>
+  <si>
+    <t>Full Time</t>
+  </si>
+  <si>
+    <t>Junior Executive</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>11 LOYANG WAY 508723</t>
+  </si>
+  <si>
+    <t>2 years exp</t>
+  </si>
+  <si>
+    <t>$5,000 to $5,500 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/banking-finance/j2ee-software-engineer-avallis-financial-2db445776e740e24ad67b1acc8fd91ca</t>
+  </si>
+  <si>
+    <t>MCF-2022-0341338</t>
+  </si>
+  <si>
+    <t>AVALLIS FINANCIAL PTE. LTD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J2EE Software Engineer (Financial Applications)  </t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVC, JSON, Rollout, Scripting, HTML5, UI, Maven, Core Java, Hibernate, </t>
+  </si>
+  <si>
+    <t>Permanent, Full Time</t>
+  </si>
+  <si>
+    <t>Executive</t>
+  </si>
+  <si>
+    <t>Banking and Finance, Information Technology</t>
+  </si>
+  <si>
+    <t>CLIFFORD CENTRE, 24 RAFFLES PLACE 048621</t>
+  </si>
+  <si>
+    <t>4 years exp</t>
+  </si>
+  <si>
+    <t>$3,500 to $5,500 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/system-analyst-ik-bgc-group-e3dc5d9d18bff0e9619e44fdd707cb22</t>
+  </si>
+  <si>
+    <t>MCF-2022-0359239</t>
+  </si>
+  <si>
+    <t>BGC GROUP PTE. LTD.</t>
+  </si>
+  <si>
+    <t>System Analyst (.NET / Gov)-IK</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASPNet, Microsoft Azure, Web Services, .NET, Azure, Hardware, SharePoint, SQL Server, Windows, C#, J2EE, </t>
+  </si>
+  <si>
+    <t>Contract, Full Time</t>
+  </si>
+  <si>
+    <t>Senior Executive</t>
+  </si>
+  <si>
+    <t>Islandwide</t>
+  </si>
+  <si>
+    <t>6 years exp</t>
+  </si>
+  <si>
+    <t>$6,000 to $8,000 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/java-full-stack-developer-rapsys-technologies-bf16487777bcb8bc081585a51c729f00</t>
+  </si>
+  <si>
+    <t>MCF-2022-0373556</t>
+  </si>
+  <si>
+    <t>RAPSYS TECHNOLOGIES PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Java Full Stack Developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Git, Web Services, MySQL, Agile, UI, Maven, Angular, API, Hibernate, </t>
+  </si>
+  <si>
+    <t>Professional</t>
+  </si>
+  <si>
+    <t>FORTUNE CENTRE, 190 MIDDLE ROAD 188979</t>
+  </si>
+  <si>
+    <t>3 years exp</t>
+  </si>
+  <si>
+    <t>$6,500 to $8,500 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/senior-software-developer-flintex-consulting-f1b363325f91d7d0452a2f4ba0d40cef</t>
+  </si>
+  <si>
+    <t>MCF-2022-0362168</t>
+  </si>
+  <si>
+    <t>FLINTEX CONSULTING PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Senior Software Developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVC, JSON, ASPNet, Web Services, PHP, Design Patterns, HTML5, Software Design, C#, Apache, </t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL PLAZA, 10 ANSON ROAD 079903</t>
+  </si>
+  <si>
+    <t>$4,700 to $5,500 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/application-developer-tek-village-f801bc130a218574ba47e8faf752977d</t>
+  </si>
+  <si>
+    <t>MCF-2022-0141402</t>
+  </si>
+  <si>
+    <t>TEK VILLAGE PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Application Developer (Java)</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agile, Application Development, HTML5, Python, Angular, C#, J2EE, Business Requirements, </t>
+  </si>
+  <si>
+    <t>1 year exp</t>
+  </si>
+  <si>
+    <t>$4,000 to $4,500 Monthly</t>
+  </si>
+  <si>
+    <t>Balakrishna_1_1.docx</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/engineering/software-engineer-sin-ming-5000-2512-supreme-hr-advisory-e177f426b7350f9bf73759ca80e173fa</t>
+  </si>
+  <si>
+    <t>MCF-2022-0275817</t>
+  </si>
+  <si>
+    <t>THE SUPREME HR ADVISORY PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Software Engineer [Sin Ming /  Up to $5000] 2512</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVC, CSS3, Web Services, .NET, Unit Testing, HTML5, SQL Server, Windows, C#, Debugging, API, </t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>$4,500 to $5,000 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/software-developer-ihub-solutions-3af1bde61c4e9f181a353c08c2010988</t>
+  </si>
+  <si>
+    <t>MCF-2022-0322271</t>
+  </si>
+  <si>
+    <t>IHUB SOLUTIONS PTE LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Developer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troubleshooting, CSS3, Web Services, PHP, User Interface Design, HTML5, SQL Server, Web Developer, Web Applications, C#, Able To Work Independently, </t>
+  </si>
+  <si>
+    <t>ALOG COMMODITY HUB, 24 PENJURU ROAD 609128</t>
+  </si>
+  <si>
+    <t>$2,800 to $3,500 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/system-analyst-elitez-8fbd06a4abf859d776cbf2613495cf4c</t>
+  </si>
+  <si>
+    <t>MCF-2022-0310883</t>
+  </si>
+  <si>
+    <t>ELITEZ PTE. LTD.</t>
+  </si>
+  <si>
+    <t>System Analyst (PEGA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Services, SOAP, Application Development, Information Technology, Project Management, SQL Server, DB2, Able To Work Independently, </t>
+  </si>
+  <si>
+    <t>Contract, Permanent, Full Time</t>
+  </si>
+  <si>
+    <t>CT HUB, 2 KALLANG AVENUE 339407</t>
+  </si>
+  <si>
+    <t>$5,000 to $9,000 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/software-engineer-ufinity-358562641e0c3590533e71f4cfa9e39f</t>
+  </si>
+  <si>
+    <t>MCF-2022-0321920</t>
+  </si>
+  <si>
+    <t>UFINITY PTE LTD</t>
+  </si>
+  <si>
+    <t>Software Engineer (Java)</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information Technology, Software Design, Web Development, </t>
+  </si>
+  <si>
+    <t>21 UBI ROAD 1 408724</t>
+  </si>
+  <si>
+    <t>$3,900 to $5,000 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/software-developer-genesis-networks-76e359ca3358ddca99c5513a00fb8344</t>
+  </si>
+  <si>
+    <t>MCF-2022-0365595</t>
+  </si>
+  <si>
+    <t>GENESIS NETWORKS PTE LTD</t>
+  </si>
+  <si>
+    <t>Software Developer</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Services, PHP, .NET, Scripting, Agile Development, </t>
+  </si>
+  <si>
+    <t>2 KAKI BUKIT AVENUE 1 417938</t>
+  </si>
+  <si>
+    <t>$3,400 to $4,000 Monthly</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="2" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="3">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="4">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -373,65 +737,652 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:sheetPr codeName="Sheet1">
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <x:selection activeCell="H1" sqref="H1 H1:H1 H1:H1048576"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.886719" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <x:cols>
-    <x:col min="1" max="1" width="3.777344" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="36.554688" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="4" width="53.664062" style="2" customWidth="1"/>
-    <x:col min="5" max="5" width="17" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="6" max="6" width="44.441406" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="7" max="7" width="55.664062" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="8" max="8" width="8.554688" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="9" max="9" width="53.664062" style="2" customWidth="1"/>
-    <x:col min="10" max="10" width="20.109375" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="11" max="11" width="14.886719" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="12" max="12" width="51.886719" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="13" max="13" width="45.777344" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="14" max="14" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="15" max="15" width="22.109375" style="2" customWidth="1"/>
-    <x:col min="16" max="16384" width="8.886719" style="2" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:16">
-      <x:c r="A1" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:16">
-      <x:c r="A2" s="2" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B2" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:sortState ref="A1:O9">
-    <x:sortCondition descending="1" ref="H1"/>
-  </x:sortState>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="6" customWidth="1"/>
+    <col min="3" max="4" width="53.77734375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.88671875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.77734375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="26.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="38.6640625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="44.6640625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" style="6" customWidth="1"/>
+    <col min="15" max="15" width="22.109375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:O13"/>
+  <sortState ref="A1:O13">
+    <sortCondition descending="1" ref="H1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>No.</t>
   </si>
@@ -74,187 +74,127 @@
     <t>Salary</t>
   </si>
   <si>
-    <t>Kevin-W-Li-resume-220603.docx</t>
-  </si>
-  <si>
-    <t>Agile,Automation,Computer Science,Consulting,CSS,Excel,HTML,Java,JavaScript,Leadership,Machine Learning,Marketing,Multimedia,Photos,Photoshop,PHP,Publishing,Python,Scrum,SEO,Software Engineering,SQL,Team Leader,Team Leadership,Teamwork,UiPath,VB,VB.NET,VBA,WordPress</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/customer-service/rpa-developer-recruit-expert-ed911fd9c501b3c96279c63de6de9d8d</t>
-  </si>
-  <si>
-    <t>MCF-2022-0333756</t>
-  </si>
-  <si>
-    <t>RECRUIT EXPERT PTE. LTD.</t>
-  </si>
-  <si>
-    <t>RPA Developer (UiPath, up to $8,000)</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Troubleshooting, Process Automation, coding, Information Technology, Designing, Microsoft VB.Net, C#, Debugging, Testing, </t>
-  </si>
-  <si>
-    <t>Permanent</t>
-  </si>
-  <si>
-    <t>Senior Executive</t>
-  </si>
-  <si>
-    <t>Customer Service, Engineering, Information Technology, Manufacturing, Others</t>
-  </si>
-  <si>
-    <t>THE ARCADE, 11 COLLYER QUAY 049317</t>
+    <t>Balakrishna_1.docx</t>
+  </si>
+  <si>
+    <t>CSS,Database,HTML,Java,JavaScript,Linux,Oracle,PL/SQL,Servers,Software Development,SQL,UML,Web Service,XML</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/software-developer-genesis-networks-36eb999885686de85b36fbdaed179405</t>
+  </si>
+  <si>
+    <t>MCF-2022-0365569</t>
+  </si>
+  <si>
+    <t>GENESIS NETWORKS PTE LTD</t>
+  </si>
+  <si>
+    <t>Software Developer</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Services, PHP, .NET, Agile Development, </t>
+  </si>
+  <si>
+    <t>Permanent, Full Time</t>
+  </si>
+  <si>
+    <t>Junior Executive</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>2 KAKI BUKIT AVENUE 1 417938</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>$2,800 to $3,300 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/java-full-stack-developer-rapsys-technologies-bf16487777bcb8bc081585a51c729f00</t>
+  </si>
+  <si>
+    <t>MCF-2022-0373556</t>
+  </si>
+  <si>
+    <t>RAPSYS TECHNOLOGIES PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Java Full Stack Developer</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Git, Web Services, MySQL, Agile, UI, Maven, Angular, API, Hibernate, </t>
+  </si>
+  <si>
+    <t>Full Time</t>
+  </si>
+  <si>
+    <t>Professional</t>
+  </si>
+  <si>
+    <t>FORTUNE CENTRE, 190 MIDDLE ROAD 188979</t>
+  </si>
+  <si>
+    <t>3 years exp</t>
+  </si>
+  <si>
+    <t>$6,500 to $8,500 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/engineering/software-engineer-sin-ming-4000-2512-supreme-hr-advisory-f15065cdc49d5929babcebd4bc16957b</t>
+  </si>
+  <si>
+    <t>MCF-2022-0255718</t>
+  </si>
+  <si>
+    <t>THE SUPREME HR ADVISORY PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Software Engineer [Sin Ming /  Up to $4000] 2512</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVC, Web Services, .NET, Unit Testing, HTML5, SQL Server, Windows, C#, Debugging, API, </t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Islandwide</t>
   </si>
   <si>
     <t>2 years exp</t>
   </si>
   <si>
-    <t>$4,000 to $8,000 Monthly</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/engineering/full-stack-developer-cloud-iot-applications-french-chamber-commerce-singapore-2a5e02a4ebf3106c5282b11ff7db82ea</t>
-  </si>
-  <si>
-    <t>MCF-2022-0061357</t>
-  </si>
-  <si>
-    <t>French Chamber of Commerce in Singapore, The</t>
-  </si>
-  <si>
-    <t>Full Stack Developer for cloud and IoT applications</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Website Development, Azure, Data Management, Angular, C#, Databases, Software Development, </t>
-  </si>
-  <si>
-    <t>Full Time</t>
-  </si>
-  <si>
-    <t>Professional</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
-    <t>1  CleanTech Loop 637141</t>
-  </si>
-  <si>
-    <t>3 years exp</t>
-  </si>
-  <si>
-    <t>$6,000 to $10,000 Monthly</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/information-technology/software-engineer-52073-anradus-657be8e6a0be43f2692e1806b8e08024</t>
-  </si>
-  <si>
-    <t>MCF-2022-0372449</t>
-  </si>
-  <si>
-    <t>ANRADUS PTE. LTD.</t>
-  </si>
-  <si>
-    <t>Software Engineer #52073</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Experience, Vbnet, C#, Screening, API, Manufacturing, Databases, Linux, Software Development, C++, </t>
-  </si>
-  <si>
-    <t>Permanent, Full Time</t>
-  </si>
-  <si>
-    <t>Junior Executive</t>
-  </si>
-  <si>
-    <t>Information Technology</t>
-  </si>
-  <si>
-    <t>Islandwide</t>
+    <t>$4,500 to $5,000 Monthly</t>
+  </si>
+  <si>
+    <t>https://www.mycareersfuture.gov.sg/job/information-technology/software-developer-genesis-networks-76e359ca3358ddca99c5513a00fb8344</t>
+  </si>
+  <si>
+    <t>MCF-2022-0365595</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Services, PHP, .NET, Scripting, Agile Development, </t>
   </si>
   <si>
     <t>1 year exp</t>
   </si>
   <si>
-    <t>$2,800 to $5,000 Monthly</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/information-technology/applications-developer-helius-technologies-97f12497fd458cc0e44fe229c1cb7c24</t>
-  </si>
-  <si>
-    <t>MCF-2022-0318720</t>
-  </si>
-  <si>
-    <t>HELIUS TECHNOLOGIES PTE. LTD.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Applications Developer (.Net) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASSIVE, ASPNet, .NET, Application Development, HTML5, Information Technology, Vbnet, C#, API, Software Development, </t>
-  </si>
-  <si>
-    <t>5 years exp</t>
-  </si>
-  <si>
-    <t>$7,000 to $8,500 Monthly</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/information-technology/software-engineer-eps-computer-systems-82b6c524fa3f544d8b3ca644a895fffb</t>
-  </si>
-  <si>
-    <t>MCF-2022-0362308</t>
-  </si>
-  <si>
-    <t>EPS COMPUTER SYSTEMS PTE LTD</t>
-  </si>
-  <si>
-    <t>Software Engineer (50 Perm Openings)</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MongoDB, User Stories, SDLC, Web Technologies, Team Player, C#, UX, Software Development, C++, </t>
-  </si>
-  <si>
-    <t>Fresh/entry level</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>$3,800 to $4,800 Monthly</t>
-  </si>
-  <si>
-    <t>https://www.mycareersfuture.gov.sg/job/engineering/senior-software-engineer-engineer-aicadium-singapore-ee356e867edd2d0c3ad5d3b1191e877d</t>
-  </si>
-  <si>
-    <t>MCF-2022-0126940</t>
-  </si>
-  <si>
-    <t>AICADIUM SINGAPORE PTE. LTD.</t>
-  </si>
-  <si>
-    <t>Senior Software Engineer  /  Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Git, Producing, Kubernetes, Pipelines, Hadoop, Attention to Detail, Docker, Teamwork Skills, Software Development, Agile Development, </t>
-  </si>
-  <si>
-    <t>Engineering, Information Technology, Others</t>
-  </si>
-  <si>
-    <t>$8,000 to $16,000 Monthly</t>
+    <t>$3,400 to $4,000 Monthly</t>
   </si>
 </sst>
 </file>
@@ -607,7 +547,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H1048576"/>
@@ -616,19 +556,19 @@
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="6" customWidth="1"/>
     <col min="3" max="4" width="53.77734375" style="8" customWidth="1"/>
     <col min="5" max="5" width="17.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.77734375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="42.77734375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="32.88671875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="41.88671875" style="6" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="53.77734375" style="8" customWidth="1"/>
     <col min="10" max="10" width="18.21875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="66.33203125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="34.33203125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="20.77734375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="39.33203125" style="6" customWidth="1"/>
     <col min="14" max="14" width="10.109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="23.109375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="22.109375" style="5" customWidth="1"/>
     <col min="16" max="16" width="8.88671875" style="1" customWidth="1"/>
     <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -681,9 +621,9 @@
       </c>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>15</v>
@@ -692,45 +632,45 @@
         <v>16</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>15</v>
@@ -739,45 +679,45 @@
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>15</v>
@@ -786,45 +726,45 @@
         <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>15</v>
@@ -833,139 +773,45 @@
         <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="J5" s="6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O7"/>
-  <sortState ref="A1:O7">
+  <autoFilter ref="A1:O5"/>
+  <sortState ref="A1:O5">
     <sortCondition descending="1" ref="H1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
